--- a/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9704642261391914</v>
+        <v>0.9704642261391913</v>
       </c>
       <c r="D2">
-        <v>0.9942415733398974</v>
+        <v>0.9942415733398973</v>
       </c>
       <c r="E2">
-        <v>0.9788540123485454</v>
+        <v>0.9788540123485452</v>
       </c>
       <c r="F2">
-        <v>0.9740533928830288</v>
+        <v>0.9740533928830287</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.0335966394744</v>
       </c>
       <c r="J2">
-        <v>0.9935657213180399</v>
+        <v>0.9935657213180397</v>
       </c>
       <c r="K2">
         <v>1.00578171946246</v>
       </c>
       <c r="L2">
-        <v>0.9906160227688521</v>
+        <v>0.9906160227688519</v>
       </c>
       <c r="M2">
-        <v>0.9858864445667891</v>
+        <v>0.9858864445667889</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9825365436819535</v>
+        <v>0.9825365436819556</v>
       </c>
       <c r="D3">
-        <v>1.00380573396697</v>
+        <v>1.003805733966973</v>
       </c>
       <c r="E3">
-        <v>0.9903367719851941</v>
+        <v>0.9903367719851965</v>
       </c>
       <c r="F3">
-        <v>0.9865260546318736</v>
+        <v>0.9865260546318761</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.03794274218565</v>
       </c>
       <c r="J3">
-        <v>1.003514872472046</v>
+        <v>1.003514872472049</v>
       </c>
       <c r="K3">
-        <v>1.014390150215355</v>
+        <v>1.014390150215357</v>
       </c>
       <c r="L3">
-        <v>1.001094807230103</v>
+        <v>1.001094807230105</v>
       </c>
       <c r="M3">
-        <v>0.9973342903761102</v>
+        <v>0.9973342903761127</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9899529103978978</v>
+        <v>0.9899529103978969</v>
       </c>
       <c r="D4">
-        <v>1.009685236317656</v>
+        <v>1.009685236317655</v>
       </c>
       <c r="E4">
-        <v>0.9973975389056358</v>
+        <v>0.9973975389056349</v>
       </c>
       <c r="F4">
-        <v>0.9941996991310267</v>
+        <v>0.9941996991310262</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>1.040593341508558</v>
       </c>
       <c r="J4">
-        <v>1.009617160921318</v>
+        <v>1.009617160921317</v>
       </c>
       <c r="K4">
         <v>1.019668157738016</v>
@@ -524,7 +524,7 @@
         <v>1.00752747515436</v>
       </c>
       <c r="M4">
-        <v>1.004368636476315</v>
+        <v>1.004368636476314</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9929850628497217</v>
+        <v>0.9929850628497197</v>
       </c>
       <c r="D5">
-        <v>1.012089740872937</v>
+        <v>1.012089740872935</v>
       </c>
       <c r="E5">
-        <v>1.000285742812774</v>
+        <v>1.000285742812772</v>
       </c>
       <c r="F5">
-        <v>0.9973396845740037</v>
+        <v>0.9973396845740018</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041672283674286</v>
+        <v>1.041672283674285</v>
       </c>
       <c r="J5">
-        <v>1.012109635155048</v>
+        <v>1.012109635155046</v>
       </c>
       <c r="K5">
-        <v>1.021823413526086</v>
+        <v>1.021823413526084</v>
       </c>
       <c r="L5">
-        <v>1.010156206737493</v>
+        <v>1.010156206737491</v>
       </c>
       <c r="M5">
-        <v>1.007244914427925</v>
+        <v>1.007244914427924</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9934893838058058</v>
+        <v>0.9934893838058061</v>
       </c>
       <c r="D6">
         <v>1.012489702550778</v>
@@ -582,13 +582,13 @@
         <v>1.000766202438322</v>
       </c>
       <c r="F6">
-        <v>0.9978620945939092</v>
+        <v>0.9978620945939097</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041851455852048</v>
+        <v>1.041851455852049</v>
       </c>
       <c r="J6">
         <v>1.012524049666799</v>
@@ -597,10 +597,10 @@
         <v>1.022181726093965</v>
       </c>
       <c r="L6">
-        <v>1.010593353310211</v>
+        <v>1.010593353310212</v>
       </c>
       <c r="M6">
-        <v>1.007723326131806</v>
+        <v>1.007723326131807</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.98999375209199</v>
+        <v>0.9899937520919896</v>
       </c>
       <c r="D7">
-        <v>1.009717621448628</v>
+        <v>1.009717621448627</v>
       </c>
       <c r="E7">
-        <v>0.9974364361417969</v>
+        <v>0.9974364361417966</v>
       </c>
       <c r="F7">
-        <v>0.9942419828594722</v>
+        <v>0.9942419828594713</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04060789335462</v>
       </c>
       <c r="J7">
-        <v>1.009650743127749</v>
+        <v>1.009650743127748</v>
       </c>
       <c r="K7">
-        <v>1.019697198696427</v>
+        <v>1.019697198696426</v>
       </c>
       <c r="L7">
-        <v>1.007562888005737</v>
+        <v>1.007562888005736</v>
       </c>
       <c r="M7">
-        <v>1.00440737745835</v>
+        <v>1.004407377458349</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9746318073435758</v>
+        <v>0.9746318073435765</v>
       </c>
       <c r="D8">
-        <v>0.9975422699839938</v>
+        <v>0.9975422699839942</v>
       </c>
       <c r="E8">
-        <v>0.9828165615033103</v>
+        <v>0.9828165615033115</v>
       </c>
       <c r="F8">
-        <v>0.9783567025705485</v>
+        <v>0.9783567025705492</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035101064121791</v>
+        <v>1.035101064121792</v>
       </c>
       <c r="J8">
-        <v>0.9970023825435748</v>
+        <v>0.9970023825435756</v>
       </c>
       <c r="K8">
         <v>1.008755636028216</v>
       </c>
       <c r="L8">
-        <v>0.9942344365232303</v>
+        <v>0.9942344365232316</v>
       </c>
       <c r="M8">
-        <v>0.9898380528290427</v>
+        <v>0.9898380528290434</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9440376285107862</v>
+        <v>0.944037628510788</v>
       </c>
       <c r="D9">
-        <v>0.973343690607265</v>
+        <v>0.9733436906072667</v>
       </c>
       <c r="E9">
-        <v>0.9537650646494884</v>
+        <v>0.9537650646494898</v>
       </c>
       <c r="F9">
-        <v>0.9468214323834452</v>
+        <v>0.9468214323834467</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023974880662825</v>
+        <v>1.023974880662826</v>
       </c>
       <c r="J9">
-        <v>0.9717340545042413</v>
+        <v>0.971734054504243</v>
       </c>
       <c r="K9">
-        <v>0.9868845786386418</v>
+        <v>0.9868845786386432</v>
       </c>
       <c r="L9">
-        <v>0.9676556279148889</v>
+        <v>0.9676556279148903</v>
       </c>
       <c r="M9">
-        <v>0.9608405436705266</v>
+        <v>0.9608405436705284</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9203571738027051</v>
+        <v>0.920357173802703</v>
       </c>
       <c r="D10">
-        <v>0.9546765747946158</v>
+        <v>0.9546765747946141</v>
       </c>
       <c r="E10">
-        <v>0.9313401140347743</v>
+        <v>0.9313401140347721</v>
       </c>
       <c r="F10">
-        <v>0.9224912330938426</v>
+        <v>0.9224912330938405</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01526266149762</v>
+        <v>1.015262661497619</v>
       </c>
       <c r="J10">
-        <v>0.9521303594088961</v>
+        <v>0.9521303594088941</v>
       </c>
       <c r="K10">
-        <v>0.9699153909701533</v>
+        <v>0.9699153909701518</v>
       </c>
       <c r="L10">
-        <v>0.9470705212303365</v>
+        <v>0.9470705212303343</v>
       </c>
       <c r="M10">
-        <v>0.9384167107642559</v>
+        <v>0.9384167107642538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9090223217654161</v>
+        <v>0.909022321765414</v>
       </c>
       <c r="D11">
-        <v>0.9457655230513325</v>
+        <v>0.9457655230513303</v>
       </c>
       <c r="E11">
-        <v>0.9206261037299932</v>
+        <v>0.920626103729991</v>
       </c>
       <c r="F11">
-        <v>0.9108666126947194</v>
+        <v>0.9108666126947172</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01107184299719</v>
+        <v>1.011071842997189</v>
       </c>
       <c r="J11">
-        <v>0.9427390547714019</v>
+        <v>0.9427390547713999</v>
       </c>
       <c r="K11">
-        <v>0.9617882056685965</v>
+        <v>0.9617882056685946</v>
       </c>
       <c r="L11">
-        <v>0.9372180145358742</v>
+        <v>0.9372180145358719</v>
       </c>
       <c r="M11">
-        <v>0.9276908900222974</v>
+        <v>0.9276908900222953</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9046124791573964</v>
+        <v>0.9046124791573962</v>
       </c>
       <c r="D12">
-        <v>0.9423033413878183</v>
+        <v>0.942303341387818</v>
       </c>
       <c r="E12">
-        <v>0.9164613974167375</v>
+        <v>0.9164613974167374</v>
       </c>
       <c r="F12">
-        <v>0.9063474924377957</v>
+        <v>0.9063474924377958</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,10 +819,10 @@
         <v>1.009438692718172</v>
       </c>
       <c r="J12">
-        <v>0.9390845510667615</v>
+        <v>0.9390845510667613</v>
       </c>
       <c r="K12">
-        <v>0.9586261877063806</v>
+        <v>0.9586261877063802</v>
       </c>
       <c r="L12">
         <v>0.9333854416648355</v>
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9055681807015474</v>
+        <v>0.9055681807015464</v>
       </c>
       <c r="D13">
-        <v>0.9430534354091213</v>
+        <v>0.9430534354091206</v>
       </c>
       <c r="E13">
-        <v>0.9173637996626512</v>
+        <v>0.9173637996626504</v>
       </c>
       <c r="F13">
-        <v>0.9073267163853612</v>
+        <v>0.9073267163853604</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.009792743108173</v>
       </c>
       <c r="J13">
-        <v>0.9398765841008411</v>
+        <v>0.9398765841008401</v>
       </c>
       <c r="K13">
-        <v>0.9593114546938647</v>
+        <v>0.9593114546938641</v>
       </c>
       <c r="L13">
-        <v>0.9342160032409481</v>
+        <v>0.9342160032409472</v>
       </c>
       <c r="M13">
-        <v>0.9244233944201389</v>
+        <v>0.9244233944201382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9086621368335704</v>
+        <v>0.9086621368335749</v>
       </c>
       <c r="D14">
-        <v>0.945482639649989</v>
+        <v>0.945482639649993</v>
       </c>
       <c r="E14">
-        <v>0.9202858645501274</v>
+        <v>0.9202858645501319</v>
       </c>
       <c r="F14">
-        <v>0.9104974310575288</v>
+        <v>0.910497431057533</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010938503012858</v>
+        <v>1.01093850301286</v>
       </c>
       <c r="J14">
-        <v>0.9424405775397864</v>
+        <v>0.9424405775397907</v>
       </c>
       <c r="K14">
-        <v>0.961529938407362</v>
+        <v>0.9615299384073657</v>
       </c>
       <c r="L14">
-        <v>0.9369049651964478</v>
+        <v>0.9369049651964523</v>
       </c>
       <c r="M14">
-        <v>0.9273501443112971</v>
+        <v>0.9273501443113012</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9105406437095931</v>
+        <v>0.9105406437095926</v>
       </c>
       <c r="D15">
-        <v>0.9469581833166881</v>
+        <v>0.946958183316688</v>
       </c>
       <c r="E15">
-        <v>0.9220604949528074</v>
+        <v>0.9220604949528066</v>
       </c>
       <c r="F15">
-        <v>0.9124229998919487</v>
+        <v>0.9124229998919483</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.01163381774047</v>
       </c>
       <c r="J15">
-        <v>0.9439972246954321</v>
+        <v>0.9439972246954317</v>
       </c>
       <c r="K15">
-        <v>0.9628769032968043</v>
+        <v>0.9628769032968041</v>
       </c>
       <c r="L15">
-        <v>0.9385376668676261</v>
+        <v>0.9385376668676256</v>
       </c>
       <c r="M15">
-        <v>0.9291273274560664</v>
+        <v>0.929127327456066</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9210837648149589</v>
+        <v>0.9210837648149613</v>
       </c>
       <c r="D16">
-        <v>0.9552483611083442</v>
+        <v>0.9552483611083465</v>
       </c>
       <c r="E16">
-        <v>0.9320273549866636</v>
+        <v>0.932027354986666</v>
       </c>
       <c r="F16">
-        <v>0.9232368480210278</v>
+        <v>0.9232368480210305</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01553091631467</v>
+        <v>1.015530916314671</v>
       </c>
       <c r="J16">
-        <v>0.9527322345036661</v>
+        <v>0.9527322345036684</v>
       </c>
       <c r="K16">
-        <v>0.9704363117169963</v>
+        <v>0.9704363117169986</v>
       </c>
       <c r="L16">
-        <v>0.9477021390488845</v>
+        <v>0.9477021390488871</v>
       </c>
       <c r="M16">
-        <v>0.9391044362450327</v>
+        <v>0.9391044362450354</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.927385238000644</v>
+        <v>0.9273852380006442</v>
       </c>
       <c r="D17">
-        <v>0.9602099945353182</v>
+        <v>0.9602099945353183</v>
       </c>
       <c r="E17">
         <v>0.9379897842669145</v>
       </c>
       <c r="F17">
-        <v>0.9297056547662549</v>
+        <v>0.9297056547662552</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.017855175960581</v>
       </c>
       <c r="J17">
-        <v>0.9579512648330833</v>
+        <v>0.9579512648330837</v>
       </c>
       <c r="K17">
-        <v>0.9749536099511298</v>
+        <v>0.9749536099511302</v>
       </c>
       <c r="L17">
-        <v>0.9531800601349028</v>
+        <v>0.9531800601349029</v>
       </c>
       <c r="M17">
-        <v>0.9450696919987605</v>
+        <v>0.9450696919987606</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9309595164452198</v>
+        <v>0.9309595164452179</v>
       </c>
       <c r="D18">
-        <v>0.9630264090881151</v>
+        <v>0.9630264090881138</v>
       </c>
       <c r="E18">
-        <v>0.9413735111850262</v>
+        <v>0.9413735111850247</v>
       </c>
       <c r="F18">
-        <v>0.9333767540696949</v>
+        <v>0.9333767540696932</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019171625727143</v>
+        <v>1.019171625727141</v>
       </c>
       <c r="J18">
-        <v>0.9609108295749523</v>
+        <v>0.960910829574951</v>
       </c>
       <c r="K18">
-        <v>0.977515407885182</v>
+        <v>0.9775154078851807</v>
       </c>
       <c r="L18">
-        <v>0.9562872418683276</v>
+        <v>0.956287241868326</v>
       </c>
       <c r="M18">
-        <v>0.9484539253224376</v>
+        <v>0.948453925322436</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9321620107248885</v>
+        <v>0.9321620107248914</v>
       </c>
       <c r="D19">
-        <v>0.9639742678512749</v>
+        <v>0.9639742678512776</v>
       </c>
       <c r="E19">
-        <v>0.9425121818961848</v>
+        <v>0.9425121818961878</v>
       </c>
       <c r="F19">
-        <v>0.9346121387084843</v>
+        <v>0.9346121387084869</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019614186767955</v>
+        <v>1.019614186767956</v>
       </c>
       <c r="J19">
-        <v>0.9619063816842633</v>
+        <v>0.9619063816842659</v>
       </c>
       <c r="K19">
-        <v>0.9783771789860136</v>
+        <v>0.9783771789860159</v>
       </c>
       <c r="L19">
-        <v>0.9573325856367395</v>
+        <v>0.9573325856367422</v>
       </c>
       <c r="M19">
-        <v>0.9495925877635881</v>
+        <v>0.9495925877635911</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9267198527018866</v>
+        <v>0.9267198527018845</v>
       </c>
       <c r="D20">
-        <v>0.9596858586579513</v>
+        <v>0.9596858586579494</v>
       </c>
       <c r="E20">
-        <v>0.9373600118242456</v>
+        <v>0.9373600118242439</v>
       </c>
       <c r="F20">
-        <v>0.9290223993906029</v>
+        <v>0.9290223993906009</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017609949025529</v>
+        <v>1.017609949025528</v>
       </c>
       <c r="J20">
-        <v>0.9574002517958405</v>
+        <v>0.9574002517958387</v>
       </c>
       <c r="K20">
-        <v>0.9744766652359159</v>
+        <v>0.9744766652359143</v>
       </c>
       <c r="L20">
-        <v>0.9526016292642877</v>
+        <v>0.9526016292642859</v>
       </c>
       <c r="M20">
-        <v>0.9444397376010276</v>
+        <v>0.9444397376010257</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9077569185039471</v>
+        <v>0.9077569185039465</v>
       </c>
       <c r="D21">
-        <v>0.9447717746317591</v>
+        <v>0.9447717746317583</v>
       </c>
       <c r="E21">
-        <v>0.9194308337677696</v>
+        <v>0.919430833767769</v>
       </c>
       <c r="F21">
-        <v>0.9095696583624338</v>
+        <v>0.9095696583624331</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.010603350759853</v>
       </c>
       <c r="J21">
-        <v>0.9416904319744416</v>
+        <v>0.9416904319744408</v>
       </c>
       <c r="K21">
-        <v>0.960880860358417</v>
+        <v>0.9608808603584164</v>
       </c>
       <c r="L21">
-        <v>0.9361182189812244</v>
+        <v>0.9361182189812237</v>
       </c>
       <c r="M21">
-        <v>0.9264938047388993</v>
+        <v>0.9264938047388986</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.894649837398564</v>
+        <v>0.8946498373985665</v>
       </c>
       <c r="D22">
-        <v>0.934491882115838</v>
+        <v>0.9344918821158402</v>
       </c>
       <c r="E22">
-        <v>0.9070601609264011</v>
+        <v>0.9070601609264035</v>
       </c>
       <c r="F22">
-        <v>0.8961448010382197</v>
+        <v>0.8961448010382224</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005744613521205</v>
+        <v>1.005744613521206</v>
       </c>
       <c r="J22">
-        <v>0.9308274094081906</v>
+        <v>0.9308274094081932</v>
       </c>
       <c r="K22">
-        <v>0.9514832254996993</v>
+        <v>0.9514832254997015</v>
       </c>
       <c r="L22">
-        <v>0.9247286619586941</v>
+        <v>0.9247286619586966</v>
       </c>
       <c r="M22">
-        <v>0.9140984211853868</v>
+        <v>0.9140984211853895</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9017267021458405</v>
+        <v>0.9017267021458427</v>
       </c>
       <c r="D23">
-        <v>0.9400391906646538</v>
+        <v>0.9400391906646556</v>
       </c>
       <c r="E23">
-        <v>0.9137371457611453</v>
+        <v>0.9137371457611476</v>
       </c>
       <c r="F23">
-        <v>0.9033912203420396</v>
+        <v>0.9033912203420419</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.008369265124837</v>
       </c>
       <c r="J23">
-        <v>0.9366928965056855</v>
+        <v>0.9366928965056879</v>
       </c>
       <c r="K23">
-        <v>0.9565570366527901</v>
+        <v>0.956557036652792</v>
       </c>
       <c r="L23">
-        <v>0.9308776556597713</v>
+        <v>0.9308776556597737</v>
       </c>
       <c r="M23">
-        <v>0.9207900893883048</v>
+        <v>0.9207900893883069</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9270208219648377</v>
+        <v>0.9270208219648391</v>
       </c>
       <c r="D24">
-        <v>0.9599229309915666</v>
+        <v>0.9599229309915676</v>
       </c>
       <c r="E24">
-        <v>0.9376448671066265</v>
+        <v>0.937644867106628</v>
       </c>
       <c r="F24">
-        <v>0.9293314457616937</v>
+        <v>0.9293314457616948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017720876847609</v>
+        <v>1.01772087684761</v>
       </c>
       <c r="J24">
-        <v>0.9576494901541378</v>
+        <v>0.9576494901541392</v>
       </c>
       <c r="K24">
-        <v>0.9746923999542683</v>
+        <v>0.9746923999542695</v>
       </c>
       <c r="L24">
-        <v>0.9528632669426247</v>
+        <v>0.952863266942626</v>
       </c>
       <c r="M24">
-        <v>0.9447246785938319</v>
+        <v>0.9447246785938329</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9524449249418968</v>
+        <v>0.952444924941898</v>
       </c>
       <c r="D25">
-        <v>0.9799854525690965</v>
+        <v>0.9799854525690976</v>
       </c>
       <c r="E25">
-        <v>0.9617396918955623</v>
+        <v>0.9617396918955637</v>
       </c>
       <c r="F25">
-        <v>0.9554751182919587</v>
+        <v>0.95547511829196</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027049595474443</v>
+        <v>1.027049595474444</v>
       </c>
       <c r="J25">
-        <v>0.978685990527377</v>
+        <v>0.9786859905273783</v>
       </c>
       <c r="K25">
-        <v>0.9929026234054961</v>
+        <v>0.992902623405497</v>
       </c>
       <c r="L25">
-        <v>0.9749624828923686</v>
+        <v>0.97496248289237</v>
       </c>
       <c r="M25">
-        <v>0.9688063279386007</v>
+        <v>0.9688063279386019</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9704642261391913</v>
+        <v>0.9704642261391914</v>
       </c>
       <c r="D2">
-        <v>0.9942415733398973</v>
+        <v>0.9942415733398974</v>
       </c>
       <c r="E2">
-        <v>0.9788540123485452</v>
+        <v>0.9788540123485454</v>
       </c>
       <c r="F2">
-        <v>0.9740533928830287</v>
+        <v>0.9740533928830288</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.0335966394744</v>
       </c>
       <c r="J2">
-        <v>0.9935657213180397</v>
+        <v>0.9935657213180399</v>
       </c>
       <c r="K2">
         <v>1.00578171946246</v>
       </c>
       <c r="L2">
-        <v>0.9906160227688519</v>
+        <v>0.9906160227688521</v>
       </c>
       <c r="M2">
-        <v>0.9858864445667889</v>
+        <v>0.9858864445667891</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9825365436819556</v>
+        <v>0.9825365436819535</v>
       </c>
       <c r="D3">
-        <v>1.003805733966973</v>
+        <v>1.00380573396697</v>
       </c>
       <c r="E3">
-        <v>0.9903367719851965</v>
+        <v>0.9903367719851941</v>
       </c>
       <c r="F3">
-        <v>0.9865260546318761</v>
+        <v>0.9865260546318736</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.03794274218565</v>
       </c>
       <c r="J3">
-        <v>1.003514872472049</v>
+        <v>1.003514872472046</v>
       </c>
       <c r="K3">
-        <v>1.014390150215357</v>
+        <v>1.014390150215355</v>
       </c>
       <c r="L3">
-        <v>1.001094807230105</v>
+        <v>1.001094807230103</v>
       </c>
       <c r="M3">
-        <v>0.9973342903761127</v>
+        <v>0.9973342903761102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9899529103978969</v>
+        <v>0.9899529103978978</v>
       </c>
       <c r="D4">
-        <v>1.009685236317655</v>
+        <v>1.009685236317656</v>
       </c>
       <c r="E4">
-        <v>0.9973975389056349</v>
+        <v>0.9973975389056358</v>
       </c>
       <c r="F4">
-        <v>0.9941996991310262</v>
+        <v>0.9941996991310267</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>1.040593341508558</v>
       </c>
       <c r="J4">
-        <v>1.009617160921317</v>
+        <v>1.009617160921318</v>
       </c>
       <c r="K4">
         <v>1.019668157738016</v>
@@ -524,7 +524,7 @@
         <v>1.00752747515436</v>
       </c>
       <c r="M4">
-        <v>1.004368636476314</v>
+        <v>1.004368636476315</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9929850628497197</v>
+        <v>0.9929850628497217</v>
       </c>
       <c r="D5">
-        <v>1.012089740872935</v>
+        <v>1.012089740872937</v>
       </c>
       <c r="E5">
-        <v>1.000285742812772</v>
+        <v>1.000285742812774</v>
       </c>
       <c r="F5">
-        <v>0.9973396845740018</v>
+        <v>0.9973396845740037</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041672283674285</v>
+        <v>1.041672283674286</v>
       </c>
       <c r="J5">
-        <v>1.012109635155046</v>
+        <v>1.012109635155048</v>
       </c>
       <c r="K5">
-        <v>1.021823413526084</v>
+        <v>1.021823413526086</v>
       </c>
       <c r="L5">
-        <v>1.010156206737491</v>
+        <v>1.010156206737493</v>
       </c>
       <c r="M5">
-        <v>1.007244914427924</v>
+        <v>1.007244914427925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9934893838058061</v>
+        <v>0.9934893838058058</v>
       </c>
       <c r="D6">
         <v>1.012489702550778</v>
@@ -582,13 +582,13 @@
         <v>1.000766202438322</v>
       </c>
       <c r="F6">
-        <v>0.9978620945939097</v>
+        <v>0.9978620945939092</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041851455852049</v>
+        <v>1.041851455852048</v>
       </c>
       <c r="J6">
         <v>1.012524049666799</v>
@@ -597,10 +597,10 @@
         <v>1.022181726093965</v>
       </c>
       <c r="L6">
-        <v>1.010593353310212</v>
+        <v>1.010593353310211</v>
       </c>
       <c r="M6">
-        <v>1.007723326131807</v>
+        <v>1.007723326131806</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9899937520919896</v>
+        <v>0.98999375209199</v>
       </c>
       <c r="D7">
-        <v>1.009717621448627</v>
+        <v>1.009717621448628</v>
       </c>
       <c r="E7">
-        <v>0.9974364361417966</v>
+        <v>0.9974364361417969</v>
       </c>
       <c r="F7">
-        <v>0.9942419828594713</v>
+        <v>0.9942419828594722</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04060789335462</v>
       </c>
       <c r="J7">
-        <v>1.009650743127748</v>
+        <v>1.009650743127749</v>
       </c>
       <c r="K7">
-        <v>1.019697198696426</v>
+        <v>1.019697198696427</v>
       </c>
       <c r="L7">
-        <v>1.007562888005736</v>
+        <v>1.007562888005737</v>
       </c>
       <c r="M7">
-        <v>1.004407377458349</v>
+        <v>1.00440737745835</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9746318073435765</v>
+        <v>0.9746318073435758</v>
       </c>
       <c r="D8">
-        <v>0.9975422699839942</v>
+        <v>0.9975422699839938</v>
       </c>
       <c r="E8">
-        <v>0.9828165615033115</v>
+        <v>0.9828165615033103</v>
       </c>
       <c r="F8">
-        <v>0.9783567025705492</v>
+        <v>0.9783567025705485</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035101064121792</v>
+        <v>1.035101064121791</v>
       </c>
       <c r="J8">
-        <v>0.9970023825435756</v>
+        <v>0.9970023825435748</v>
       </c>
       <c r="K8">
         <v>1.008755636028216</v>
       </c>
       <c r="L8">
-        <v>0.9942344365232316</v>
+        <v>0.9942344365232303</v>
       </c>
       <c r="M8">
-        <v>0.9898380528290434</v>
+        <v>0.9898380528290427</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.944037628510788</v>
+        <v>0.9440376285107862</v>
       </c>
       <c r="D9">
-        <v>0.9733436906072667</v>
+        <v>0.973343690607265</v>
       </c>
       <c r="E9">
-        <v>0.9537650646494898</v>
+        <v>0.9537650646494884</v>
       </c>
       <c r="F9">
-        <v>0.9468214323834467</v>
+        <v>0.9468214323834452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023974880662826</v>
+        <v>1.023974880662825</v>
       </c>
       <c r="J9">
-        <v>0.971734054504243</v>
+        <v>0.9717340545042413</v>
       </c>
       <c r="K9">
-        <v>0.9868845786386432</v>
+        <v>0.9868845786386418</v>
       </c>
       <c r="L9">
-        <v>0.9676556279148903</v>
+        <v>0.9676556279148889</v>
       </c>
       <c r="M9">
-        <v>0.9608405436705284</v>
+        <v>0.9608405436705266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.920357173802703</v>
+        <v>0.9203571738027051</v>
       </c>
       <c r="D10">
-        <v>0.9546765747946141</v>
+        <v>0.9546765747946158</v>
       </c>
       <c r="E10">
-        <v>0.9313401140347721</v>
+        <v>0.9313401140347743</v>
       </c>
       <c r="F10">
-        <v>0.9224912330938405</v>
+        <v>0.9224912330938426</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015262661497619</v>
+        <v>1.01526266149762</v>
       </c>
       <c r="J10">
-        <v>0.9521303594088941</v>
+        <v>0.9521303594088961</v>
       </c>
       <c r="K10">
-        <v>0.9699153909701518</v>
+        <v>0.9699153909701533</v>
       </c>
       <c r="L10">
-        <v>0.9470705212303343</v>
+        <v>0.9470705212303365</v>
       </c>
       <c r="M10">
-        <v>0.9384167107642538</v>
+        <v>0.9384167107642559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.909022321765414</v>
+        <v>0.9090223217654161</v>
       </c>
       <c r="D11">
-        <v>0.9457655230513303</v>
+        <v>0.9457655230513325</v>
       </c>
       <c r="E11">
-        <v>0.920626103729991</v>
+        <v>0.9206261037299932</v>
       </c>
       <c r="F11">
-        <v>0.9108666126947172</v>
+        <v>0.9108666126947194</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011071842997189</v>
+        <v>1.01107184299719</v>
       </c>
       <c r="J11">
-        <v>0.9427390547713999</v>
+        <v>0.9427390547714019</v>
       </c>
       <c r="K11">
-        <v>0.9617882056685946</v>
+        <v>0.9617882056685965</v>
       </c>
       <c r="L11">
-        <v>0.9372180145358719</v>
+        <v>0.9372180145358742</v>
       </c>
       <c r="M11">
-        <v>0.9276908900222953</v>
+        <v>0.9276908900222974</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9046124791573962</v>
+        <v>0.9046124791573964</v>
       </c>
       <c r="D12">
-        <v>0.942303341387818</v>
+        <v>0.9423033413878183</v>
       </c>
       <c r="E12">
-        <v>0.9164613974167374</v>
+        <v>0.9164613974167375</v>
       </c>
       <c r="F12">
-        <v>0.9063474924377958</v>
+        <v>0.9063474924377957</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,10 +819,10 @@
         <v>1.009438692718172</v>
       </c>
       <c r="J12">
-        <v>0.9390845510667613</v>
+        <v>0.9390845510667615</v>
       </c>
       <c r="K12">
-        <v>0.9586261877063802</v>
+        <v>0.9586261877063806</v>
       </c>
       <c r="L12">
         <v>0.9333854416648355</v>
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9055681807015464</v>
+        <v>0.9055681807015474</v>
       </c>
       <c r="D13">
-        <v>0.9430534354091206</v>
+        <v>0.9430534354091213</v>
       </c>
       <c r="E13">
-        <v>0.9173637996626504</v>
+        <v>0.9173637996626512</v>
       </c>
       <c r="F13">
-        <v>0.9073267163853604</v>
+        <v>0.9073267163853612</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.009792743108173</v>
       </c>
       <c r="J13">
-        <v>0.9398765841008401</v>
+        <v>0.9398765841008411</v>
       </c>
       <c r="K13">
-        <v>0.9593114546938641</v>
+        <v>0.9593114546938647</v>
       </c>
       <c r="L13">
-        <v>0.9342160032409472</v>
+        <v>0.9342160032409481</v>
       </c>
       <c r="M13">
-        <v>0.9244233944201382</v>
+        <v>0.9244233944201389</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9086621368335749</v>
+        <v>0.9086621368335704</v>
       </c>
       <c r="D14">
-        <v>0.945482639649993</v>
+        <v>0.945482639649989</v>
       </c>
       <c r="E14">
-        <v>0.9202858645501319</v>
+        <v>0.9202858645501274</v>
       </c>
       <c r="F14">
-        <v>0.910497431057533</v>
+        <v>0.9104974310575288</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01093850301286</v>
+        <v>1.010938503012858</v>
       </c>
       <c r="J14">
-        <v>0.9424405775397907</v>
+        <v>0.9424405775397864</v>
       </c>
       <c r="K14">
-        <v>0.9615299384073657</v>
+        <v>0.961529938407362</v>
       </c>
       <c r="L14">
-        <v>0.9369049651964523</v>
+        <v>0.9369049651964478</v>
       </c>
       <c r="M14">
-        <v>0.9273501443113012</v>
+        <v>0.9273501443112971</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9105406437095926</v>
+        <v>0.9105406437095931</v>
       </c>
       <c r="D15">
-        <v>0.946958183316688</v>
+        <v>0.9469581833166881</v>
       </c>
       <c r="E15">
-        <v>0.9220604949528066</v>
+        <v>0.9220604949528074</v>
       </c>
       <c r="F15">
-        <v>0.9124229998919483</v>
+        <v>0.9124229998919487</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.01163381774047</v>
       </c>
       <c r="J15">
-        <v>0.9439972246954317</v>
+        <v>0.9439972246954321</v>
       </c>
       <c r="K15">
-        <v>0.9628769032968041</v>
+        <v>0.9628769032968043</v>
       </c>
       <c r="L15">
-        <v>0.9385376668676256</v>
+        <v>0.9385376668676261</v>
       </c>
       <c r="M15">
-        <v>0.929127327456066</v>
+        <v>0.9291273274560664</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9210837648149613</v>
+        <v>0.9210837648149589</v>
       </c>
       <c r="D16">
-        <v>0.9552483611083465</v>
+        <v>0.9552483611083442</v>
       </c>
       <c r="E16">
-        <v>0.932027354986666</v>
+        <v>0.9320273549866636</v>
       </c>
       <c r="F16">
-        <v>0.9232368480210305</v>
+        <v>0.9232368480210278</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015530916314671</v>
+        <v>1.01553091631467</v>
       </c>
       <c r="J16">
-        <v>0.9527322345036684</v>
+        <v>0.9527322345036661</v>
       </c>
       <c r="K16">
-        <v>0.9704363117169986</v>
+        <v>0.9704363117169963</v>
       </c>
       <c r="L16">
-        <v>0.9477021390488871</v>
+        <v>0.9477021390488845</v>
       </c>
       <c r="M16">
-        <v>0.9391044362450354</v>
+        <v>0.9391044362450327</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9273852380006442</v>
+        <v>0.927385238000644</v>
       </c>
       <c r="D17">
-        <v>0.9602099945353183</v>
+        <v>0.9602099945353182</v>
       </c>
       <c r="E17">
         <v>0.9379897842669145</v>
       </c>
       <c r="F17">
-        <v>0.9297056547662552</v>
+        <v>0.9297056547662549</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.017855175960581</v>
       </c>
       <c r="J17">
-        <v>0.9579512648330837</v>
+        <v>0.9579512648330833</v>
       </c>
       <c r="K17">
-        <v>0.9749536099511302</v>
+        <v>0.9749536099511298</v>
       </c>
       <c r="L17">
-        <v>0.9531800601349029</v>
+        <v>0.9531800601349028</v>
       </c>
       <c r="M17">
-        <v>0.9450696919987606</v>
+        <v>0.9450696919987605</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9309595164452179</v>
+        <v>0.9309595164452198</v>
       </c>
       <c r="D18">
-        <v>0.9630264090881138</v>
+        <v>0.9630264090881151</v>
       </c>
       <c r="E18">
-        <v>0.9413735111850247</v>
+        <v>0.9413735111850262</v>
       </c>
       <c r="F18">
-        <v>0.9333767540696932</v>
+        <v>0.9333767540696949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019171625727141</v>
+        <v>1.019171625727143</v>
       </c>
       <c r="J18">
-        <v>0.960910829574951</v>
+        <v>0.9609108295749523</v>
       </c>
       <c r="K18">
-        <v>0.9775154078851807</v>
+        <v>0.977515407885182</v>
       </c>
       <c r="L18">
-        <v>0.956287241868326</v>
+        <v>0.9562872418683276</v>
       </c>
       <c r="M18">
-        <v>0.948453925322436</v>
+        <v>0.9484539253224376</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9321620107248914</v>
+        <v>0.9321620107248885</v>
       </c>
       <c r="D19">
-        <v>0.9639742678512776</v>
+        <v>0.9639742678512749</v>
       </c>
       <c r="E19">
-        <v>0.9425121818961878</v>
+        <v>0.9425121818961848</v>
       </c>
       <c r="F19">
-        <v>0.9346121387084869</v>
+        <v>0.9346121387084843</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019614186767956</v>
+        <v>1.019614186767955</v>
       </c>
       <c r="J19">
-        <v>0.9619063816842659</v>
+        <v>0.9619063816842633</v>
       </c>
       <c r="K19">
-        <v>0.9783771789860159</v>
+        <v>0.9783771789860136</v>
       </c>
       <c r="L19">
-        <v>0.9573325856367422</v>
+        <v>0.9573325856367395</v>
       </c>
       <c r="M19">
-        <v>0.9495925877635911</v>
+        <v>0.9495925877635881</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9267198527018845</v>
+        <v>0.9267198527018866</v>
       </c>
       <c r="D20">
-        <v>0.9596858586579494</v>
+        <v>0.9596858586579513</v>
       </c>
       <c r="E20">
-        <v>0.9373600118242439</v>
+        <v>0.9373600118242456</v>
       </c>
       <c r="F20">
-        <v>0.9290223993906009</v>
+        <v>0.9290223993906029</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017609949025528</v>
+        <v>1.017609949025529</v>
       </c>
       <c r="J20">
-        <v>0.9574002517958387</v>
+        <v>0.9574002517958405</v>
       </c>
       <c r="K20">
-        <v>0.9744766652359143</v>
+        <v>0.9744766652359159</v>
       </c>
       <c r="L20">
-        <v>0.9526016292642859</v>
+        <v>0.9526016292642877</v>
       </c>
       <c r="M20">
-        <v>0.9444397376010257</v>
+        <v>0.9444397376010276</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9077569185039465</v>
+        <v>0.9077569185039471</v>
       </c>
       <c r="D21">
-        <v>0.9447717746317583</v>
+        <v>0.9447717746317591</v>
       </c>
       <c r="E21">
-        <v>0.919430833767769</v>
+        <v>0.9194308337677696</v>
       </c>
       <c r="F21">
-        <v>0.9095696583624331</v>
+        <v>0.9095696583624338</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.010603350759853</v>
       </c>
       <c r="J21">
-        <v>0.9416904319744408</v>
+        <v>0.9416904319744416</v>
       </c>
       <c r="K21">
-        <v>0.9608808603584164</v>
+        <v>0.960880860358417</v>
       </c>
       <c r="L21">
-        <v>0.9361182189812237</v>
+        <v>0.9361182189812244</v>
       </c>
       <c r="M21">
-        <v>0.9264938047388986</v>
+        <v>0.9264938047388993</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8946498373985665</v>
+        <v>0.894649837398564</v>
       </c>
       <c r="D22">
-        <v>0.9344918821158402</v>
+        <v>0.934491882115838</v>
       </c>
       <c r="E22">
-        <v>0.9070601609264035</v>
+        <v>0.9070601609264011</v>
       </c>
       <c r="F22">
-        <v>0.8961448010382224</v>
+        <v>0.8961448010382197</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005744613521206</v>
+        <v>1.005744613521205</v>
       </c>
       <c r="J22">
-        <v>0.9308274094081932</v>
+        <v>0.9308274094081906</v>
       </c>
       <c r="K22">
-        <v>0.9514832254997015</v>
+        <v>0.9514832254996993</v>
       </c>
       <c r="L22">
-        <v>0.9247286619586966</v>
+        <v>0.9247286619586941</v>
       </c>
       <c r="M22">
-        <v>0.9140984211853895</v>
+        <v>0.9140984211853868</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9017267021458427</v>
+        <v>0.9017267021458405</v>
       </c>
       <c r="D23">
-        <v>0.9400391906646556</v>
+        <v>0.9400391906646538</v>
       </c>
       <c r="E23">
-        <v>0.9137371457611476</v>
+        <v>0.9137371457611453</v>
       </c>
       <c r="F23">
-        <v>0.9033912203420419</v>
+        <v>0.9033912203420396</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.008369265124837</v>
       </c>
       <c r="J23">
-        <v>0.9366928965056879</v>
+        <v>0.9366928965056855</v>
       </c>
       <c r="K23">
-        <v>0.956557036652792</v>
+        <v>0.9565570366527901</v>
       </c>
       <c r="L23">
-        <v>0.9308776556597737</v>
+        <v>0.9308776556597713</v>
       </c>
       <c r="M23">
-        <v>0.9207900893883069</v>
+        <v>0.9207900893883048</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9270208219648391</v>
+        <v>0.9270208219648377</v>
       </c>
       <c r="D24">
-        <v>0.9599229309915676</v>
+        <v>0.9599229309915666</v>
       </c>
       <c r="E24">
-        <v>0.937644867106628</v>
+        <v>0.9376448671066265</v>
       </c>
       <c r="F24">
-        <v>0.9293314457616948</v>
+        <v>0.9293314457616937</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01772087684761</v>
+        <v>1.017720876847609</v>
       </c>
       <c r="J24">
-        <v>0.9576494901541392</v>
+        <v>0.9576494901541378</v>
       </c>
       <c r="K24">
-        <v>0.9746923999542695</v>
+        <v>0.9746923999542683</v>
       </c>
       <c r="L24">
-        <v>0.952863266942626</v>
+        <v>0.9528632669426247</v>
       </c>
       <c r="M24">
-        <v>0.9447246785938329</v>
+        <v>0.9447246785938319</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.952444924941898</v>
+        <v>0.9524449249418968</v>
       </c>
       <c r="D25">
-        <v>0.9799854525690976</v>
+        <v>0.9799854525690965</v>
       </c>
       <c r="E25">
-        <v>0.9617396918955637</v>
+        <v>0.9617396918955623</v>
       </c>
       <c r="F25">
-        <v>0.95547511829196</v>
+        <v>0.9554751182919587</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027049595474444</v>
+        <v>1.027049595474443</v>
       </c>
       <c r="J25">
-        <v>0.9786859905273783</v>
+        <v>0.978685990527377</v>
       </c>
       <c r="K25">
-        <v>0.992902623405497</v>
+        <v>0.9929026234054961</v>
       </c>
       <c r="L25">
-        <v>0.97496248289237</v>
+        <v>0.9749624828923686</v>
       </c>
       <c r="M25">
-        <v>0.9688063279386019</v>
+        <v>0.9688063279386007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9704642261391914</v>
+        <v>0.9705611139218872</v>
       </c>
       <c r="D2">
-        <v>0.9942415733398974</v>
+        <v>0.9943196336033157</v>
       </c>
       <c r="E2">
-        <v>0.9788540123485454</v>
+        <v>0.9789501468109798</v>
       </c>
       <c r="F2">
-        <v>0.9740533928830288</v>
+        <v>0.9741445935906612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0335966394744</v>
+        <v>1.033636229712759</v>
       </c>
       <c r="J2">
-        <v>0.9935657213180399</v>
+        <v>0.9936594613685855</v>
       </c>
       <c r="K2">
-        <v>1.00578171946246</v>
+        <v>1.005858676351344</v>
       </c>
       <c r="L2">
-        <v>0.9906160227688521</v>
+        <v>0.9907107436355661</v>
       </c>
       <c r="M2">
-        <v>0.9858864445667891</v>
+        <v>0.9859762873577824</v>
+      </c>
+      <c r="N2">
+        <v>0.9904333997852293</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9825365436819535</v>
+        <v>0.982613392223124</v>
       </c>
       <c r="D3">
-        <v>1.00380573396697</v>
+        <v>1.003867748423457</v>
       </c>
       <c r="E3">
-        <v>0.9903367719851941</v>
+        <v>0.9904131406001536</v>
       </c>
       <c r="F3">
-        <v>0.9865260546318736</v>
+        <v>0.9865982658280137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03794274218565</v>
+        <v>1.037974237339639</v>
       </c>
       <c r="J3">
-        <v>1.003514872472046</v>
+        <v>1.003589523034089</v>
       </c>
       <c r="K3">
-        <v>1.014390150215355</v>
+        <v>1.014451378739922</v>
       </c>
       <c r="L3">
-        <v>1.001094807230103</v>
+        <v>1.001170174751163</v>
       </c>
       <c r="M3">
-        <v>0.9973342903761102</v>
+        <v>0.9974055457756653</v>
+      </c>
+      <c r="N3">
+        <v>0.9982176607105766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9899529103978978</v>
+        <v>0.9900180749154153</v>
       </c>
       <c r="D4">
-        <v>1.009685236317656</v>
+        <v>1.009737871439752</v>
       </c>
       <c r="E4">
-        <v>0.9973975389056358</v>
+        <v>0.997462354436401</v>
       </c>
       <c r="F4">
-        <v>0.9941996991310267</v>
+        <v>0.994260867269428</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040593341508558</v>
+        <v>1.040620096165956</v>
       </c>
       <c r="J4">
-        <v>1.009617160921318</v>
+        <v>1.009680612455625</v>
       </c>
       <c r="K4">
-        <v>1.019668157738016</v>
+        <v>1.019720172643608</v>
       </c>
       <c r="L4">
-        <v>1.00752747515436</v>
+        <v>1.007591503402544</v>
       </c>
       <c r="M4">
-        <v>1.004368636476315</v>
+        <v>1.004429055676967</v>
+      </c>
+      <c r="N4">
+        <v>1.002972111188806</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9929850628497217</v>
+        <v>0.9930455774999244</v>
       </c>
       <c r="D5">
-        <v>1.012089740872937</v>
+        <v>1.012138638432133</v>
       </c>
       <c r="E5">
-        <v>1.000285742812774</v>
+        <v>1.000345954728501</v>
       </c>
       <c r="F5">
-        <v>0.9973396845740037</v>
+        <v>0.9973964640367313</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041672283674286</v>
+        <v>1.041697147370589</v>
       </c>
       <c r="J5">
-        <v>1.012109635155048</v>
+        <v>1.012168615354913</v>
       </c>
       <c r="K5">
-        <v>1.021823413526086</v>
+        <v>1.02187175262202</v>
       </c>
       <c r="L5">
-        <v>1.010156206737493</v>
+        <v>1.010215710746026</v>
       </c>
       <c r="M5">
-        <v>1.007244914427925</v>
+        <v>1.007301021441423</v>
+      </c>
+      <c r="N5">
+        <v>1.004909261977491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9934893838058058</v>
+        <v>0.9935491319638858</v>
       </c>
       <c r="D6">
-        <v>1.012489702550778</v>
+        <v>1.012537983735865</v>
       </c>
       <c r="E6">
-        <v>1.000766202438322</v>
+        <v>1.000825655165953</v>
       </c>
       <c r="F6">
-        <v>0.9978620945939092</v>
+        <v>0.9979181509583014</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041851455852048</v>
+        <v>1.041876007593908</v>
       </c>
       <c r="J6">
-        <v>1.012524049666799</v>
+        <v>1.012582292003025</v>
       </c>
       <c r="K6">
-        <v>1.022181726093965</v>
+        <v>1.022229458759887</v>
       </c>
       <c r="L6">
-        <v>1.010593353310211</v>
+        <v>1.01065211089624</v>
       </c>
       <c r="M6">
-        <v>1.007723326131806</v>
+        <v>1.00777872233189</v>
+      </c>
+      <c r="N6">
+        <v>1.005231062303167</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.98999375209199</v>
+        <v>0.9900588535001159</v>
       </c>
       <c r="D7">
-        <v>1.009717621448628</v>
+        <v>1.009770205862062</v>
       </c>
       <c r="E7">
-        <v>0.9974364361417969</v>
+        <v>0.9975011892132535</v>
       </c>
       <c r="F7">
-        <v>0.9942419828594722</v>
+        <v>0.9943030914099515</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04060789335462</v>
+        <v>1.040634622364311</v>
       </c>
       <c r="J7">
-        <v>1.009650743127749</v>
+        <v>1.009714134031419</v>
       </c>
       <c r="K7">
-        <v>1.019697198696427</v>
+        <v>1.01974916374777</v>
       </c>
       <c r="L7">
-        <v>1.007562888005737</v>
+        <v>1.007626854894004</v>
       </c>
       <c r="M7">
-        <v>1.00440737745835</v>
+        <v>1.004467738131665</v>
+      </c>
+      <c r="N7">
+        <v>1.002998230363308</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9746318073435758</v>
+        <v>0.9747216266919035</v>
       </c>
       <c r="D8">
-        <v>0.9975422699839938</v>
+        <v>0.9976146762532458</v>
       </c>
       <c r="E8">
-        <v>0.9828165615033103</v>
+        <v>0.9829057309741699</v>
       </c>
       <c r="F8">
-        <v>0.9783567025705485</v>
+        <v>0.9784411981137148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035101064121791</v>
+        <v>1.035137803946323</v>
       </c>
       <c r="J8">
-        <v>0.9970023825435748</v>
+        <v>0.9970894058493904</v>
       </c>
       <c r="K8">
-        <v>1.008755636028216</v>
+        <v>1.008827055505897</v>
       </c>
       <c r="L8">
-        <v>0.9942344365232303</v>
+        <v>0.9943223443092403</v>
       </c>
       <c r="M8">
-        <v>0.9898380528290427</v>
+        <v>0.9899213389767024</v>
+      </c>
+      <c r="N8">
+        <v>0.9931265492321848</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9440376285107862</v>
+        <v>0.9441835864894591</v>
       </c>
       <c r="D9">
-        <v>0.973343690607265</v>
+        <v>0.9734608295695422</v>
       </c>
       <c r="E9">
-        <v>0.9537650646494884</v>
+        <v>0.9539093454183233</v>
       </c>
       <c r="F9">
-        <v>0.9468214323834452</v>
+        <v>0.9469593790848146</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023974880662825</v>
+        <v>1.024034119493511</v>
       </c>
       <c r="J9">
-        <v>0.9717340545042413</v>
+        <v>0.97187395019246</v>
       </c>
       <c r="K9">
-        <v>0.9868845786386418</v>
+        <v>0.9869996802878517</v>
       </c>
       <c r="L9">
-        <v>0.9676556279148889</v>
+        <v>0.9677972634495327</v>
       </c>
       <c r="M9">
-        <v>0.9608405436705266</v>
+        <v>0.9609759125979954</v>
+      </c>
+      <c r="N9">
+        <v>0.9732341885552426</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9203571738027051</v>
+        <v>0.9205547781945655</v>
       </c>
       <c r="D10">
-        <v>0.9546765747946158</v>
+        <v>0.9548345314419309</v>
       </c>
       <c r="E10">
-        <v>0.9313401140347743</v>
+        <v>0.9315347001618841</v>
       </c>
       <c r="F10">
-        <v>0.9224912330938426</v>
+        <v>0.9226787171793772</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01526266149762</v>
+        <v>1.015342341498373</v>
       </c>
       <c r="J10">
-        <v>0.9521303594088961</v>
+        <v>0.9523180233892599</v>
       </c>
       <c r="K10">
-        <v>0.9699153909701533</v>
+        <v>0.9700701281086047</v>
       </c>
       <c r="L10">
-        <v>0.9470705212303365</v>
+        <v>0.9472608730718147</v>
       </c>
       <c r="M10">
-        <v>0.9384167107642559</v>
+        <v>0.9386000101533857</v>
+      </c>
+      <c r="N10">
+        <v>0.9576825223109394</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9090223217654161</v>
+        <v>0.9092479127053487</v>
       </c>
       <c r="D11">
-        <v>0.9457655230513325</v>
+        <v>0.9459454721491601</v>
       </c>
       <c r="E11">
-        <v>0.9206261037299932</v>
+        <v>0.9208478037140585</v>
       </c>
       <c r="F11">
-        <v>0.9108666126947194</v>
+        <v>0.911081067662841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01107184299719</v>
+        <v>1.011162508339078</v>
       </c>
       <c r="J11">
-        <v>0.9427390547714019</v>
+        <v>0.9429522971102294</v>
       </c>
       <c r="K11">
-        <v>0.9617882056685965</v>
+        <v>0.9619642250538646</v>
       </c>
       <c r="L11">
-        <v>0.9372180145358742</v>
+        <v>0.9374345126165774</v>
       </c>
       <c r="M11">
-        <v>0.9276908900222974</v>
+        <v>0.9279001670873129</v>
+      </c>
+      <c r="N11">
+        <v>0.9502046439600934</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9046124791573964</v>
+        <v>0.9048496305668242</v>
       </c>
       <c r="D12">
-        <v>0.9423033413878183</v>
+        <v>0.9424923503598591</v>
       </c>
       <c r="E12">
-        <v>0.9164613974167375</v>
+        <v>0.9166942692921564</v>
       </c>
       <c r="F12">
-        <v>0.9063474924377957</v>
+        <v>0.9065731121226858</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009438692718172</v>
+        <v>1.009533878462356</v>
       </c>
       <c r="J12">
-        <v>0.9390845510667615</v>
+        <v>0.9393083017089641</v>
       </c>
       <c r="K12">
-        <v>0.9586261877063806</v>
+        <v>0.9588109612553329</v>
       </c>
       <c r="L12">
-        <v>0.9333854416648355</v>
+        <v>0.9336126924931437</v>
       </c>
       <c r="M12">
-        <v>0.9235194239297457</v>
+        <v>0.9237394324587318</v>
+      </c>
+      <c r="N12">
+        <v>0.9472906889088014</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9055681807015474</v>
+        <v>0.9058027926583522</v>
       </c>
       <c r="D13">
-        <v>0.9430534354091213</v>
+        <v>0.9432404554321648</v>
       </c>
       <c r="E13">
-        <v>0.9173637996626512</v>
+        <v>0.9175942188129861</v>
       </c>
       <c r="F13">
-        <v>0.9073267163853612</v>
+        <v>0.9075498824032119</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009792743108173</v>
+        <v>1.009886936710992</v>
       </c>
       <c r="J13">
-        <v>0.9398765841008411</v>
+        <v>0.9400980291873092</v>
       </c>
       <c r="K13">
-        <v>0.9593114546938647</v>
+        <v>0.9594943070318176</v>
       </c>
       <c r="L13">
-        <v>0.9342160032409481</v>
+        <v>0.934440894345873</v>
       </c>
       <c r="M13">
-        <v>0.9244233944201389</v>
+        <v>0.9246410455644287</v>
+      </c>
+      <c r="N13">
+        <v>0.9479224025920485</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9086621368335704</v>
+        <v>0.9088886571555612</v>
       </c>
       <c r="D14">
-        <v>0.945482639649989</v>
+        <v>0.9456633176217861</v>
       </c>
       <c r="E14">
-        <v>0.9202858645501274</v>
+        <v>0.9205084632715959</v>
       </c>
       <c r="F14">
-        <v>0.9104974310575288</v>
+        <v>0.9107127830926541</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010938503012858</v>
+        <v>1.011029532129375</v>
       </c>
       <c r="J14">
-        <v>0.9424405775397864</v>
+        <v>0.9426546658785984</v>
       </c>
       <c r="K14">
-        <v>0.961529938407362</v>
+        <v>0.9617066623444341</v>
       </c>
       <c r="L14">
-        <v>0.9369049651964478</v>
+        <v>0.9371223287233598</v>
       </c>
       <c r="M14">
-        <v>0.9273501443112971</v>
+        <v>0.9275602840957321</v>
+      </c>
+      <c r="N14">
+        <v>0.949966730149279</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9105406437095931</v>
+        <v>0.9107623452212447</v>
       </c>
       <c r="D15">
-        <v>0.9469581833166881</v>
+        <v>0.9471350811044043</v>
       </c>
       <c r="E15">
-        <v>0.9220604949528074</v>
+        <v>0.9222784326149094</v>
       </c>
       <c r="F15">
-        <v>0.9124229998919487</v>
+        <v>0.9126337016309456</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01163381774047</v>
+        <v>1.011722959997009</v>
       </c>
       <c r="J15">
-        <v>0.9439972246954321</v>
+        <v>0.944206924235492</v>
       </c>
       <c r="K15">
-        <v>0.9628769032968043</v>
+        <v>0.9630499726641095</v>
       </c>
       <c r="L15">
-        <v>0.9385376668676261</v>
+        <v>0.9387505411652839</v>
       </c>
       <c r="M15">
-        <v>0.9291273274560664</v>
+        <v>0.9293329941053756</v>
+      </c>
+      <c r="N15">
+        <v>0.9512073600257158</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9210837648149589</v>
+        <v>0.9212796542298195</v>
       </c>
       <c r="D16">
-        <v>0.9552483611083442</v>
+        <v>0.9554049672817686</v>
       </c>
       <c r="E16">
-        <v>0.9320273549866636</v>
+        <v>0.9322202763898259</v>
       </c>
       <c r="F16">
-        <v>0.9232368480210278</v>
+        <v>0.9234226821307907</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01553091631467</v>
+        <v>1.015609921147604</v>
       </c>
       <c r="J16">
-        <v>0.9527322345036661</v>
+        <v>0.952918324412008</v>
       </c>
       <c r="K16">
-        <v>0.9704363117169963</v>
+        <v>0.9705897404351537</v>
       </c>
       <c r="L16">
-        <v>0.9477021390488845</v>
+        <v>0.947890883178516</v>
       </c>
       <c r="M16">
-        <v>0.9391044362450327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9392861438558255</v>
+      </c>
+      <c r="N16">
+        <v>0.9581612180389256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.927385238000644</v>
+        <v>0.9275666235342417</v>
       </c>
       <c r="D17">
-        <v>0.9602099945353182</v>
+        <v>0.9603551662165571</v>
       </c>
       <c r="E17">
-        <v>0.9379897842669145</v>
+        <v>0.9381686114338365</v>
       </c>
       <c r="F17">
-        <v>0.9297056547662549</v>
+        <v>0.9298775480571225</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017855175960581</v>
+        <v>1.017928461174184</v>
       </c>
       <c r="J17">
-        <v>0.9579512648330833</v>
+        <v>0.9581240103586773</v>
       </c>
       <c r="K17">
-        <v>0.9749536099511298</v>
+        <v>0.9750959525749534</v>
       </c>
       <c r="L17">
-        <v>0.9531800601349028</v>
+        <v>0.9533551810479457</v>
       </c>
       <c r="M17">
-        <v>0.9450696919987605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9452379381370374</v>
+      </c>
+      <c r="N17">
+        <v>0.9623091015035868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9309595164452198</v>
+        <v>0.9311329571644918</v>
       </c>
       <c r="D18">
-        <v>0.9630264090881151</v>
+        <v>0.9631653070810502</v>
       </c>
       <c r="E18">
-        <v>0.9413735111850262</v>
+        <v>0.9415446060977388</v>
       </c>
       <c r="F18">
-        <v>0.9333767540696949</v>
+        <v>0.9335410213334452</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019171625727143</v>
+        <v>1.019241770465046</v>
       </c>
       <c r="J18">
-        <v>0.9609108295749523</v>
+        <v>0.9610762404539872</v>
       </c>
       <c r="K18">
-        <v>0.977515407885182</v>
+        <v>0.9776516619471401</v>
       </c>
       <c r="L18">
-        <v>0.9562872418683276</v>
+        <v>0.956454879827822</v>
       </c>
       <c r="M18">
-        <v>0.9484539253224376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9486147980422067</v>
+      </c>
+      <c r="N18">
+        <v>0.9646587242308761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9321620107248885</v>
+        <v>0.9323328224212339</v>
       </c>
       <c r="D19">
-        <v>0.9639742678512749</v>
+        <v>0.9641110882046687</v>
       </c>
       <c r="E19">
-        <v>0.9425121818961848</v>
+        <v>0.9426807162496648</v>
       </c>
       <c r="F19">
-        <v>0.9346121387084843</v>
+        <v>0.9347738840944961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019614186767955</v>
+        <v>1.019683291105882</v>
       </c>
       <c r="J19">
-        <v>0.9619063816842633</v>
+        <v>0.9620693614623569</v>
       </c>
       <c r="K19">
-        <v>0.9783771789860136</v>
+        <v>0.9785114157420742</v>
       </c>
       <c r="L19">
-        <v>0.9573325856367395</v>
+        <v>0.9574977441319654</v>
       </c>
       <c r="M19">
-        <v>0.9495925877635881</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9497510206058692</v>
+      </c>
+      <c r="N19">
+        <v>0.9654486703334655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9267198527018866</v>
+        <v>0.9269027392525334</v>
       </c>
       <c r="D20">
-        <v>0.9596858586579513</v>
+        <v>0.9598322148135637</v>
       </c>
       <c r="E20">
-        <v>0.9373600118242456</v>
+        <v>0.937540298900445</v>
       </c>
       <c r="F20">
-        <v>0.9290223993906029</v>
+        <v>0.929195734304011</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017609949025529</v>
+        <v>1.017683826973174</v>
       </c>
       <c r="J20">
-        <v>0.9574002517958405</v>
+        <v>0.9575743810486043</v>
       </c>
       <c r="K20">
-        <v>0.9744766652359159</v>
+        <v>0.974620156894386</v>
       </c>
       <c r="L20">
-        <v>0.9526016292642877</v>
+        <v>0.9527781622822765</v>
       </c>
       <c r="M20">
-        <v>0.9444397376010276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9446093768344405</v>
+      </c>
+      <c r="N20">
+        <v>0.9618714409720472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9077569185039471</v>
+        <v>0.9079857860518675</v>
       </c>
       <c r="D21">
-        <v>0.9447717746317591</v>
+        <v>0.9449542930220821</v>
       </c>
       <c r="E21">
-        <v>0.9194308337677696</v>
+        <v>0.9196557018542413</v>
       </c>
       <c r="F21">
-        <v>0.9095696583624338</v>
+        <v>0.9097872764012032</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010603350759853</v>
+        <v>1.010695298330708</v>
       </c>
       <c r="J21">
-        <v>0.9416904319744416</v>
+        <v>0.9419066560056576</v>
       </c>
       <c r="K21">
-        <v>0.960880860358417</v>
+        <v>0.9610593630855758</v>
       </c>
       <c r="L21">
-        <v>0.9361182189812244</v>
+        <v>0.9363377674750654</v>
       </c>
       <c r="M21">
-        <v>0.9264938047388993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9267061234005614</v>
+      </c>
+      <c r="N21">
+        <v>0.9493687313119393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.894649837398564</v>
+        <v>0.8949146590054763</v>
       </c>
       <c r="D22">
-        <v>0.934491882115838</v>
+        <v>0.9347025199976273</v>
       </c>
       <c r="E22">
-        <v>0.9070601609264011</v>
+        <v>0.9073197094760567</v>
       </c>
       <c r="F22">
-        <v>0.8961448010382197</v>
+        <v>0.8963971964732148</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005744613521205</v>
+        <v>1.005850580074274</v>
       </c>
       <c r="J22">
-        <v>0.9308274094081906</v>
+        <v>0.9310761844824463</v>
       </c>
       <c r="K22">
-        <v>0.9514832254996993</v>
+        <v>0.9516888698315485</v>
       </c>
       <c r="L22">
-        <v>0.9247286619586941</v>
+        <v>0.9249815437988276</v>
       </c>
       <c r="M22">
-        <v>0.9140984211853868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9143441173220341</v>
+      </c>
+      <c r="N22">
+        <v>0.9406994672472958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9017267021458405</v>
+        <v>0.9019716397029597</v>
       </c>
       <c r="D23">
-        <v>0.9400391906646538</v>
+        <v>0.9402342937191417</v>
       </c>
       <c r="E23">
-        <v>0.9137371457611453</v>
+        <v>0.9139775331332626</v>
       </c>
       <c r="F23">
-        <v>0.9033912203420396</v>
+        <v>0.9036243671016001</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008369265124837</v>
+        <v>1.008467489942771</v>
       </c>
       <c r="J23">
-        <v>0.9366928965056855</v>
+        <v>0.9369237066145338</v>
       </c>
       <c r="K23">
-        <v>0.9565570366527901</v>
+        <v>0.9567476946073198</v>
       </c>
       <c r="L23">
-        <v>0.9308776556597713</v>
+        <v>0.9311121336503825</v>
       </c>
       <c r="M23">
-        <v>0.9207900893883048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.921017325956397</v>
+      </c>
+      <c r="N23">
+        <v>0.9453825646328784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9270208219648377</v>
+        <v>0.9272030287007974</v>
       </c>
       <c r="D24">
-        <v>0.9599229309915666</v>
+        <v>0.9600687507275197</v>
       </c>
       <c r="E24">
-        <v>0.9376448671066265</v>
+        <v>0.9378244930231001</v>
       </c>
       <c r="F24">
-        <v>0.9293314457616937</v>
+        <v>0.9295041277277925</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017720876847609</v>
+        <v>1.017794486367743</v>
       </c>
       <c r="J24">
-        <v>0.9576494901541378</v>
+        <v>0.9578229927916071</v>
       </c>
       <c r="K24">
-        <v>0.9746923999542683</v>
+        <v>0.9748353712618347</v>
       </c>
       <c r="L24">
-        <v>0.9528632669426247</v>
+        <v>0.9530391604790065</v>
       </c>
       <c r="M24">
-        <v>0.9447246785938319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9448936868894408</v>
+      </c>
+      <c r="N24">
+        <v>0.9620694147755203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9524449249418968</v>
+        <v>0.9525744092061487</v>
       </c>
       <c r="D25">
-        <v>0.9799854525690965</v>
+        <v>0.9800895052955735</v>
       </c>
       <c r="E25">
-        <v>0.9617396918955623</v>
+        <v>0.961867848569818</v>
       </c>
       <c r="F25">
-        <v>0.9554751182919587</v>
+        <v>0.9555973344259048</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027049595474443</v>
+        <v>1.027102264116673</v>
       </c>
       <c r="J25">
-        <v>0.978685990527377</v>
+        <v>0.9788104800091154</v>
       </c>
       <c r="K25">
-        <v>0.9929026234054961</v>
+        <v>0.993004975171716</v>
       </c>
       <c r="L25">
-        <v>0.9749624828923686</v>
+        <v>0.9750884406589353</v>
       </c>
       <c r="M25">
-        <v>0.9688063279386007</v>
+        <v>0.968926411317257</v>
+      </c>
+      <c r="N25">
+        <v>0.9787265440225105</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9705611139218872</v>
+        <v>0.9947638670887816</v>
       </c>
       <c r="D2">
-        <v>0.9943196336033157</v>
+        <v>1.010000921023681</v>
       </c>
       <c r="E2">
-        <v>0.9789501468109798</v>
+        <v>1.00987014115107</v>
       </c>
       <c r="F2">
-        <v>0.9741445935906612</v>
+        <v>1.011586218988675</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033636229712759</v>
+        <v>1.036269195702764</v>
       </c>
       <c r="J2">
-        <v>0.9936594613685855</v>
+        <v>1.017102325915912</v>
       </c>
       <c r="K2">
-        <v>1.005858676351344</v>
+        <v>1.021322663478936</v>
       </c>
       <c r="L2">
-        <v>0.9907107436355661</v>
+        <v>1.021193660740628</v>
       </c>
       <c r="M2">
-        <v>0.9859762873577824</v>
+        <v>1.022886465200732</v>
       </c>
       <c r="N2">
-        <v>0.9904333997852293</v>
+        <v>1.01854672788198</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.982613392223124</v>
+        <v>1.010302818590787</v>
       </c>
       <c r="D3">
-        <v>1.003867748423457</v>
+        <v>1.022137603171306</v>
       </c>
       <c r="E3">
-        <v>0.9904131406001536</v>
+        <v>1.025300093846544</v>
       </c>
       <c r="F3">
-        <v>0.9865982658280137</v>
+        <v>1.027771579348982</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037974237339639</v>
+        <v>1.041158661617749</v>
       </c>
       <c r="J3">
-        <v>1.003589523034089</v>
+        <v>1.030516505142032</v>
       </c>
       <c r="K3">
-        <v>1.014451378739922</v>
+        <v>1.032494853013098</v>
       </c>
       <c r="L3">
-        <v>1.001170174751163</v>
+        <v>1.035619174316994</v>
       </c>
       <c r="M3">
-        <v>0.9974055457756653</v>
+        <v>1.038061033270526</v>
       </c>
       <c r="N3">
-        <v>0.9982176607105766</v>
+        <v>1.031979956781229</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9900180749154153</v>
+        <v>1.019767144764928</v>
       </c>
       <c r="D4">
-        <v>1.009737871439752</v>
+        <v>1.029530995042665</v>
       </c>
       <c r="E4">
-        <v>0.997462354436401</v>
+        <v>1.034706052547418</v>
       </c>
       <c r="F4">
-        <v>0.994260867269428</v>
+        <v>1.037641017046145</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040620096165956</v>
+        <v>1.044117037398767</v>
       </c>
       <c r="J4">
-        <v>1.009680612455625</v>
+        <v>1.038678373418608</v>
       </c>
       <c r="K4">
-        <v>1.019720172643608</v>
+        <v>1.039285607165426</v>
       </c>
       <c r="L4">
-        <v>1.007591503402544</v>
+        <v>1.044402901069398</v>
       </c>
       <c r="M4">
-        <v>1.004429055676967</v>
+        <v>1.047305420402595</v>
       </c>
       <c r="N4">
-        <v>1.002972111188806</v>
+        <v>1.040153415846937</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9930455774999244</v>
+        <v>1.023620538908686</v>
       </c>
       <c r="D5">
-        <v>1.012138638432133</v>
+        <v>1.032541116037991</v>
       </c>
       <c r="E5">
-        <v>1.000345954728501</v>
+        <v>1.038537444495875</v>
       </c>
       <c r="F5">
-        <v>0.9973964640367313</v>
+        <v>1.041661972966354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041697147370589</v>
+        <v>1.045316594762634</v>
       </c>
       <c r="J5">
-        <v>1.012168615354913</v>
+        <v>1.041999332582453</v>
       </c>
       <c r="K5">
-        <v>1.02187175262202</v>
+        <v>1.042046878374657</v>
       </c>
       <c r="L5">
-        <v>1.010215710746026</v>
+        <v>1.047978469501591</v>
       </c>
       <c r="M5">
-        <v>1.007301021441423</v>
+        <v>1.051069626682907</v>
       </c>
       <c r="N5">
-        <v>1.004909261977491</v>
+        <v>1.043479091153715</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9935491319638858</v>
+        <v>1.024260594611422</v>
       </c>
       <c r="D6">
-        <v>1.012537983735865</v>
+        <v>1.033041086566434</v>
       </c>
       <c r="E6">
-        <v>1.000825655165953</v>
+        <v>1.039173945141151</v>
       </c>
       <c r="F6">
-        <v>0.9979181509583014</v>
+        <v>1.042330012310549</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041876007593908</v>
+        <v>1.045515546324656</v>
       </c>
       <c r="J6">
-        <v>1.012582292003025</v>
+        <v>1.042550820143557</v>
       </c>
       <c r="K6">
-        <v>1.022229458759887</v>
+        <v>1.042505313358468</v>
       </c>
       <c r="L6">
-        <v>1.01065211089624</v>
+        <v>1.048572331947268</v>
       </c>
       <c r="M6">
-        <v>1.00777872233189</v>
+        <v>1.051694886250728</v>
       </c>
       <c r="N6">
-        <v>1.005231062303167</v>
+        <v>1.044031361890411</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9900588535001159</v>
+        <v>1.019819107946501</v>
       </c>
       <c r="D7">
-        <v>1.009770205862062</v>
+        <v>1.029571587508896</v>
       </c>
       <c r="E7">
-        <v>0.9975011892132535</v>
+        <v>1.034757712210049</v>
       </c>
       <c r="F7">
-        <v>0.9943030914099515</v>
+        <v>1.037695229512149</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040634622364311</v>
+        <v>1.044133233433928</v>
       </c>
       <c r="J7">
-        <v>1.009714134031419</v>
+        <v>1.038723165383089</v>
       </c>
       <c r="K7">
-        <v>1.01974916374777</v>
+        <v>1.039322857566655</v>
       </c>
       <c r="L7">
-        <v>1.007626854894004</v>
+        <v>1.044451120788533</v>
       </c>
       <c r="M7">
-        <v>1.004467738131665</v>
+        <v>1.047356179591312</v>
       </c>
       <c r="N7">
-        <v>1.002998230363308</v>
+        <v>1.040198271421146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9747216266919035</v>
+        <v>1.000148218883745</v>
       </c>
       <c r="D8">
-        <v>0.9976146762532458</v>
+        <v>1.014205807046841</v>
       </c>
       <c r="E8">
-        <v>0.9829057309741699</v>
+        <v>1.015214883876741</v>
       </c>
       <c r="F8">
-        <v>0.9784411981137148</v>
+        <v>1.017192020079273</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035137803946323</v>
+        <v>1.037967508237741</v>
       </c>
       <c r="J8">
-        <v>0.9970894058493904</v>
+        <v>1.021752122500067</v>
       </c>
       <c r="K8">
-        <v>1.008827055505897</v>
+        <v>1.025196729380012</v>
       </c>
       <c r="L8">
-        <v>0.9943223443092403</v>
+        <v>1.026192629660001</v>
       </c>
       <c r="M8">
-        <v>0.9899213389767024</v>
+        <v>1.028144043251337</v>
       </c>
       <c r="N8">
-        <v>0.9931265492321848</v>
+        <v>1.023203127710623</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9441835864894591</v>
+        <v>0.9600237097005639</v>
       </c>
       <c r="D9">
-        <v>0.9734608295695422</v>
+        <v>0.9829002838233184</v>
       </c>
       <c r="E9">
-        <v>0.9539093454183233</v>
+        <v>0.9754321211352726</v>
       </c>
       <c r="F9">
-        <v>0.9469593790848146</v>
+        <v>0.9754765899524408</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024034119493511</v>
+        <v>1.025233633201859</v>
       </c>
       <c r="J9">
-        <v>0.97187395019246</v>
+        <v>0.9870716464237854</v>
       </c>
       <c r="K9">
-        <v>0.9869996802878517</v>
+        <v>0.9962770214039769</v>
       </c>
       <c r="L9">
-        <v>0.9677972634495327</v>
+        <v>0.9889367815739889</v>
       </c>
       <c r="M9">
-        <v>0.9609759125979954</v>
+        <v>0.9889804811813718</v>
       </c>
       <c r="N9">
-        <v>0.9732341885552426</v>
+        <v>0.9884734013804074</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9205547781945655</v>
+        <v>0.9277130074051675</v>
       </c>
       <c r="D10">
-        <v>0.9548345314419309</v>
+        <v>0.9577718618245933</v>
       </c>
       <c r="E10">
-        <v>0.9315347001618841</v>
+        <v>0.9434753696765298</v>
       </c>
       <c r="F10">
-        <v>0.9226787171793772</v>
+        <v>0.9419752048728035</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015342341498373</v>
+        <v>1.014897402002803</v>
       </c>
       <c r="J10">
-        <v>0.9523180233892599</v>
+        <v>0.9591202812205395</v>
       </c>
       <c r="K10">
-        <v>0.9700701281086047</v>
+        <v>0.9729478439462537</v>
       </c>
       <c r="L10">
-        <v>0.9472608730718147</v>
+        <v>0.9589461283625761</v>
       </c>
       <c r="M10">
-        <v>0.9386000101533857</v>
+        <v>0.9574775817986333</v>
       </c>
       <c r="N10">
-        <v>0.9576825223109394</v>
+        <v>0.9604823420325066</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9092479127053487</v>
+        <v>0.9116862609501197</v>
       </c>
       <c r="D11">
-        <v>0.9459454721491601</v>
+        <v>0.9453470328518093</v>
       </c>
       <c r="E11">
-        <v>0.9208478037140585</v>
+        <v>0.9276509994009167</v>
       </c>
       <c r="F11">
-        <v>0.911081067662841</v>
+        <v>0.9253846851017963</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011162508339078</v>
+        <v>1.009761381631687</v>
       </c>
       <c r="J11">
-        <v>0.9429522971102294</v>
+        <v>0.9452577408887973</v>
       </c>
       <c r="K11">
-        <v>0.9619642250538646</v>
+        <v>0.9613788621085281</v>
       </c>
       <c r="L11">
-        <v>0.9374345126165774</v>
+        <v>0.9440796952135559</v>
       </c>
       <c r="M11">
-        <v>0.9279001670873129</v>
+        <v>0.9418656739104689</v>
       </c>
       <c r="N11">
-        <v>0.9502046439600934</v>
+        <v>0.9466001153034376</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9048496305668242</v>
+        <v>0.9053252420500164</v>
       </c>
       <c r="D12">
-        <v>0.9424923503598591</v>
+        <v>0.9404242151765437</v>
       </c>
       <c r="E12">
-        <v>0.9166942692921564</v>
+        <v>0.9213753758442838</v>
       </c>
       <c r="F12">
-        <v>0.9065731121226858</v>
+        <v>0.9188045794473563</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009533878462356</v>
+        <v>1.007722978129941</v>
       </c>
       <c r="J12">
-        <v>0.9393083017089641</v>
+        <v>0.9397570686346317</v>
       </c>
       <c r="K12">
-        <v>0.9588109612553329</v>
+        <v>0.9567892935201391</v>
       </c>
       <c r="L12">
-        <v>0.9336126924931437</v>
+        <v>0.9381816150676332</v>
       </c>
       <c r="M12">
-        <v>0.9237394324587318</v>
+        <v>0.935672238510793</v>
       </c>
       <c r="N12">
-        <v>0.9472906889088014</v>
+        <v>0.9410916314637352</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9058027926583522</v>
+        <v>0.9067104195933325</v>
       </c>
       <c r="D13">
-        <v>0.9432404554321648</v>
+        <v>0.9414957684046348</v>
       </c>
       <c r="E13">
-        <v>0.9175942188129861</v>
+        <v>0.9227417089165191</v>
       </c>
       <c r="F13">
-        <v>0.9075498824032119</v>
+        <v>0.9202372430916735</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009886936710992</v>
+        <v>1.008166827522609</v>
       </c>
       <c r="J13">
-        <v>0.9400980291873092</v>
+        <v>0.9409548120872803</v>
       </c>
       <c r="K13">
-        <v>0.9594943070318176</v>
+        <v>0.9577885855348585</v>
       </c>
       <c r="L13">
-        <v>0.934440894345873</v>
+        <v>0.9394658542612229</v>
       </c>
       <c r="M13">
-        <v>0.9246410455644287</v>
+        <v>0.9370207747274329</v>
       </c>
       <c r="N13">
-        <v>0.9479224025920485</v>
+        <v>0.9422910758494699</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9088886571555612</v>
+        <v>0.9111695685324805</v>
       </c>
       <c r="D14">
-        <v>0.9456633176217861</v>
+        <v>0.9449469715848914</v>
       </c>
       <c r="E14">
-        <v>0.9205084632715959</v>
+        <v>0.9271411348071653</v>
       </c>
       <c r="F14">
-        <v>0.9107127830926541</v>
+        <v>0.9248500989776154</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011029532129375</v>
+        <v>1.009595794147885</v>
       </c>
       <c r="J14">
-        <v>0.9426546658785984</v>
+        <v>0.9448108972142634</v>
       </c>
       <c r="K14">
-        <v>0.9617066623444341</v>
+        <v>0.961006004945459</v>
       </c>
       <c r="L14">
-        <v>0.9371223287233598</v>
+        <v>0.9436005510996989</v>
       </c>
       <c r="M14">
-        <v>0.9275602840957321</v>
+        <v>0.9413625295748405</v>
       </c>
       <c r="N14">
-        <v>0.949966730149279</v>
+        <v>0.946152637059632</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9107623452212447</v>
+        <v>0.9138589627706295</v>
       </c>
       <c r="D15">
-        <v>0.9471350811044043</v>
+        <v>0.9470296593242198</v>
       </c>
       <c r="E15">
-        <v>0.9222784326149094</v>
+        <v>0.9297951991955271</v>
       </c>
       <c r="F15">
-        <v>0.9126337016309456</v>
+        <v>0.92763282076619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011722959997009</v>
+        <v>1.010457693663104</v>
       </c>
       <c r="J15">
-        <v>0.944206924235492</v>
+        <v>0.9471367896786859</v>
       </c>
       <c r="K15">
-        <v>0.9630499726641095</v>
+        <v>0.9629468321926491</v>
       </c>
       <c r="L15">
-        <v>0.9387505411652839</v>
+        <v>0.9460946084699547</v>
       </c>
       <c r="M15">
-        <v>0.9293329941053756</v>
+        <v>0.9439815281813303</v>
       </c>
       <c r="N15">
-        <v>0.9512073600257158</v>
+        <v>0.9484818325581379</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9212796542298195</v>
+        <v>0.9287261654591804</v>
       </c>
       <c r="D16">
-        <v>0.9554049672817686</v>
+        <v>0.9585582911014704</v>
       </c>
       <c r="E16">
-        <v>0.9322202763898259</v>
+        <v>0.9444763406370176</v>
       </c>
       <c r="F16">
-        <v>0.9234226821307907</v>
+        <v>0.9430245814967823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015609921147604</v>
+        <v>1.015222008220855</v>
       </c>
       <c r="J16">
-        <v>0.952918324412008</v>
+        <v>0.9599967399310219</v>
       </c>
       <c r="K16">
-        <v>0.9705897404351537</v>
+        <v>0.9736793757710303</v>
       </c>
       <c r="L16">
-        <v>0.947890883178516</v>
+        <v>0.9598861936955789</v>
       </c>
       <c r="M16">
-        <v>0.9392861438558255</v>
+        <v>0.9584648534200342</v>
       </c>
       <c r="N16">
-        <v>0.9581612180389256</v>
+        <v>0.9613600454148893</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9275666235342417</v>
+        <v>0.9374492865813556</v>
       </c>
       <c r="D17">
-        <v>0.9603551662165571</v>
+        <v>0.9653337177399648</v>
       </c>
       <c r="E17">
-        <v>0.9381686114338365</v>
+        <v>0.9530974760870746</v>
       </c>
       <c r="F17">
-        <v>0.9298775480571225</v>
+        <v>0.9520624572522494</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017928461174184</v>
+        <v>1.018015949454135</v>
       </c>
       <c r="J17">
-        <v>0.9581240103586773</v>
+        <v>0.9675431790194908</v>
       </c>
       <c r="K17">
-        <v>0.9750959525749534</v>
+        <v>0.979978158015723</v>
       </c>
       <c r="L17">
-        <v>0.9533551810479457</v>
+        <v>0.9679810853367742</v>
       </c>
       <c r="M17">
-        <v>0.9452379381370374</v>
+        <v>0.9669666677492131</v>
       </c>
       <c r="N17">
-        <v>0.9623091015035868</v>
+        <v>0.9689172013124522</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9311329571644918</v>
+        <v>0.942349635224826</v>
       </c>
       <c r="D18">
-        <v>0.9631653070810502</v>
+        <v>0.9691432065102891</v>
       </c>
       <c r="E18">
-        <v>0.9415446060977388</v>
+        <v>0.9579428304731503</v>
       </c>
       <c r="F18">
-        <v>0.9335410213334452</v>
+        <v>0.9571419540457341</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019241770465046</v>
+        <v>1.019584580777714</v>
       </c>
       <c r="J18">
-        <v>0.9610762404539872</v>
+        <v>0.9717825936516933</v>
       </c>
       <c r="K18">
-        <v>0.9776516619471401</v>
+        <v>0.9835167093124806</v>
       </c>
       <c r="L18">
-        <v>0.956454879827822</v>
+        <v>0.9725292866170684</v>
       </c>
       <c r="M18">
-        <v>0.9486147980422067</v>
+        <v>0.9717438874967826</v>
       </c>
       <c r="N18">
-        <v>0.9646587242308761</v>
+        <v>0.9731626363997001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9323328224212339</v>
+        <v>0.9439910328624951</v>
       </c>
       <c r="D19">
-        <v>0.9641110882046687</v>
+        <v>0.9704197144804386</v>
       </c>
       <c r="E19">
-        <v>0.9426807162496648</v>
+        <v>0.9595661746442707</v>
       </c>
       <c r="F19">
-        <v>0.9347738840944961</v>
+        <v>0.9588437393125624</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019683291105882</v>
+        <v>1.020109816468546</v>
       </c>
       <c r="J19">
-        <v>0.9620693614623569</v>
+        <v>0.9732025992067228</v>
       </c>
       <c r="K19">
-        <v>0.9785114157420742</v>
+        <v>0.9847019472599864</v>
       </c>
       <c r="L19">
-        <v>0.9574977441319654</v>
+        <v>0.9740528403323594</v>
       </c>
       <c r="M19">
-        <v>0.9497510206058692</v>
+        <v>0.9733442275349105</v>
       </c>
       <c r="N19">
-        <v>0.9654486703334655</v>
+        <v>0.9745846585254946</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9269027392525334</v>
+        <v>0.9365333740824439</v>
       </c>
       <c r="D20">
-        <v>0.9598322148135637</v>
+        <v>0.9646219502315412</v>
       </c>
       <c r="E20">
-        <v>0.937540298900445</v>
+        <v>0.9521920251488464</v>
       </c>
       <c r="F20">
-        <v>0.929195734304011</v>
+        <v>0.9511132480680097</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017683826973174</v>
+        <v>1.017722677906391</v>
       </c>
       <c r="J20">
-        <v>0.9575743810486043</v>
+        <v>0.9667508012747921</v>
       </c>
       <c r="K20">
-        <v>0.974620156894386</v>
+        <v>0.9793167755985318</v>
       </c>
       <c r="L20">
-        <v>0.9527781622822765</v>
+        <v>0.9671310497439832</v>
       </c>
       <c r="M20">
-        <v>0.9446093768344405</v>
+        <v>0.9660738624714804</v>
       </c>
       <c r="N20">
-        <v>0.9618714409720472</v>
+        <v>0.9681236983004692</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9079857860518675</v>
+        <v>0.9098688193892271</v>
       </c>
       <c r="D21">
-        <v>0.9449542930220821</v>
+        <v>0.9439399835919849</v>
       </c>
       <c r="E21">
-        <v>0.9196557018542413</v>
+        <v>0.92585765920839</v>
       </c>
       <c r="F21">
-        <v>0.9097872764012032</v>
+        <v>0.9235043800589348</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010695298330708</v>
+        <v>1.009178942708916</v>
       </c>
       <c r="J21">
-        <v>0.9419066560056576</v>
+        <v>0.9436860154315979</v>
       </c>
       <c r="K21">
-        <v>0.9610593630855758</v>
+        <v>0.9600673960561329</v>
       </c>
       <c r="L21">
-        <v>0.9363377674750654</v>
+        <v>0.942394370434257</v>
       </c>
       <c r="M21">
-        <v>0.9267061234005614</v>
+        <v>0.9400959370291138</v>
       </c>
       <c r="N21">
-        <v>0.9493687313119393</v>
+        <v>0.9450261578158097</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8949146590054763</v>
+        <v>0.8906427137786067</v>
       </c>
       <c r="D22">
-        <v>0.9347025199976273</v>
+        <v>0.9290819761212685</v>
       </c>
       <c r="E22">
-        <v>0.9073197094760567</v>
+        <v>0.9069012344695013</v>
       </c>
       <c r="F22">
-        <v>0.8963971964732148</v>
+        <v>0.9036262007642245</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005850580074274</v>
+        <v>1.003020429658595</v>
       </c>
       <c r="J22">
-        <v>0.9310761844824463</v>
+        <v>0.9270648077893365</v>
       </c>
       <c r="K22">
-        <v>0.9516888698315485</v>
+        <v>0.9462026134262917</v>
       </c>
       <c r="L22">
-        <v>0.9249815437988276</v>
+        <v>0.9245738202020685</v>
       </c>
       <c r="M22">
-        <v>0.9143441173220341</v>
+        <v>0.9213833941678582</v>
       </c>
       <c r="N22">
-        <v>0.9406994672472958</v>
+        <v>0.9283813461522175</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9019716397029597</v>
+        <v>0.9011192153663212</v>
       </c>
       <c r="D23">
-        <v>0.9402342937191417</v>
+        <v>0.9371720418797189</v>
       </c>
       <c r="E23">
-        <v>0.9139775331332626</v>
+        <v>0.9172274243600553</v>
       </c>
       <c r="F23">
-        <v>0.9036243671016001</v>
+        <v>0.9144551157522427</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008467489942771</v>
+        <v>1.006375415898984</v>
       </c>
       <c r="J23">
-        <v>0.9369237066145338</v>
+        <v>0.9361204967531846</v>
       </c>
       <c r="K23">
-        <v>0.9567476946073198</v>
+        <v>0.9537554963305536</v>
       </c>
       <c r="L23">
-        <v>0.9311121336503825</v>
+        <v>0.9342825424199358</v>
       </c>
       <c r="M23">
-        <v>0.921017325956397</v>
+        <v>0.931577988384762</v>
       </c>
       <c r="N23">
-        <v>0.9453825646328784</v>
+        <v>0.937449895233096</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9272030287007974</v>
+        <v>0.9369478086176982</v>
       </c>
       <c r="D24">
-        <v>0.9600687507275197</v>
+        <v>0.9649440025488405</v>
       </c>
       <c r="E24">
-        <v>0.9378244930231001</v>
+        <v>0.9526017188643656</v>
       </c>
       <c r="F24">
-        <v>0.9295041277277925</v>
+        <v>0.9515427415057861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017794486367743</v>
+        <v>1.017855381143825</v>
       </c>
       <c r="J24">
-        <v>0.9578229927916071</v>
+        <v>0.9671093382753336</v>
       </c>
       <c r="K24">
-        <v>0.9748353712618347</v>
+        <v>0.9796160394398665</v>
       </c>
       <c r="L24">
-        <v>0.9530391604790065</v>
+        <v>0.9675156737653179</v>
       </c>
       <c r="M24">
-        <v>0.9448936868894408</v>
+        <v>0.9664778376948123</v>
       </c>
       <c r="N24">
-        <v>0.9620694147755203</v>
+        <v>0.9684827444646763</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9525744092061487</v>
+        <v>0.9712011278531667</v>
       </c>
       <c r="D25">
-        <v>0.9800895052955735</v>
+        <v>0.9916125747406034</v>
       </c>
       <c r="E25">
-        <v>0.961867848569818</v>
+        <v>0.9865035327049807</v>
       </c>
       <c r="F25">
-        <v>0.9555973344259048</v>
+        <v>0.9870839247056717</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027102264116673</v>
+        <v>1.028796396969835</v>
       </c>
       <c r="J25">
-        <v>0.9788104800091154</v>
+        <v>0.9967381379166903</v>
       </c>
       <c r="K25">
-        <v>0.993004975171716</v>
+        <v>1.004342505215307</v>
       </c>
       <c r="L25">
-        <v>0.9750884406589353</v>
+        <v>0.9993150405939384</v>
       </c>
       <c r="M25">
-        <v>0.968926411317257</v>
+        <v>0.9998861107911887</v>
       </c>
       <c r="N25">
-        <v>0.9787265440225105</v>
+        <v>0.9981536203999943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9947638670887816</v>
+        <v>1.000845916897451</v>
       </c>
       <c r="D2">
-        <v>1.010000921023681</v>
+        <v>1.01908671839685</v>
       </c>
       <c r="E2">
-        <v>1.00987014115107</v>
+        <v>1.015998951291726</v>
       </c>
       <c r="F2">
-        <v>1.011586218988675</v>
+        <v>1.017819558323438</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036269195702764</v>
+        <v>1.046202954179736</v>
       </c>
       <c r="J2">
-        <v>1.017102325915912</v>
+        <v>1.023001356139363</v>
       </c>
       <c r="K2">
-        <v>1.021322663478936</v>
+        <v>1.030286397986502</v>
       </c>
       <c r="L2">
-        <v>1.021193660740628</v>
+        <v>1.027239805748255</v>
       </c>
       <c r="M2">
-        <v>1.022886465200732</v>
+        <v>1.029036097335282</v>
       </c>
       <c r="N2">
-        <v>1.01854672788198</v>
+        <v>1.024454135404977</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010302818590787</v>
+        <v>1.006828712649446</v>
       </c>
       <c r="D3">
-        <v>1.022137603171306</v>
+        <v>1.023620539089075</v>
       </c>
       <c r="E3">
-        <v>1.025300093846544</v>
+        <v>1.021796441735878</v>
       </c>
       <c r="F3">
-        <v>1.027771579348982</v>
+        <v>1.024211644321102</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041158661617749</v>
+        <v>1.048009165443761</v>
       </c>
       <c r="J3">
-        <v>1.030516505142032</v>
+        <v>1.027134935425517</v>
       </c>
       <c r="K3">
-        <v>1.032494853013098</v>
+        <v>1.033959854320706</v>
       </c>
       <c r="L3">
-        <v>1.035619174316994</v>
+        <v>1.032157826729363</v>
       </c>
       <c r="M3">
-        <v>1.038061033270526</v>
+        <v>1.034543828703508</v>
       </c>
       <c r="N3">
-        <v>1.031979956781229</v>
+        <v>1.028593584847845</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019767144764928</v>
+        <v>1.010599298730371</v>
       </c>
       <c r="D4">
-        <v>1.029530995042665</v>
+        <v>1.026477155638289</v>
       </c>
       <c r="E4">
-        <v>1.034706052547418</v>
+        <v>1.02545589093921</v>
       </c>
       <c r="F4">
-        <v>1.037641017046145</v>
+        <v>1.028247748827526</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044117037398767</v>
+        <v>1.049130826679506</v>
       </c>
       <c r="J4">
-        <v>1.038678373418608</v>
+        <v>1.029735705264369</v>
       </c>
       <c r="K4">
-        <v>1.039285607165426</v>
+        <v>1.036266191224078</v>
       </c>
       <c r="L4">
-        <v>1.044402901069398</v>
+        <v>1.035256494811557</v>
       </c>
       <c r="M4">
-        <v>1.047305420402595</v>
+        <v>1.038016795262918</v>
       </c>
       <c r="N4">
-        <v>1.040153415846937</v>
+        <v>1.031198048078181</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023620538908686</v>
+        <v>1.012161473912325</v>
       </c>
       <c r="D5">
-        <v>1.032541116037991</v>
+        <v>1.027660394084814</v>
       </c>
       <c r="E5">
-        <v>1.038537444495875</v>
+        <v>1.026973340320098</v>
       </c>
       <c r="F5">
-        <v>1.041661972966354</v>
+        <v>1.029921730957573</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045316594762634</v>
+        <v>1.049591467075434</v>
       </c>
       <c r="J5">
-        <v>1.041999332582453</v>
+        <v>1.030812124510318</v>
       </c>
       <c r="K5">
-        <v>1.042046878374657</v>
+        <v>1.037219534551498</v>
       </c>
       <c r="L5">
-        <v>1.047978469501591</v>
+        <v>1.036540044821978</v>
       </c>
       <c r="M5">
-        <v>1.051069626682907</v>
+        <v>1.039456063028727</v>
       </c>
       <c r="N5">
-        <v>1.043479091153715</v>
+        <v>1.032275995962925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024260594611422</v>
+        <v>1.012422453740201</v>
       </c>
       <c r="D6">
-        <v>1.033041086566434</v>
+        <v>1.027858049424102</v>
       </c>
       <c r="E6">
-        <v>1.039173945141151</v>
+        <v>1.027226924701474</v>
       </c>
       <c r="F6">
-        <v>1.042330012310549</v>
+        <v>1.030201494968036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045515546324656</v>
+        <v>1.049668181222941</v>
       </c>
       <c r="J6">
-        <v>1.042550820143557</v>
+        <v>1.03099188740749</v>
       </c>
       <c r="K6">
-        <v>1.042505313358468</v>
+        <v>1.03737867134163</v>
       </c>
       <c r="L6">
-        <v>1.048572331947268</v>
+        <v>1.036754461436748</v>
       </c>
       <c r="M6">
-        <v>1.051694886250728</v>
+        <v>1.039696532283096</v>
       </c>
       <c r="N6">
-        <v>1.044031361890411</v>
+        <v>1.032456014144031</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019819107946501</v>
+        <v>1.010620261453955</v>
       </c>
       <c r="D7">
-        <v>1.029571587508896</v>
+        <v>1.026493034633719</v>
       </c>
       <c r="E7">
-        <v>1.034757712210049</v>
+        <v>1.025476248321022</v>
       </c>
       <c r="F7">
-        <v>1.037695229512149</v>
+        <v>1.02827020477583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044133233433928</v>
+        <v>1.049137024167823</v>
       </c>
       <c r="J7">
-        <v>1.038723165383089</v>
+        <v>1.029750154049729</v>
       </c>
       <c r="K7">
-        <v>1.039322857566655</v>
+        <v>1.036278992806831</v>
       </c>
       <c r="L7">
-        <v>1.044451120788533</v>
+        <v>1.03527371970639</v>
       </c>
       <c r="M7">
-        <v>1.047356179591312</v>
+        <v>1.038036107164372</v>
       </c>
       <c r="N7">
-        <v>1.040198271421146</v>
+        <v>1.031212517382473</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000148218883745</v>
+        <v>1.002889380106557</v>
       </c>
       <c r="D8">
-        <v>1.014205807046841</v>
+        <v>1.02063538068792</v>
       </c>
       <c r="E8">
-        <v>1.015214883876741</v>
+        <v>1.017977909591433</v>
       </c>
       <c r="F8">
-        <v>1.017192020079273</v>
+        <v>1.020001214593958</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037967508237741</v>
+        <v>1.046823347390289</v>
       </c>
       <c r="J8">
-        <v>1.021752122500067</v>
+        <v>1.02441409830798</v>
       </c>
       <c r="K8">
-        <v>1.025196729380012</v>
+        <v>1.031542903182217</v>
       </c>
       <c r="L8">
-        <v>1.026192629660001</v>
+        <v>1.028919743045833</v>
       </c>
       <c r="M8">
-        <v>1.028144043251337</v>
+        <v>1.030916904575229</v>
       </c>
       <c r="N8">
-        <v>1.023203127710623</v>
+        <v>1.025868883829517</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9600237097005639</v>
+        <v>0.9884405256738563</v>
       </c>
       <c r="D9">
-        <v>0.9829002838233184</v>
+        <v>1.009685788905524</v>
       </c>
       <c r="E9">
-        <v>0.9754321211352726</v>
+        <v>1.004011073709593</v>
       </c>
       <c r="F9">
-        <v>0.9754765899524408</v>
+        <v>1.004608411722823</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025233633201859</v>
+        <v>1.04236796991522</v>
       </c>
       <c r="J9">
-        <v>0.9870716464237854</v>
+        <v>1.014408187796701</v>
       </c>
       <c r="K9">
-        <v>0.9962770214039769</v>
+        <v>1.022623651515316</v>
       </c>
       <c r="L9">
-        <v>0.9889367815739889</v>
+        <v>1.017039407532277</v>
       </c>
       <c r="M9">
-        <v>0.9889804811813718</v>
+        <v>1.017627160540861</v>
       </c>
       <c r="N9">
-        <v>0.9884734013804074</v>
+        <v>1.015848763777617</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9277130074051675</v>
+        <v>0.9781680372121104</v>
       </c>
       <c r="D10">
-        <v>0.9577718618245933</v>
+        <v>1.00190668446308</v>
       </c>
       <c r="E10">
-        <v>0.9434753696765298</v>
+        <v>0.9941164651228279</v>
       </c>
       <c r="F10">
-        <v>0.9419752048728035</v>
+        <v>0.9937081147963607</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014897402002803</v>
+        <v>1.039115917354093</v>
       </c>
       <c r="J10">
-        <v>0.9591202812205395</v>
+        <v>1.007275449150793</v>
       </c>
       <c r="K10">
-        <v>0.9729478439462537</v>
+        <v>1.016241598257993</v>
       </c>
       <c r="L10">
-        <v>0.9589461283625761</v>
+        <v>1.008592767418009</v>
       </c>
       <c r="M10">
-        <v>0.9574775817986333</v>
+        <v>1.008191908087864</v>
       </c>
       <c r="N10">
-        <v>0.9604823420325066</v>
+        <v>1.008705895824696</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9116862609501197</v>
+        <v>0.9735467006301743</v>
       </c>
       <c r="D11">
-        <v>0.9453470328518093</v>
+        <v>0.9984100427346733</v>
       </c>
       <c r="E11">
-        <v>0.9276509994009167</v>
+        <v>0.9896742243050637</v>
       </c>
       <c r="F11">
-        <v>0.9253846851017963</v>
+        <v>0.9888149558588382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009761381631687</v>
+        <v>1.037633962544178</v>
       </c>
       <c r="J11">
-        <v>0.9452577408887973</v>
+        <v>1.004062933479248</v>
       </c>
       <c r="K11">
-        <v>0.9613788621085281</v>
+        <v>1.013362005739147</v>
       </c>
       <c r="L11">
-        <v>0.9440796952135559</v>
+        <v>1.004793532643872</v>
       </c>
       <c r="M11">
-        <v>0.9418656739104689</v>
+        <v>1.003950933944302</v>
       </c>
       <c r="N11">
-        <v>0.9466001153034376</v>
+        <v>1.005488818012417</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9053252420500164</v>
+        <v>0.9718020393251389</v>
       </c>
       <c r="D12">
-        <v>0.9404242151765437</v>
+        <v>0.9970905823543572</v>
       </c>
       <c r="E12">
-        <v>0.9213753758442838</v>
+        <v>0.9879986123286573</v>
       </c>
       <c r="F12">
-        <v>0.9188045794473563</v>
+        <v>0.9869693012775683</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.007722978129941</v>
+        <v>1.037071747551605</v>
       </c>
       <c r="J12">
-        <v>0.9397570686346317</v>
+        <v>1.002849659853065</v>
       </c>
       <c r="K12">
-        <v>0.9567892935201391</v>
+        <v>1.012273735293555</v>
       </c>
       <c r="L12">
-        <v>0.9381816150676332</v>
+        <v>1.00335940940437</v>
       </c>
       <c r="M12">
-        <v>0.935672238510793</v>
+        <v>1.002350480653991</v>
       </c>
       <c r="N12">
-        <v>0.9410916314637352</v>
+        <v>1.00427382139852</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9067104195933325</v>
+        <v>0.9721775817234575</v>
       </c>
       <c r="D13">
-        <v>0.9414957684046348</v>
+        <v>0.9973745694462083</v>
       </c>
       <c r="E13">
-        <v>0.9227417089165191</v>
+        <v>0.9883592256527449</v>
       </c>
       <c r="F13">
-        <v>0.9202372430916735</v>
+        <v>0.9873665087678067</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008166827522609</v>
+        <v>1.037192887754373</v>
       </c>
       <c r="J13">
-        <v>0.9409548120872803</v>
+        <v>1.003110839948112</v>
       </c>
       <c r="K13">
-        <v>0.9577885855348585</v>
+        <v>1.012508038381852</v>
       </c>
       <c r="L13">
-        <v>0.9394658542612229</v>
+        <v>1.003668098633197</v>
       </c>
       <c r="M13">
-        <v>0.9370207747274329</v>
+        <v>1.00269495336031</v>
       </c>
       <c r="N13">
-        <v>0.9422910758494699</v>
+        <v>1.00453537239926</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9111695685324805</v>
+        <v>0.9734030721106108</v>
       </c>
       <c r="D14">
-        <v>0.9449469715848914</v>
+        <v>0.998301405541966</v>
       </c>
       <c r="E14">
-        <v>0.9271411348071653</v>
+        <v>0.9895362506643738</v>
       </c>
       <c r="F14">
-        <v>0.9248500989776154</v>
+        <v>0.9886629799199312</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009595794147885</v>
+        <v>1.037587733479908</v>
       </c>
       <c r="J14">
-        <v>0.9448108972142634</v>
+        <v>1.003963060399033</v>
       </c>
       <c r="K14">
-        <v>0.961006004945459</v>
+        <v>1.013272437134419</v>
       </c>
       <c r="L14">
-        <v>0.9436005510996989</v>
+        <v>1.00467546504895</v>
       </c>
       <c r="M14">
-        <v>0.9413625295748405</v>
+        <v>1.003819164528153</v>
       </c>
       <c r="N14">
-        <v>0.946152637059632</v>
+        <v>1.005388803100973</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9138589627706295</v>
+        <v>0.9741543495750858</v>
       </c>
       <c r="D15">
-        <v>0.9470296593242198</v>
+        <v>0.9988696793974923</v>
       </c>
       <c r="E15">
-        <v>0.9297951991955271</v>
+        <v>0.9902580080390649</v>
       </c>
       <c r="F15">
-        <v>0.92763282076619</v>
+        <v>0.9894579865621854</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010457693663104</v>
+        <v>1.037829432807012</v>
       </c>
       <c r="J15">
-        <v>0.9471367896786859</v>
+        <v>1.004485447517671</v>
       </c>
       <c r="K15">
-        <v>0.9629468321926491</v>
+        <v>1.013740897087904</v>
       </c>
       <c r="L15">
-        <v>0.9460946084699547</v>
+        <v>1.005293048608223</v>
       </c>
       <c r="M15">
-        <v>0.9439815281813303</v>
+        <v>1.004508435853742</v>
       </c>
       <c r="N15">
-        <v>0.9484818325581379</v>
+        <v>1.005911932069237</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9287261654591804</v>
+        <v>0.9784709185270478</v>
       </c>
       <c r="D16">
-        <v>0.9585582911014704</v>
+        <v>1.002135928146831</v>
       </c>
       <c r="E16">
-        <v>0.9444763406370176</v>
+        <v>0.9944078030059172</v>
       </c>
       <c r="F16">
-        <v>0.9430245814967823</v>
+        <v>0.9940290340470391</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015222008220855</v>
+        <v>1.039212659893697</v>
       </c>
       <c r="J16">
-        <v>0.9599967399310219</v>
+        <v>1.007485926807286</v>
       </c>
       <c r="K16">
-        <v>0.9736793757710303</v>
+        <v>1.016430159848203</v>
       </c>
       <c r="L16">
-        <v>0.9598861936955789</v>
+        <v>1.008841788675523</v>
       </c>
       <c r="M16">
-        <v>0.9584648534200342</v>
+        <v>1.008469942034821</v>
       </c>
       <c r="N16">
-        <v>0.9613600454148893</v>
+        <v>1.008916672383603</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9374492865813556</v>
+        <v>0.9811308098161403</v>
       </c>
       <c r="D17">
-        <v>0.9653337177399648</v>
+        <v>1.004149491910738</v>
       </c>
       <c r="E17">
-        <v>0.9530974760870746</v>
+        <v>0.9969673579361112</v>
       </c>
       <c r="F17">
-        <v>0.9520624572522494</v>
+        <v>0.9968485386619493</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018015949454135</v>
+        <v>1.04006011685284</v>
       </c>
       <c r="J17">
-        <v>0.9675431790194908</v>
+        <v>1.009333925732991</v>
       </c>
       <c r="K17">
-        <v>0.979978158015723</v>
+        <v>1.018085154584065</v>
       </c>
       <c r="L17">
-        <v>0.9679810853367742</v>
+        <v>1.011028770116814</v>
       </c>
       <c r="M17">
-        <v>0.9669666677492131</v>
+        <v>1.010912050969135</v>
       </c>
       <c r="N17">
-        <v>0.9689172013124522</v>
+        <v>1.010767295679751</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.942349635224826</v>
+        <v>0.9826657102455085</v>
       </c>
       <c r="D18">
-        <v>0.9691432065102891</v>
+        <v>1.005311697236834</v>
       </c>
       <c r="E18">
-        <v>0.9579428304731503</v>
+        <v>0.998445211850079</v>
       </c>
       <c r="F18">
-        <v>0.9571419540457341</v>
+        <v>0.9984765431538798</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019584580777714</v>
+        <v>1.040547352386086</v>
       </c>
       <c r="J18">
-        <v>0.9717825936516933</v>
+        <v>1.010399968761548</v>
       </c>
       <c r="K18">
-        <v>0.9835167093124806</v>
+        <v>1.019039369459717</v>
       </c>
       <c r="L18">
-        <v>0.9725292866170684</v>
+        <v>1.012290837040071</v>
       </c>
       <c r="M18">
-        <v>0.9717438874967826</v>
+        <v>1.012321625365121</v>
       </c>
       <c r="N18">
-        <v>0.9731626363997001</v>
+        <v>1.011834852611685</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9439910328624951</v>
+        <v>0.9831863202152181</v>
       </c>
       <c r="D19">
-        <v>0.9704197144804386</v>
+        <v>1.005705937422725</v>
       </c>
       <c r="E19">
-        <v>0.9595661746442707</v>
+        <v>0.9989466154080194</v>
       </c>
       <c r="F19">
-        <v>0.9588437393125624</v>
+        <v>0.9990289008083503</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020109816468546</v>
+        <v>1.040712306689975</v>
       </c>
       <c r="J19">
-        <v>0.9732025992067228</v>
+        <v>1.010761489063364</v>
       </c>
       <c r="K19">
-        <v>0.9847019472599864</v>
+        <v>1.019362881588347</v>
       </c>
       <c r="L19">
-        <v>0.9740528403323594</v>
+        <v>1.012718915239883</v>
       </c>
       <c r="M19">
-        <v>0.9733442275349105</v>
+        <v>1.012799784209325</v>
       </c>
       <c r="N19">
-        <v>0.9745846585254946</v>
+        <v>1.012196886313797</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9365333740824439</v>
+        <v>0.9808471566597775</v>
       </c>
       <c r="D20">
-        <v>0.9646219502315412</v>
+        <v>1.003934734526016</v>
       </c>
       <c r="E20">
-        <v>0.9521920251488464</v>
+        <v>0.9966943156712709</v>
       </c>
       <c r="F20">
-        <v>0.9511132480680097</v>
+        <v>0.9965477602698123</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017722677906391</v>
+        <v>1.039969928791315</v>
       </c>
       <c r="J20">
-        <v>0.9667508012747921</v>
+        <v>1.009136889507634</v>
       </c>
       <c r="K20">
-        <v>0.9793167755985318</v>
+        <v>1.017908747432768</v>
       </c>
       <c r="L20">
-        <v>0.9671310497439832</v>
+        <v>1.01079554167367</v>
       </c>
       <c r="M20">
-        <v>0.9660738624714804</v>
+        <v>1.010651585993866</v>
       </c>
       <c r="N20">
-        <v>0.9681236983004692</v>
+        <v>1.010569979640354</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9098688193892271</v>
+        <v>0.9730429888147398</v>
       </c>
       <c r="D21">
-        <v>0.9439399835919849</v>
+        <v>0.9980290573535801</v>
       </c>
       <c r="E21">
-        <v>0.92585765920839</v>
+        <v>0.9891903677722167</v>
       </c>
       <c r="F21">
-        <v>0.9235043800589348</v>
+        <v>0.988281995533955</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009178942708916</v>
+        <v>1.037471791320431</v>
       </c>
       <c r="J21">
-        <v>0.9436860154315979</v>
+        <v>1.003712666634334</v>
       </c>
       <c r="K21">
-        <v>0.9600673960561329</v>
+        <v>1.013047866303421</v>
       </c>
       <c r="L21">
-        <v>0.942394370434257</v>
+        <v>1.004379467242657</v>
       </c>
       <c r="M21">
-        <v>0.9400959370291138</v>
+        <v>1.003488822598195</v>
       </c>
       <c r="N21">
-        <v>0.9450261578158097</v>
+        <v>1.005138053748407</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8906427137786067</v>
+        <v>0.9679724867231873</v>
       </c>
       <c r="D22">
-        <v>0.9290819761212685</v>
+        <v>0.9941956433471192</v>
       </c>
       <c r="E22">
-        <v>0.9069012344695013</v>
+        <v>0.9843233536714414</v>
       </c>
       <c r="F22">
-        <v>0.9036262007642245</v>
+        <v>0.9829211005496936</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003020429658595</v>
+        <v>1.035832744363513</v>
       </c>
       <c r="J22">
-        <v>0.9270648077893365</v>
+        <v>1.000185725858425</v>
       </c>
       <c r="K22">
-        <v>0.9462026134262917</v>
+        <v>1.009882969337024</v>
       </c>
       <c r="L22">
-        <v>0.9245738202020685</v>
+        <v>1.000211898901177</v>
       </c>
       <c r="M22">
-        <v>0.9213833941678582</v>
+        <v>0.9988386598465518</v>
       </c>
       <c r="N22">
-        <v>0.9283813461522175</v>
+        <v>1.001606104312051</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9011192153663212</v>
+        <v>0.9706767200175137</v>
       </c>
       <c r="D23">
-        <v>0.9371720418797189</v>
+        <v>0.9962397110225848</v>
       </c>
       <c r="E23">
-        <v>0.9172274243600553</v>
+        <v>0.9869182445264625</v>
       </c>
       <c r="F23">
-        <v>0.9144551157522427</v>
+        <v>0.985779303037884</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.006375415898984</v>
+        <v>1.036708355092193</v>
       </c>
       <c r="J23">
-        <v>0.9361204967531846</v>
+        <v>1.00206696588133</v>
       </c>
       <c r="K23">
-        <v>0.9537554963305536</v>
+        <v>1.011571481612393</v>
       </c>
       <c r="L23">
-        <v>0.9342825424199358</v>
+        <v>1.002434448305071</v>
       </c>
       <c r="M23">
-        <v>0.931577988384762</v>
+        <v>1.001318356471224</v>
       </c>
       <c r="N23">
-        <v>0.937449895233096</v>
+        <v>1.003490015911569</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9369478086176982</v>
+        <v>0.9809753783627453</v>
       </c>
       <c r="D24">
-        <v>0.9649440025488405</v>
+        <v>1.004031811966911</v>
       </c>
       <c r="E24">
-        <v>0.9526017188643656</v>
+        <v>0.996817738216735</v>
       </c>
       <c r="F24">
-        <v>0.9515427415057861</v>
+        <v>0.9966837201143198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017855381143825</v>
+        <v>1.040010702698849</v>
       </c>
       <c r="J24">
-        <v>0.9671093382753336</v>
+        <v>1.009225958256585</v>
       </c>
       <c r="K24">
-        <v>0.9796160394398665</v>
+        <v>1.017988492491503</v>
       </c>
       <c r="L24">
-        <v>0.9675156737653179</v>
+        <v>1.010900969360027</v>
       </c>
       <c r="M24">
-        <v>0.9664778376948123</v>
+        <v>1.010769324712235</v>
       </c>
       <c r="N24">
-        <v>0.9684827444646763</v>
+        <v>1.010659174877145</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9712011278531667</v>
+        <v>0.9922820098199044</v>
       </c>
       <c r="D25">
-        <v>0.9916125747406034</v>
+        <v>1.012596488413416</v>
       </c>
       <c r="E25">
-        <v>0.9865035327049807</v>
+        <v>1.00771861516443</v>
       </c>
       <c r="F25">
-        <v>0.9870839247056717</v>
+        <v>1.008693560928773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028796396969835</v>
+        <v>1.043567297348391</v>
       </c>
       <c r="J25">
-        <v>0.9967381379166903</v>
+        <v>1.017071936374436</v>
       </c>
       <c r="K25">
-        <v>1.004342505215307</v>
+        <v>1.025002357275862</v>
       </c>
       <c r="L25">
-        <v>0.9993150405939384</v>
+        <v>1.020198279682776</v>
       </c>
       <c r="M25">
-        <v>0.9998861107911887</v>
+        <v>1.021158403096686</v>
       </c>
       <c r="N25">
-        <v>0.9981536203999943</v>
+        <v>1.01851629518387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000845916897451</v>
+        <v>1.039272269725581</v>
       </c>
       <c r="D2">
-        <v>1.01908671839685</v>
+        <v>1.040557533184905</v>
       </c>
       <c r="E2">
-        <v>1.015998951291726</v>
+        <v>1.05255067739815</v>
       </c>
       <c r="F2">
-        <v>1.017819558323438</v>
+        <v>1.059422926137303</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046202954179736</v>
+        <v>1.035031843374155</v>
       </c>
       <c r="J2">
-        <v>1.023001356139363</v>
+        <v>1.04436518428682</v>
       </c>
       <c r="K2">
-        <v>1.030286397986502</v>
+        <v>1.043339543006558</v>
       </c>
       <c r="L2">
-        <v>1.027239805748255</v>
+        <v>1.055299098496708</v>
       </c>
       <c r="M2">
-        <v>1.029036097335282</v>
+        <v>1.06215247165026</v>
       </c>
       <c r="N2">
-        <v>1.024454135404977</v>
+        <v>1.045848302638869</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006828712649446</v>
+        <v>1.040489830724591</v>
       </c>
       <c r="D3">
-        <v>1.023620539089075</v>
+        <v>1.041474768276134</v>
       </c>
       <c r="E3">
-        <v>1.021796441735878</v>
+        <v>1.053792953539469</v>
       </c>
       <c r="F3">
-        <v>1.024211644321102</v>
+        <v>1.060809761676139</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048009165443761</v>
+        <v>1.035289185171689</v>
       </c>
       <c r="J3">
-        <v>1.027134935425517</v>
+        <v>1.045226541293433</v>
       </c>
       <c r="K3">
-        <v>1.033959854320706</v>
+        <v>1.044066944988561</v>
       </c>
       <c r="L3">
-        <v>1.032157826729363</v>
+        <v>1.05635314117295</v>
       </c>
       <c r="M3">
-        <v>1.034543828703508</v>
+        <v>1.063352085418334</v>
       </c>
       <c r="N3">
-        <v>1.028593584847845</v>
+        <v>1.046710882871229</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010599298730371</v>
+        <v>1.041277038314959</v>
       </c>
       <c r="D4">
-        <v>1.026477155638289</v>
+        <v>1.042067215088907</v>
       </c>
       <c r="E4">
-        <v>1.02545589093921</v>
+        <v>1.054596554398071</v>
       </c>
       <c r="F4">
-        <v>1.028247748827526</v>
+        <v>1.061707160590207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049130826679506</v>
+        <v>1.035453482964279</v>
       </c>
       <c r="J4">
-        <v>1.029735705264369</v>
+        <v>1.045782761492475</v>
       </c>
       <c r="K4">
-        <v>1.036266191224078</v>
+        <v>1.044535932633748</v>
       </c>
       <c r="L4">
-        <v>1.035256494811557</v>
+        <v>1.057034382463459</v>
       </c>
       <c r="M4">
-        <v>1.038016795262918</v>
+        <v>1.064127806865233</v>
       </c>
       <c r="N4">
-        <v>1.031198048078181</v>
+        <v>1.047267892966753</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012161473912325</v>
+        <v>1.041607830787155</v>
       </c>
       <c r="D5">
-        <v>1.027660394084814</v>
+        <v>1.042316025702159</v>
       </c>
       <c r="E5">
-        <v>1.026973340320098</v>
+        <v>1.054934334267033</v>
       </c>
       <c r="F5">
-        <v>1.029921730957573</v>
+        <v>1.062084435561722</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049591467075434</v>
+        <v>1.035522022742779</v>
       </c>
       <c r="J5">
-        <v>1.030812124510318</v>
+        <v>1.046016326242564</v>
       </c>
       <c r="K5">
-        <v>1.037219534551498</v>
+        <v>1.044732691531189</v>
       </c>
       <c r="L5">
-        <v>1.036540044821978</v>
+        <v>1.057320588045794</v>
       </c>
       <c r="M5">
-        <v>1.039456063028727</v>
+        <v>1.064453800746564</v>
       </c>
       <c r="N5">
-        <v>1.032275995962925</v>
+        <v>1.047501789405578</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012422453740201</v>
+        <v>1.041663363601907</v>
       </c>
       <c r="D6">
-        <v>1.027858049424102</v>
+        <v>1.042357787233932</v>
       </c>
       <c r="E6">
-        <v>1.027226924701474</v>
+        <v>1.05499104589727</v>
       </c>
       <c r="F6">
-        <v>1.030201494968036</v>
+        <v>1.062147782267885</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049668181222941</v>
+        <v>1.035533499744347</v>
       </c>
       <c r="J6">
-        <v>1.03099188740749</v>
+        <v>1.046055526991921</v>
       </c>
       <c r="K6">
-        <v>1.03737867134163</v>
+        <v>1.044765704585565</v>
       </c>
       <c r="L6">
-        <v>1.036754461436748</v>
+        <v>1.057368632241509</v>
       </c>
       <c r="M6">
-        <v>1.039696532283096</v>
+        <v>1.064508529620981</v>
       </c>
       <c r="N6">
-        <v>1.032456014144031</v>
+        <v>1.047541045824496</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010620261453955</v>
+        <v>1.04128145896475</v>
       </c>
       <c r="D7">
-        <v>1.026493034633719</v>
+        <v>1.042070540705339</v>
       </c>
       <c r="E7">
-        <v>1.025476248321022</v>
+        <v>1.054601068038288</v>
       </c>
       <c r="F7">
-        <v>1.02827020477583</v>
+        <v>1.06171220172007</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049137024167823</v>
+        <v>1.035454400882263</v>
       </c>
       <c r="J7">
-        <v>1.029750154049729</v>
+        <v>1.04578588345593</v>
       </c>
       <c r="K7">
-        <v>1.036278992806831</v>
+        <v>1.04453856331995</v>
       </c>
       <c r="L7">
-        <v>1.03527371970639</v>
+        <v>1.057038207493684</v>
       </c>
       <c r="M7">
-        <v>1.038036107164372</v>
+        <v>1.064132163277669</v>
       </c>
       <c r="N7">
-        <v>1.031212517382473</v>
+        <v>1.047271019363755</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002889380106557</v>
+        <v>1.039683883386201</v>
       </c>
       <c r="D8">
-        <v>1.02063538068792</v>
+        <v>1.040867738382137</v>
       </c>
       <c r="E8">
-        <v>1.017977909591433</v>
+        <v>1.052970560455162</v>
       </c>
       <c r="F8">
-        <v>1.020001214593958</v>
+        <v>1.059891610519421</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046823347390289</v>
+        <v>1.035119273029863</v>
       </c>
       <c r="J8">
-        <v>1.02441409830798</v>
+        <v>1.044656519969869</v>
       </c>
       <c r="K8">
-        <v>1.031542903182217</v>
+        <v>1.043585722520256</v>
       </c>
       <c r="L8">
-        <v>1.028919743045833</v>
+        <v>1.055655482943826</v>
       </c>
       <c r="M8">
-        <v>1.030916904575229</v>
+        <v>1.062557993561257</v>
       </c>
       <c r="N8">
-        <v>1.025868883829517</v>
+        <v>1.046140052052004</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9884405256738563</v>
+        <v>1.036863764032407</v>
       </c>
       <c r="D9">
-        <v>1.009685788905524</v>
+        <v>1.038740035729698</v>
       </c>
       <c r="E9">
-        <v>1.004011073709593</v>
+        <v>1.050095495238481</v>
       </c>
       <c r="F9">
-        <v>1.004608411722823</v>
+        <v>1.056683549781736</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04236796991522</v>
+        <v>1.034511719119806</v>
       </c>
       <c r="J9">
-        <v>1.014408187796701</v>
+        <v>1.042657669459878</v>
       </c>
       <c r="K9">
-        <v>1.022623651515316</v>
+        <v>1.041893700990083</v>
       </c>
       <c r="L9">
-        <v>1.017039407532277</v>
+        <v>1.053212767055536</v>
       </c>
       <c r="M9">
-        <v>1.017627160540861</v>
+        <v>1.059780099264979</v>
       </c>
       <c r="N9">
-        <v>1.015848763777617</v>
+        <v>1.044138362945017</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9781680372121104</v>
+        <v>1.034980164131185</v>
       </c>
       <c r="D10">
-        <v>1.00190668446308</v>
+        <v>1.037315973060801</v>
       </c>
       <c r="E10">
-        <v>0.9941164651228279</v>
+        <v>1.048177357962782</v>
       </c>
       <c r="F10">
-        <v>0.9937081147963607</v>
+        <v>1.054544698102444</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039115917354093</v>
+        <v>1.0340952171556</v>
       </c>
       <c r="J10">
-        <v>1.007275449150793</v>
+        <v>1.041319103955349</v>
       </c>
       <c r="K10">
-        <v>1.016241598257993</v>
+        <v>1.040756876398221</v>
       </c>
       <c r="L10">
-        <v>1.008592767418009</v>
+        <v>1.051580005117726</v>
       </c>
       <c r="M10">
-        <v>1.008191908087864</v>
+        <v>1.057925321334778</v>
       </c>
       <c r="N10">
-        <v>1.008705895824696</v>
+        <v>1.042797896523936</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9735467006301743</v>
+        <v>1.034163671516029</v>
       </c>
       <c r="D11">
-        <v>0.9984100427346733</v>
+        <v>1.036697993850245</v>
       </c>
       <c r="E11">
-        <v>0.9896742243050637</v>
+        <v>1.047346411001349</v>
       </c>
       <c r="F11">
-        <v>0.9888149558588382</v>
+        <v>1.053618476384349</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037633962544178</v>
+        <v>1.033912141224629</v>
       </c>
       <c r="J11">
-        <v>1.004062933479248</v>
+        <v>1.040738043655922</v>
       </c>
       <c r="K11">
-        <v>1.013362005739147</v>
+        <v>1.040262511753465</v>
       </c>
       <c r="L11">
-        <v>1.004793532643872</v>
+        <v>1.050871954970702</v>
       </c>
       <c r="M11">
-        <v>1.003950933944302</v>
+        <v>1.057121471065116</v>
       </c>
       <c r="N11">
-        <v>1.005488818012417</v>
+        <v>1.042216011052236</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9718020393251389</v>
+        <v>1.033860253991858</v>
       </c>
       <c r="D12">
-        <v>0.9970905823543572</v>
+        <v>1.036468244297146</v>
       </c>
       <c r="E12">
-        <v>0.9879986123286573</v>
+        <v>1.047037700057925</v>
       </c>
       <c r="F12">
-        <v>0.9869693012775683</v>
+        <v>1.053274420014203</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037071747551605</v>
+        <v>1.033843728200904</v>
       </c>
       <c r="J12">
-        <v>1.002849659853065</v>
+        <v>1.040521991588014</v>
       </c>
       <c r="K12">
-        <v>1.012273735293555</v>
+        <v>1.040078563776112</v>
       </c>
       <c r="L12">
-        <v>1.00335940940437</v>
+        <v>1.050608792664349</v>
       </c>
       <c r="M12">
-        <v>1.002350480653991</v>
+        <v>1.056822774082241</v>
       </c>
       <c r="N12">
-        <v>1.00427382139852</v>
+        <v>1.04199965216561</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9721775817234575</v>
+        <v>1.033925344281183</v>
       </c>
       <c r="D13">
-        <v>0.9973745694462083</v>
+        <v>1.036517535639371</v>
       </c>
       <c r="E13">
-        <v>0.9883592256527449</v>
+        <v>1.047103922378162</v>
       </c>
       <c r="F13">
-        <v>0.9873665087678067</v>
+        <v>1.053348222073601</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037192887754373</v>
+        <v>1.033858421611917</v>
       </c>
       <c r="J13">
-        <v>1.003110839948112</v>
+        <v>1.040568345498518</v>
       </c>
       <c r="K13">
-        <v>1.012508038381852</v>
+        <v>1.04011803570042</v>
       </c>
       <c r="L13">
-        <v>1.003668098633197</v>
+        <v>1.050665249199305</v>
       </c>
       <c r="M13">
-        <v>1.00269495336031</v>
+        <v>1.056886850681923</v>
       </c>
       <c r="N13">
-        <v>1.00453537239926</v>
+        <v>1.042046071903984</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9734030721106108</v>
+        <v>1.034138593719031</v>
       </c>
       <c r="D14">
-        <v>0.998301405541966</v>
+        <v>1.036679006862982</v>
       </c>
       <c r="E14">
-        <v>0.9895362506643738</v>
+        <v>1.047320894104981</v>
       </c>
       <c r="F14">
-        <v>0.9886629799199312</v>
+        <v>1.053590036932818</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037587733479908</v>
+        <v>1.033906494560018</v>
       </c>
       <c r="J14">
-        <v>1.003963060399033</v>
+        <v>1.040720189233281</v>
       </c>
       <c r="K14">
-        <v>1.013272437134419</v>
+        <v>1.040247313071914</v>
       </c>
       <c r="L14">
-        <v>1.00467546504895</v>
+        <v>1.050850205191418</v>
       </c>
       <c r="M14">
-        <v>1.003819164528153</v>
+        <v>1.057096782966103</v>
       </c>
       <c r="N14">
-        <v>1.005388803100973</v>
+        <v>1.042198131274266</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9741543495750858</v>
+        <v>1.034269965637639</v>
       </c>
       <c r="D15">
-        <v>0.9988696793974923</v>
+        <v>1.03677846745779</v>
       </c>
       <c r="E15">
-        <v>0.9902580080390649</v>
+        <v>1.047454569473141</v>
       </c>
       <c r="F15">
-        <v>0.9894579865621854</v>
+        <v>1.053739024768203</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037829432807012</v>
+        <v>1.033936059478974</v>
       </c>
       <c r="J15">
-        <v>1.004485447517671</v>
+        <v>1.040813715899452</v>
       </c>
       <c r="K15">
-        <v>1.013740897087904</v>
+        <v>1.040326922816239</v>
       </c>
       <c r="L15">
-        <v>1.005293048608223</v>
+        <v>1.050964141273594</v>
       </c>
       <c r="M15">
-        <v>1.004508435853742</v>
+        <v>1.057226114345164</v>
       </c>
       <c r="N15">
-        <v>1.005911932069237</v>
+        <v>1.042291790759031</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9784709185270478</v>
+        <v>1.035034333197596</v>
       </c>
       <c r="D16">
-        <v>1.002135928146831</v>
+        <v>1.037356957709459</v>
       </c>
       <c r="E16">
-        <v>0.9944078030059172</v>
+        <v>1.04823249689397</v>
       </c>
       <c r="F16">
-        <v>0.9940290340470391</v>
+        <v>1.054606166290037</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039212659893697</v>
+        <v>1.034107309775077</v>
       </c>
       <c r="J16">
-        <v>1.007485926807286</v>
+        <v>1.041357636224769</v>
       </c>
       <c r="K16">
-        <v>1.016430159848203</v>
+        <v>1.040789641114432</v>
       </c>
       <c r="L16">
-        <v>1.008841788675523</v>
+        <v>1.051626973650153</v>
       </c>
       <c r="M16">
-        <v>1.008469942034821</v>
+        <v>1.057978654808763</v>
       </c>
       <c r="N16">
-        <v>1.008916672383603</v>
+        <v>1.042836483513598</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9811308098161403</v>
+        <v>1.03551356240414</v>
       </c>
       <c r="D17">
-        <v>1.004149491910738</v>
+        <v>1.037719466598036</v>
       </c>
       <c r="E17">
-        <v>0.9969673579361112</v>
+        <v>1.048720366115558</v>
       </c>
       <c r="F17">
-        <v>0.9968485386619493</v>
+        <v>1.05515007598289</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04006011685284</v>
+        <v>1.03421399979113</v>
       </c>
       <c r="J17">
-        <v>1.009333925732991</v>
+        <v>1.041698432648915</v>
       </c>
       <c r="K17">
-        <v>1.018085154584065</v>
+        <v>1.041079325473308</v>
       </c>
       <c r="L17">
-        <v>1.011028770116814</v>
+        <v>1.052042466957555</v>
       </c>
       <c r="M17">
-        <v>1.010912050969135</v>
+        <v>1.058450508793678</v>
       </c>
       <c r="N17">
-        <v>1.010767295679751</v>
+        <v>1.043177763907757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9826657102455085</v>
+        <v>1.03579300387839</v>
       </c>
       <c r="D18">
-        <v>1.005311697236834</v>
+        <v>1.037930781691533</v>
       </c>
       <c r="E18">
-        <v>0.998445211850079</v>
+        <v>1.049004895437099</v>
       </c>
       <c r="F18">
-        <v>0.9984765431538798</v>
+        <v>1.055467321368114</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040547352386086</v>
+        <v>1.034275967121102</v>
       </c>
       <c r="J18">
-        <v>1.010399968761548</v>
+        <v>1.041897073430246</v>
       </c>
       <c r="K18">
-        <v>1.019039369459717</v>
+        <v>1.041248089783627</v>
       </c>
       <c r="L18">
-        <v>1.012290837040071</v>
+        <v>1.052284715714714</v>
       </c>
       <c r="M18">
-        <v>1.012321625365121</v>
+        <v>1.058725664063952</v>
       </c>
       <c r="N18">
-        <v>1.011834852611685</v>
+        <v>1.043376686781782</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9831863202152181</v>
+        <v>1.035888271915503</v>
       </c>
       <c r="D19">
-        <v>1.005705937422725</v>
+        <v>1.038002812640669</v>
       </c>
       <c r="E19">
-        <v>0.9989466154080194</v>
+        <v>1.049101906475502</v>
       </c>
       <c r="F19">
-        <v>0.9990289008083503</v>
+        <v>1.055575492609276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040712306689975</v>
+        <v>1.034297051763315</v>
       </c>
       <c r="J19">
-        <v>1.010761489063364</v>
+        <v>1.041964781120528</v>
       </c>
       <c r="K19">
-        <v>1.019362881588347</v>
+        <v>1.041305599553618</v>
       </c>
       <c r="L19">
-        <v>1.012718915239883</v>
+        <v>1.052367299151906</v>
       </c>
       <c r="M19">
-        <v>1.012799784209325</v>
+        <v>1.058819473261607</v>
       </c>
       <c r="N19">
-        <v>1.012196886313797</v>
+        <v>1.04344449062475</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9808471566597775</v>
+        <v>1.035462154444166</v>
       </c>
       <c r="D20">
-        <v>1.003934734526016</v>
+        <v>1.037680586305848</v>
       </c>
       <c r="E20">
-        <v>0.9966943156712709</v>
+        <v>1.04866802616799</v>
       </c>
       <c r="F20">
-        <v>0.9965477602698123</v>
+        <v>1.055091720468973</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039969928791315</v>
+        <v>1.034202580186207</v>
       </c>
       <c r="J20">
-        <v>1.009136889507634</v>
+        <v>1.041661882916068</v>
       </c>
       <c r="K20">
-        <v>1.017908747432768</v>
+        <v>1.041048266162786</v>
       </c>
       <c r="L20">
-        <v>1.01079554167367</v>
+        <v>1.051997898972844</v>
       </c>
       <c r="M20">
-        <v>1.010651585993866</v>
+        <v>1.058399890505925</v>
       </c>
       <c r="N20">
-        <v>1.010569979640354</v>
+        <v>1.043141162270096</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9730429888147398</v>
+        <v>1.034075800851086</v>
       </c>
       <c r="D21">
-        <v>0.9980290573535801</v>
+        <v>1.036631463272248</v>
       </c>
       <c r="E21">
-        <v>0.9891903677722167</v>
+        <v>1.047257003026721</v>
       </c>
       <c r="F21">
-        <v>0.988281995533955</v>
+        <v>1.053518828965469</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037471791320431</v>
+        <v>1.033892349611255</v>
       </c>
       <c r="J21">
-        <v>1.003712666634334</v>
+        <v>1.040675481139607</v>
       </c>
       <c r="K21">
-        <v>1.013047866303421</v>
+        <v>1.040209252925467</v>
       </c>
       <c r="L21">
-        <v>1.004379467242657</v>
+        <v>1.050795744726481</v>
       </c>
       <c r="M21">
-        <v>1.003488822598195</v>
+        <v>1.057034966235945</v>
       </c>
       <c r="N21">
-        <v>1.005138053748407</v>
+        <v>1.042153359689971</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9679724867231873</v>
+        <v>1.033203357861404</v>
       </c>
       <c r="D22">
-        <v>0.9941956433471192</v>
+        <v>1.035970653643013</v>
       </c>
       <c r="E22">
-        <v>0.9843233536714414</v>
+        <v>1.046369486709667</v>
       </c>
       <c r="F22">
-        <v>0.9829211005496936</v>
+        <v>1.052529793039174</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035832744363513</v>
+        <v>1.033694920145948</v>
       </c>
       <c r="J22">
-        <v>1.000185725858425</v>
+        <v>1.040054014936705</v>
       </c>
       <c r="K22">
-        <v>1.009882969337024</v>
+        <v>1.039679885918487</v>
       </c>
       <c r="L22">
-        <v>1.000211898901177</v>
+        <v>1.050038970054256</v>
       </c>
       <c r="M22">
-        <v>0.9988386598465518</v>
+        <v>1.056176139222722</v>
       </c>
       <c r="N22">
-        <v>1.001606104312051</v>
+        <v>1.041531010933779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9706767200175137</v>
+        <v>1.033665932176577</v>
       </c>
       <c r="D23">
-        <v>0.9962397110225848</v>
+        <v>1.036321074143589</v>
       </c>
       <c r="E23">
-        <v>0.9869182445264625</v>
+        <v>1.046840010099004</v>
       </c>
       <c r="F23">
-        <v>0.985779303037884</v>
+        <v>1.053054110075696</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036708355092193</v>
+        <v>1.033799806600381</v>
       </c>
       <c r="J23">
-        <v>1.00206696588133</v>
+        <v>1.040383587631013</v>
       </c>
       <c r="K23">
-        <v>1.011571481612393</v>
+        <v>1.039960688917908</v>
       </c>
       <c r="L23">
-        <v>1.002434448305071</v>
+        <v>1.050440239927074</v>
       </c>
       <c r="M23">
-        <v>1.001318356471224</v>
+        <v>1.056631481863801</v>
       </c>
       <c r="N23">
-        <v>1.003490015911569</v>
+        <v>1.041861051659115</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9809753783627453</v>
+        <v>1.03548538375041</v>
       </c>
       <c r="D24">
-        <v>1.004031811966911</v>
+        <v>1.037698155038668</v>
       </c>
       <c r="E24">
-        <v>0.996817738216735</v>
+        <v>1.048691676450199</v>
       </c>
       <c r="F24">
-        <v>0.9966837201143198</v>
+        <v>1.055118088838251</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040010702698849</v>
+        <v>1.034207741027236</v>
       </c>
       <c r="J24">
-        <v>1.009225958256585</v>
+        <v>1.041678398599641</v>
       </c>
       <c r="K24">
-        <v>1.017988492491503</v>
+        <v>1.041062301157607</v>
       </c>
       <c r="L24">
-        <v>1.010900969360027</v>
+        <v>1.052018037640166</v>
       </c>
       <c r="M24">
-        <v>1.010769324712235</v>
+        <v>1.058422762944984</v>
       </c>
       <c r="N24">
-        <v>1.010659174877145</v>
+        <v>1.043157701407835</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9922820098199044</v>
+        <v>1.037593440638192</v>
       </c>
       <c r="D25">
-        <v>1.012596488413416</v>
+        <v>1.039291078430476</v>
       </c>
       <c r="E25">
-        <v>1.00771861516443</v>
+        <v>1.050839009142631</v>
       </c>
       <c r="F25">
-        <v>1.008693560928773</v>
+        <v>1.057512922553388</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043567297348391</v>
+        <v>1.034670805415133</v>
       </c>
       <c r="J25">
-        <v>1.017071936374436</v>
+        <v>1.043175469855986</v>
       </c>
       <c r="K25">
-        <v>1.025002357275862</v>
+        <v>1.042332676514421</v>
       </c>
       <c r="L25">
-        <v>1.020198279682776</v>
+        <v>1.053845013236625</v>
       </c>
       <c r="M25">
-        <v>1.021158403096686</v>
+        <v>1.060498742158571</v>
       </c>
       <c r="N25">
-        <v>1.01851629518387</v>
+        <v>1.044656898677081</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039272269725581</v>
+        <v>1.000845916897451</v>
       </c>
       <c r="D2">
-        <v>1.040557533184905</v>
+        <v>1.019086718396851</v>
       </c>
       <c r="E2">
-        <v>1.05255067739815</v>
+        <v>1.015998951291726</v>
       </c>
       <c r="F2">
-        <v>1.059422926137303</v>
+        <v>1.017819558323439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035031843374155</v>
+        <v>1.046202954179736</v>
       </c>
       <c r="J2">
-        <v>1.04436518428682</v>
+        <v>1.023001356139363</v>
       </c>
       <c r="K2">
-        <v>1.043339543006558</v>
+        <v>1.030286397986502</v>
       </c>
       <c r="L2">
-        <v>1.055299098496708</v>
+        <v>1.027239805748255</v>
       </c>
       <c r="M2">
-        <v>1.06215247165026</v>
+        <v>1.029036097335283</v>
       </c>
       <c r="N2">
-        <v>1.045848302638869</v>
+        <v>1.024454135404977</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040489830724591</v>
+        <v>1.006828712649445</v>
       </c>
       <c r="D3">
-        <v>1.041474768276134</v>
+        <v>1.023620539089074</v>
       </c>
       <c r="E3">
-        <v>1.053792953539469</v>
+        <v>1.021796441735877</v>
       </c>
       <c r="F3">
-        <v>1.060809761676139</v>
+        <v>1.024211644321101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035289185171689</v>
+        <v>1.048009165443761</v>
       </c>
       <c r="J3">
-        <v>1.045226541293433</v>
+        <v>1.027134935425516</v>
       </c>
       <c r="K3">
-        <v>1.044066944988561</v>
+        <v>1.033959854320706</v>
       </c>
       <c r="L3">
-        <v>1.05635314117295</v>
+        <v>1.032157826729362</v>
       </c>
       <c r="M3">
-        <v>1.063352085418334</v>
+        <v>1.034543828703507</v>
       </c>
       <c r="N3">
-        <v>1.046710882871229</v>
+        <v>1.028593584847844</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041277038314959</v>
+        <v>1.010599298730371</v>
       </c>
       <c r="D4">
-        <v>1.042067215088907</v>
+        <v>1.026477155638289</v>
       </c>
       <c r="E4">
-        <v>1.054596554398071</v>
+        <v>1.025455890939211</v>
       </c>
       <c r="F4">
-        <v>1.061707160590207</v>
+        <v>1.028247748827526</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035453482964279</v>
+        <v>1.049130826679506</v>
       </c>
       <c r="J4">
-        <v>1.045782761492475</v>
+        <v>1.02973570526437</v>
       </c>
       <c r="K4">
-        <v>1.044535932633748</v>
+        <v>1.036266191224078</v>
       </c>
       <c r="L4">
-        <v>1.057034382463459</v>
+        <v>1.035256494811558</v>
       </c>
       <c r="M4">
-        <v>1.064127806865233</v>
+        <v>1.038016795262918</v>
       </c>
       <c r="N4">
-        <v>1.047267892966753</v>
+        <v>1.031198048078181</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041607830787155</v>
+        <v>1.012161473912325</v>
       </c>
       <c r="D5">
-        <v>1.042316025702159</v>
+        <v>1.027660394084814</v>
       </c>
       <c r="E5">
-        <v>1.054934334267033</v>
+        <v>1.026973340320099</v>
       </c>
       <c r="F5">
-        <v>1.062084435561722</v>
+        <v>1.029921730957573</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035522022742779</v>
+        <v>1.049591467075435</v>
       </c>
       <c r="J5">
-        <v>1.046016326242564</v>
+        <v>1.030812124510318</v>
       </c>
       <c r="K5">
-        <v>1.044732691531189</v>
+        <v>1.037219534551498</v>
       </c>
       <c r="L5">
-        <v>1.057320588045794</v>
+        <v>1.036540044821978</v>
       </c>
       <c r="M5">
-        <v>1.064453800746564</v>
+        <v>1.039456063028728</v>
       </c>
       <c r="N5">
-        <v>1.047501789405578</v>
+        <v>1.032275995962925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041663363601907</v>
+        <v>1.0124224537402</v>
       </c>
       <c r="D6">
-        <v>1.042357787233932</v>
+        <v>1.027858049424101</v>
       </c>
       <c r="E6">
-        <v>1.05499104589727</v>
+        <v>1.027226924701473</v>
       </c>
       <c r="F6">
-        <v>1.062147782267885</v>
+        <v>1.030201494968036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035533499744347</v>
+        <v>1.049668181222941</v>
       </c>
       <c r="J6">
-        <v>1.046055526991921</v>
+        <v>1.030991887407489</v>
       </c>
       <c r="K6">
-        <v>1.044765704585565</v>
+        <v>1.03737867134163</v>
       </c>
       <c r="L6">
-        <v>1.057368632241509</v>
+        <v>1.036754461436748</v>
       </c>
       <c r="M6">
-        <v>1.064508529620981</v>
+        <v>1.039696532283096</v>
       </c>
       <c r="N6">
-        <v>1.047541045824496</v>
+        <v>1.03245601414403</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04128145896475</v>
+        <v>1.010620261453956</v>
       </c>
       <c r="D7">
-        <v>1.042070540705339</v>
+        <v>1.02649303463372</v>
       </c>
       <c r="E7">
-        <v>1.054601068038288</v>
+        <v>1.025476248321024</v>
       </c>
       <c r="F7">
-        <v>1.06171220172007</v>
+        <v>1.028270204775831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035454400882263</v>
+        <v>1.049137024167824</v>
       </c>
       <c r="J7">
-        <v>1.04578588345593</v>
+        <v>1.02975015404973</v>
       </c>
       <c r="K7">
-        <v>1.04453856331995</v>
+        <v>1.036278992806831</v>
       </c>
       <c r="L7">
-        <v>1.057038207493684</v>
+        <v>1.035273719706391</v>
       </c>
       <c r="M7">
-        <v>1.064132163277669</v>
+        <v>1.038036107164374</v>
       </c>
       <c r="N7">
-        <v>1.047271019363755</v>
+        <v>1.031212517382474</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039683883386201</v>
+        <v>1.002889380106557</v>
       </c>
       <c r="D8">
-        <v>1.040867738382137</v>
+        <v>1.020635380687921</v>
       </c>
       <c r="E8">
-        <v>1.052970560455162</v>
+        <v>1.017977909591434</v>
       </c>
       <c r="F8">
-        <v>1.059891610519421</v>
+        <v>1.020001214593958</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035119273029863</v>
+        <v>1.046823347390289</v>
       </c>
       <c r="J8">
-        <v>1.044656519969869</v>
+        <v>1.02441409830798</v>
       </c>
       <c r="K8">
-        <v>1.043585722520256</v>
+        <v>1.031542903182217</v>
       </c>
       <c r="L8">
-        <v>1.055655482943826</v>
+        <v>1.028919743045834</v>
       </c>
       <c r="M8">
-        <v>1.062557993561257</v>
+        <v>1.03091690457523</v>
       </c>
       <c r="N8">
-        <v>1.046140052052004</v>
+        <v>1.025868883829517</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036863764032407</v>
+        <v>0.9884405256738567</v>
       </c>
       <c r="D9">
-        <v>1.038740035729698</v>
+        <v>1.009685788905525</v>
       </c>
       <c r="E9">
-        <v>1.050095495238481</v>
+        <v>1.004011073709594</v>
       </c>
       <c r="F9">
-        <v>1.056683549781736</v>
+        <v>1.004608411722824</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034511719119806</v>
+        <v>1.04236796991522</v>
       </c>
       <c r="J9">
-        <v>1.042657669459878</v>
+        <v>1.014408187796701</v>
       </c>
       <c r="K9">
-        <v>1.041893700990083</v>
+        <v>1.022623651515316</v>
       </c>
       <c r="L9">
-        <v>1.053212767055536</v>
+        <v>1.017039407532277</v>
       </c>
       <c r="M9">
-        <v>1.059780099264979</v>
+        <v>1.017627160540862</v>
       </c>
       <c r="N9">
-        <v>1.044138362945017</v>
+        <v>1.015848763777617</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034980164131185</v>
+        <v>0.9781680372121111</v>
       </c>
       <c r="D10">
-        <v>1.037315973060801</v>
+        <v>1.00190668446308</v>
       </c>
       <c r="E10">
-        <v>1.048177357962782</v>
+        <v>0.9941164651228283</v>
       </c>
       <c r="F10">
-        <v>1.054544698102444</v>
+        <v>0.993708114796361</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0340952171556</v>
+        <v>1.039115917354093</v>
       </c>
       <c r="J10">
-        <v>1.041319103955349</v>
+        <v>1.007275449150793</v>
       </c>
       <c r="K10">
-        <v>1.040756876398221</v>
+        <v>1.016241598257994</v>
       </c>
       <c r="L10">
-        <v>1.051580005117726</v>
+        <v>1.00859276741801</v>
       </c>
       <c r="M10">
-        <v>1.057925321334778</v>
+        <v>1.008191908087865</v>
       </c>
       <c r="N10">
-        <v>1.042797896523936</v>
+        <v>1.008705895824696</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034163671516029</v>
+        <v>0.9735467006301743</v>
       </c>
       <c r="D11">
-        <v>1.036697993850245</v>
+        <v>0.9984100427346733</v>
       </c>
       <c r="E11">
-        <v>1.047346411001349</v>
+        <v>0.9896742243050639</v>
       </c>
       <c r="F11">
-        <v>1.053618476384349</v>
+        <v>0.9888149558588382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033912141224629</v>
+        <v>1.037633962544179</v>
       </c>
       <c r="J11">
-        <v>1.040738043655922</v>
+        <v>1.004062933479248</v>
       </c>
       <c r="K11">
-        <v>1.040262511753465</v>
+        <v>1.013362005739148</v>
       </c>
       <c r="L11">
-        <v>1.050871954970702</v>
+        <v>1.004793532643873</v>
       </c>
       <c r="M11">
-        <v>1.057121471065116</v>
+        <v>1.003950933944302</v>
       </c>
       <c r="N11">
-        <v>1.042216011052236</v>
+        <v>1.005488818012417</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033860253991858</v>
+        <v>0.97180203932514</v>
       </c>
       <c r="D12">
-        <v>1.036468244297146</v>
+        <v>0.9970905823543583</v>
       </c>
       <c r="E12">
-        <v>1.047037700057925</v>
+        <v>0.9879986123286587</v>
       </c>
       <c r="F12">
-        <v>1.053274420014203</v>
+        <v>0.9869693012775699</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033843728200904</v>
+        <v>1.037071747551606</v>
       </c>
       <c r="J12">
-        <v>1.040521991588014</v>
+        <v>1.002849659853067</v>
       </c>
       <c r="K12">
-        <v>1.040078563776112</v>
+        <v>1.012273735293556</v>
       </c>
       <c r="L12">
-        <v>1.050608792664349</v>
+        <v>1.003359409404371</v>
       </c>
       <c r="M12">
-        <v>1.056822774082241</v>
+        <v>1.002350480653992</v>
       </c>
       <c r="N12">
-        <v>1.04199965216561</v>
+        <v>1.004273821398522</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033925344281183</v>
+        <v>0.9721775817234563</v>
       </c>
       <c r="D13">
-        <v>1.036517535639371</v>
+        <v>0.9973745694462075</v>
       </c>
       <c r="E13">
-        <v>1.047103922378162</v>
+        <v>0.9883592256527435</v>
       </c>
       <c r="F13">
-        <v>1.053348222073601</v>
+        <v>0.9873665087678052</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033858421611917</v>
+        <v>1.037192887754373</v>
       </c>
       <c r="J13">
-        <v>1.040568345498518</v>
+        <v>1.003110839948111</v>
       </c>
       <c r="K13">
-        <v>1.04011803570042</v>
+        <v>1.012508038381851</v>
       </c>
       <c r="L13">
-        <v>1.050665249199305</v>
+        <v>1.003668098633195</v>
       </c>
       <c r="M13">
-        <v>1.056886850681923</v>
+        <v>1.002694953360309</v>
       </c>
       <c r="N13">
-        <v>1.042046071903984</v>
+        <v>1.004535372399259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034138593719031</v>
+        <v>0.9734030721106122</v>
       </c>
       <c r="D14">
-        <v>1.036679006862982</v>
+        <v>0.9983014055419674</v>
       </c>
       <c r="E14">
-        <v>1.047320894104981</v>
+        <v>0.989536250664375</v>
       </c>
       <c r="F14">
-        <v>1.053590036932818</v>
+        <v>0.9886629799199323</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033906494560018</v>
+        <v>1.037587733479908</v>
       </c>
       <c r="J14">
-        <v>1.040720189233281</v>
+        <v>1.003963060399035</v>
       </c>
       <c r="K14">
-        <v>1.040247313071914</v>
+        <v>1.01327243713442</v>
       </c>
       <c r="L14">
-        <v>1.050850205191418</v>
+        <v>1.004675465048951</v>
       </c>
       <c r="M14">
-        <v>1.057096782966103</v>
+        <v>1.003819164528154</v>
       </c>
       <c r="N14">
-        <v>1.042198131274266</v>
+        <v>1.005388803100974</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034269965637639</v>
+        <v>0.9741543495750857</v>
       </c>
       <c r="D15">
-        <v>1.03677846745779</v>
+        <v>0.998869679397492</v>
       </c>
       <c r="E15">
-        <v>1.047454569473141</v>
+        <v>0.9902580080390647</v>
       </c>
       <c r="F15">
-        <v>1.053739024768203</v>
+        <v>0.9894579865621853</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033936059478974</v>
+        <v>1.037829432807012</v>
       </c>
       <c r="J15">
-        <v>1.040813715899452</v>
+        <v>1.00448544751767</v>
       </c>
       <c r="K15">
-        <v>1.040326922816239</v>
+        <v>1.013740897087903</v>
       </c>
       <c r="L15">
-        <v>1.050964141273594</v>
+        <v>1.005293048608222</v>
       </c>
       <c r="M15">
-        <v>1.057226114345164</v>
+        <v>1.004508435853742</v>
       </c>
       <c r="N15">
-        <v>1.042291790759031</v>
+        <v>1.005911932069237</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035034333197596</v>
+        <v>0.9784709185270469</v>
       </c>
       <c r="D16">
-        <v>1.037356957709459</v>
+        <v>1.00213592814683</v>
       </c>
       <c r="E16">
-        <v>1.04823249689397</v>
+        <v>0.994407803005916</v>
       </c>
       <c r="F16">
-        <v>1.054606166290037</v>
+        <v>0.9940290340470376</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034107309775077</v>
+        <v>1.039212659893697</v>
       </c>
       <c r="J16">
-        <v>1.041357636224769</v>
+        <v>1.007485926807285</v>
       </c>
       <c r="K16">
-        <v>1.040789641114432</v>
+        <v>1.016430159848202</v>
       </c>
       <c r="L16">
-        <v>1.051626973650153</v>
+        <v>1.008841788675521</v>
       </c>
       <c r="M16">
-        <v>1.057978654808763</v>
+        <v>1.008469942034819</v>
       </c>
       <c r="N16">
-        <v>1.042836483513598</v>
+        <v>1.008916672383602</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03551356240414</v>
+        <v>0.9811308098161414</v>
       </c>
       <c r="D17">
-        <v>1.037719466598036</v>
+        <v>1.004149491910739</v>
       </c>
       <c r="E17">
-        <v>1.048720366115558</v>
+        <v>0.9969673579361124</v>
       </c>
       <c r="F17">
-        <v>1.05515007598289</v>
+        <v>0.996848538661951</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03421399979113</v>
+        <v>1.04006011685284</v>
       </c>
       <c r="J17">
-        <v>1.041698432648915</v>
+        <v>1.009333925732992</v>
       </c>
       <c r="K17">
-        <v>1.041079325473308</v>
+        <v>1.018085154584066</v>
       </c>
       <c r="L17">
-        <v>1.052042466957555</v>
+        <v>1.011028770116815</v>
       </c>
       <c r="M17">
-        <v>1.058450508793678</v>
+        <v>1.010912050969136</v>
       </c>
       <c r="N17">
-        <v>1.043177763907757</v>
+        <v>1.010767295679752</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03579300387839</v>
+        <v>0.9826657102455096</v>
       </c>
       <c r="D18">
-        <v>1.037930781691533</v>
+        <v>1.005311697236835</v>
       </c>
       <c r="E18">
-        <v>1.049004895437099</v>
+        <v>0.9984452118500801</v>
       </c>
       <c r="F18">
-        <v>1.055467321368114</v>
+        <v>0.9984765431538809</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034275967121102</v>
+        <v>1.040547352386086</v>
       </c>
       <c r="J18">
-        <v>1.041897073430246</v>
+        <v>1.010399968761549</v>
       </c>
       <c r="K18">
-        <v>1.041248089783627</v>
+        <v>1.019039369459718</v>
       </c>
       <c r="L18">
-        <v>1.052284715714714</v>
+        <v>1.012290837040072</v>
       </c>
       <c r="M18">
-        <v>1.058725664063952</v>
+        <v>1.012321625365122</v>
       </c>
       <c r="N18">
-        <v>1.043376686781782</v>
+        <v>1.011834852611686</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035888271915503</v>
+        <v>0.9831863202152178</v>
       </c>
       <c r="D19">
-        <v>1.038002812640669</v>
+        <v>1.005705937422725</v>
       </c>
       <c r="E19">
-        <v>1.049101906475502</v>
+        <v>0.9989466154080195</v>
       </c>
       <c r="F19">
-        <v>1.055575492609276</v>
+        <v>0.9990289008083504</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034297051763315</v>
+        <v>1.040712306689976</v>
       </c>
       <c r="J19">
-        <v>1.041964781120528</v>
+        <v>1.010761489063363</v>
       </c>
       <c r="K19">
-        <v>1.041305599553618</v>
+        <v>1.019362881588347</v>
       </c>
       <c r="L19">
-        <v>1.052367299151906</v>
+        <v>1.012718915239883</v>
       </c>
       <c r="M19">
-        <v>1.058819473261607</v>
+        <v>1.012799784209325</v>
       </c>
       <c r="N19">
-        <v>1.04344449062475</v>
+        <v>1.012196886313797</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035462154444166</v>
+        <v>0.9808471566597781</v>
       </c>
       <c r="D20">
-        <v>1.037680586305848</v>
+        <v>1.003934734526017</v>
       </c>
       <c r="E20">
-        <v>1.04866802616799</v>
+        <v>0.9966943156712719</v>
       </c>
       <c r="F20">
-        <v>1.055091720468973</v>
+        <v>0.9965477602698131</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034202580186207</v>
+        <v>1.039969928791315</v>
       </c>
       <c r="J20">
-        <v>1.041661882916068</v>
+        <v>1.009136889507634</v>
       </c>
       <c r="K20">
-        <v>1.041048266162786</v>
+        <v>1.017908747432768</v>
       </c>
       <c r="L20">
-        <v>1.051997898972844</v>
+        <v>1.010795541673671</v>
       </c>
       <c r="M20">
-        <v>1.058399890505925</v>
+        <v>1.010651585993867</v>
       </c>
       <c r="N20">
-        <v>1.043141162270096</v>
+        <v>1.010569979640354</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034075800851086</v>
+        <v>0.9730429888147404</v>
       </c>
       <c r="D21">
-        <v>1.036631463272248</v>
+        <v>0.9980290573535805</v>
       </c>
       <c r="E21">
-        <v>1.047257003026721</v>
+        <v>0.9891903677722177</v>
       </c>
       <c r="F21">
-        <v>1.053518828965469</v>
+        <v>0.9882819955339563</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033892349611255</v>
+        <v>1.037471791320431</v>
       </c>
       <c r="J21">
-        <v>1.040675481139607</v>
+        <v>1.003712666634335</v>
       </c>
       <c r="K21">
-        <v>1.040209252925467</v>
+        <v>1.013047866303421</v>
       </c>
       <c r="L21">
-        <v>1.050795744726481</v>
+        <v>1.004379467242658</v>
       </c>
       <c r="M21">
-        <v>1.057034966235945</v>
+        <v>1.003488822598197</v>
       </c>
       <c r="N21">
-        <v>1.042153359689971</v>
+        <v>1.005138053748408</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033203357861404</v>
+        <v>0.9679724867231845</v>
       </c>
       <c r="D22">
-        <v>1.035970653643013</v>
+        <v>0.9941956433471169</v>
       </c>
       <c r="E22">
-        <v>1.046369486709667</v>
+        <v>0.9843233536714383</v>
       </c>
       <c r="F22">
-        <v>1.052529793039174</v>
+        <v>0.9829211005496906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033694920145948</v>
+        <v>1.035832744363512</v>
       </c>
       <c r="J22">
-        <v>1.040054014936705</v>
+        <v>1.000185725858423</v>
       </c>
       <c r="K22">
-        <v>1.039679885918487</v>
+        <v>1.009882969337021</v>
       </c>
       <c r="L22">
-        <v>1.050038970054256</v>
+        <v>1.000211898901174</v>
       </c>
       <c r="M22">
-        <v>1.056176139222722</v>
+        <v>0.998838659846549</v>
       </c>
       <c r="N22">
-        <v>1.041531010933779</v>
+        <v>1.001606104312048</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033665932176577</v>
+        <v>0.9706767200175143</v>
       </c>
       <c r="D23">
-        <v>1.036321074143589</v>
+        <v>0.9962397110225852</v>
       </c>
       <c r="E23">
-        <v>1.046840010099004</v>
+        <v>0.9869182445264632</v>
       </c>
       <c r="F23">
-        <v>1.053054110075696</v>
+        <v>0.9857793030378847</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033799806600381</v>
+        <v>1.036708355092193</v>
       </c>
       <c r="J23">
-        <v>1.040383587631013</v>
+        <v>1.00206696588133</v>
       </c>
       <c r="K23">
-        <v>1.039960688917908</v>
+        <v>1.011571481612393</v>
       </c>
       <c r="L23">
-        <v>1.050440239927074</v>
+        <v>1.002434448305072</v>
       </c>
       <c r="M23">
-        <v>1.056631481863801</v>
+        <v>1.001318356471225</v>
       </c>
       <c r="N23">
-        <v>1.041861051659115</v>
+        <v>1.003490015911569</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03548538375041</v>
+        <v>0.980975378362746</v>
       </c>
       <c r="D24">
-        <v>1.037698155038668</v>
+        <v>1.004031811966912</v>
       </c>
       <c r="E24">
-        <v>1.048691676450199</v>
+        <v>0.9968177382167355</v>
       </c>
       <c r="F24">
-        <v>1.055118088838251</v>
+        <v>0.9966837201143203</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034207741027236</v>
+        <v>1.040010702698849</v>
       </c>
       <c r="J24">
-        <v>1.041678398599641</v>
+        <v>1.009225958256585</v>
       </c>
       <c r="K24">
-        <v>1.041062301157607</v>
+        <v>1.017988492491504</v>
       </c>
       <c r="L24">
-        <v>1.052018037640166</v>
+        <v>1.010900969360028</v>
       </c>
       <c r="M24">
-        <v>1.058422762944984</v>
+        <v>1.010769324712236</v>
       </c>
       <c r="N24">
-        <v>1.043157701407835</v>
+        <v>1.010659174877145</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037593440638192</v>
+        <v>0.9922820098199061</v>
       </c>
       <c r="D25">
-        <v>1.039291078430476</v>
+        <v>1.012596488413418</v>
       </c>
       <c r="E25">
-        <v>1.050839009142631</v>
+        <v>1.007718615164431</v>
       </c>
       <c r="F25">
-        <v>1.057512922553388</v>
+        <v>1.008693560928775</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034670805415133</v>
+        <v>1.043567297348391</v>
       </c>
       <c r="J25">
-        <v>1.043175469855986</v>
+        <v>1.017071936374438</v>
       </c>
       <c r="K25">
-        <v>1.042332676514421</v>
+        <v>1.025002357275864</v>
       </c>
       <c r="L25">
-        <v>1.053845013236625</v>
+        <v>1.020198279682778</v>
       </c>
       <c r="M25">
-        <v>1.060498742158571</v>
+        <v>1.021158403096688</v>
       </c>
       <c r="N25">
-        <v>1.044656898677081</v>
+        <v>1.018516295183872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.000845916897451</v>
+        <v>1.007239896687039</v>
       </c>
       <c r="D2">
-        <v>1.019086718396851</v>
+        <v>1.023870675035339</v>
       </c>
       <c r="E2">
-        <v>1.015998951291726</v>
+        <v>1.024462881118298</v>
       </c>
       <c r="F2">
-        <v>1.017819558323439</v>
+        <v>1.030633278817924</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046202954179736</v>
+        <v>1.044310074713927</v>
       </c>
       <c r="J2">
-        <v>1.023001356139363</v>
+        <v>1.029206199177363</v>
       </c>
       <c r="K2">
-        <v>1.030286397986502</v>
+        <v>1.035007176178429</v>
       </c>
       <c r="L2">
-        <v>1.027239805748255</v>
+        <v>1.03559161283824</v>
       </c>
       <c r="M2">
-        <v>1.029036097335283</v>
+        <v>1.041681722893696</v>
       </c>
       <c r="N2">
-        <v>1.024454135404977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012623208781362</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041560677534673</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035823350560885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006828712649445</v>
+        <v>1.012342965694411</v>
       </c>
       <c r="D3">
-        <v>1.023620539089074</v>
+        <v>1.027228231152882</v>
       </c>
       <c r="E3">
-        <v>1.021796441735877</v>
+        <v>1.028906494651034</v>
       </c>
       <c r="F3">
-        <v>1.024211644321101</v>
+        <v>1.034663590127608</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048009165443761</v>
+        <v>1.04529187298631</v>
       </c>
       <c r="J3">
-        <v>1.027134935425516</v>
+        <v>1.032502712466493</v>
       </c>
       <c r="K3">
-        <v>1.033959854320706</v>
+        <v>1.037524183212794</v>
       </c>
       <c r="L3">
-        <v>1.032157826729362</v>
+        <v>1.03918240307298</v>
       </c>
       <c r="M3">
-        <v>1.034543828703507</v>
+        <v>1.044871352809747</v>
       </c>
       <c r="N3">
-        <v>1.028593584847844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013832000457368</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044085047657286</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037600435864408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010599298730371</v>
+        <v>1.015571020087354</v>
       </c>
       <c r="D4">
-        <v>1.026477155638289</v>
+        <v>1.029354406244431</v>
       </c>
       <c r="E4">
-        <v>1.025455890939211</v>
+        <v>1.031723770920016</v>
       </c>
       <c r="F4">
-        <v>1.028247748827526</v>
+        <v>1.037222600767378</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049130826679506</v>
+        <v>1.045901307306574</v>
       </c>
       <c r="J4">
-        <v>1.02973570526437</v>
+        <v>1.034584633568028</v>
       </c>
       <c r="K4">
-        <v>1.036266191224078</v>
+        <v>1.039111002057443</v>
       </c>
       <c r="L4">
-        <v>1.035256494811558</v>
+        <v>1.041453820370274</v>
       </c>
       <c r="M4">
-        <v>1.038016795262918</v>
+        <v>1.046891615799737</v>
       </c>
       <c r="N4">
-        <v>1.031198048078181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014594225849318</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045683940711368</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038723358669247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012161473912325</v>
+        <v>1.016916583757431</v>
       </c>
       <c r="D5">
-        <v>1.027660394084814</v>
+        <v>1.030243664113904</v>
       </c>
       <c r="E5">
-        <v>1.026973340320099</v>
+        <v>1.03289977959074</v>
       </c>
       <c r="F5">
-        <v>1.029921730957573</v>
+        <v>1.038291055647961</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049591467075435</v>
+        <v>1.046154544073375</v>
       </c>
       <c r="J5">
-        <v>1.030812124510318</v>
+        <v>1.035453425673694</v>
       </c>
       <c r="K5">
-        <v>1.037219534551498</v>
+        <v>1.039774475234017</v>
       </c>
       <c r="L5">
-        <v>1.036540044821978</v>
+        <v>1.042401643809159</v>
       </c>
       <c r="M5">
-        <v>1.039456063028728</v>
+        <v>1.047734722657833</v>
       </c>
       <c r="N5">
-        <v>1.032275995962925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014912977923814</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046351198204111</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039199671169164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0124224537402</v>
+        <v>1.017148243083116</v>
       </c>
       <c r="D6">
-        <v>1.027858049424101</v>
+        <v>1.030399847475664</v>
       </c>
       <c r="E6">
-        <v>1.027226924701473</v>
+        <v>1.033102555661028</v>
       </c>
       <c r="F6">
-        <v>1.030201494968036</v>
+        <v>1.03847455825031</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049668181222941</v>
+        <v>1.046200471397792</v>
       </c>
       <c r="J6">
-        <v>1.030991887407489</v>
+        <v>1.035605171936378</v>
       </c>
       <c r="K6">
-        <v>1.03737867134163</v>
+        <v>1.039892725829778</v>
       </c>
       <c r="L6">
-        <v>1.036754461436748</v>
+        <v>1.042566117789565</v>
       </c>
       <c r="M6">
-        <v>1.039696532283096</v>
+        <v>1.047880405293179</v>
       </c>
       <c r="N6">
-        <v>1.03245601414403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014969818939533</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046466495307166</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039292037637712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,81 +698,105 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010620261453956</v>
+        <v>1.015607233391507</v>
       </c>
       <c r="D7">
-        <v>1.02649303463372</v>
+        <v>1.029386555439153</v>
       </c>
       <c r="E7">
-        <v>1.025476248321024</v>
+        <v>1.031756011859795</v>
       </c>
       <c r="F7">
-        <v>1.028270204775831</v>
+        <v>1.037249781756868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049137024167824</v>
+        <v>1.04591488326805</v>
       </c>
       <c r="J7">
-        <v>1.02975015404973</v>
+        <v>1.034614010548403</v>
       </c>
       <c r="K7">
-        <v>1.036278992806831</v>
+        <v>1.039139903159745</v>
       </c>
       <c r="L7">
-        <v>1.035273719706391</v>
+        <v>1.041482823081508</v>
       </c>
       <c r="M7">
-        <v>1.038036107164374</v>
+        <v>1.046915639338971</v>
       </c>
       <c r="N7">
-        <v>1.031212517382474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014608248377927</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045702953596235</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038763933405788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.002889380106557</v>
+        <v>1.009003478442915</v>
       </c>
       <c r="D8">
-        <v>1.020635380687921</v>
+        <v>1.025040826011823</v>
       </c>
       <c r="E8">
-        <v>1.017977909591434</v>
+        <v>1.0259980050637</v>
       </c>
       <c r="F8">
-        <v>1.020001214593958</v>
+        <v>1.032022175278913</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046823347390289</v>
+        <v>1.044660283200118</v>
       </c>
       <c r="J8">
-        <v>1.02441409830798</v>
+        <v>1.030353694005349</v>
       </c>
       <c r="K8">
-        <v>1.031542903182217</v>
+        <v>1.035891958807385</v>
       </c>
       <c r="L8">
-        <v>1.028919743045834</v>
+        <v>1.036836965937738</v>
       </c>
       <c r="M8">
-        <v>1.03091690457523</v>
+        <v>1.04278517621228</v>
       </c>
       <c r="N8">
-        <v>1.025868883829517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013048536025466</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042433985042845</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036471950274802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9884405256738567</v>
+        <v>0.9967371309191024</v>
       </c>
       <c r="D9">
-        <v>1.009685788905525</v>
+        <v>1.016977137678432</v>
       </c>
       <c r="E9">
-        <v>1.004011073709594</v>
+        <v>1.015354922591978</v>
       </c>
       <c r="F9">
-        <v>1.004608411722824</v>
+        <v>1.022393588099093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04236796991522</v>
+        <v>1.042228235223453</v>
       </c>
       <c r="J9">
-        <v>1.014408187796701</v>
+        <v>1.022405637986495</v>
       </c>
       <c r="K9">
-        <v>1.022623651515316</v>
+        <v>1.029800649376352</v>
       </c>
       <c r="L9">
-        <v>1.017039407532277</v>
+        <v>1.02820369403493</v>
       </c>
       <c r="M9">
-        <v>1.017627160540862</v>
+        <v>1.03513350033711</v>
       </c>
       <c r="N9">
-        <v>1.015848763777617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010124139678425</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036378187361759</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032161746238457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9781680372121111</v>
+        <v>0.9882817001183236</v>
       </c>
       <c r="D10">
-        <v>1.00190668446308</v>
+        <v>1.011457546804391</v>
       </c>
       <c r="E10">
-        <v>0.9941164651228283</v>
+        <v>1.008107132335494</v>
       </c>
       <c r="F10">
-        <v>0.993708114796361</v>
+        <v>1.015903960687958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039115917354093</v>
+        <v>1.040522747244963</v>
       </c>
       <c r="J10">
-        <v>1.007275449150793</v>
+        <v>1.016968087450402</v>
       </c>
       <c r="K10">
-        <v>1.016241598257994</v>
+        <v>1.025622967951066</v>
       </c>
       <c r="L10">
-        <v>1.00859276741801</v>
+        <v>1.022331536712347</v>
       </c>
       <c r="M10">
-        <v>1.008191908087865</v>
+        <v>1.029991881190242</v>
       </c>
       <c r="N10">
-        <v>1.008705895824696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008136906198477</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032360728452839</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02922474520796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9735467006301743</v>
+        <v>0.9859315529478301</v>
       </c>
       <c r="D11">
-        <v>0.9984100427346733</v>
+        <v>1.010079754381653</v>
       </c>
       <c r="E11">
-        <v>0.9896742243050639</v>
+        <v>1.006506208550394</v>
       </c>
       <c r="F11">
-        <v>0.9888149558588382</v>
+        <v>1.014846424906009</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037633962544179</v>
+        <v>1.040259865490676</v>
       </c>
       <c r="J11">
-        <v>1.004062933479248</v>
+        <v>1.01590153783213</v>
       </c>
       <c r="K11">
-        <v>1.013362005739148</v>
+        <v>1.024814052280697</v>
       </c>
       <c r="L11">
-        <v>1.004793532643873</v>
+        <v>1.021306461565537</v>
       </c>
       <c r="M11">
-        <v>1.003950933944302</v>
+        <v>1.029493687290891</v>
       </c>
       <c r="N11">
-        <v>1.005488818012417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007901199815782</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032405748815962</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028685918994494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.97180203932514</v>
+        <v>0.9856068757057053</v>
       </c>
       <c r="D12">
-        <v>0.9970905823543583</v>
+        <v>1.009985364559273</v>
       </c>
       <c r="E12">
-        <v>0.9879986123286587</v>
+        <v>1.006530860793264</v>
       </c>
       <c r="F12">
-        <v>0.9869693012775699</v>
+        <v>1.015137629286508</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037071747551606</v>
+        <v>1.040359551256355</v>
       </c>
       <c r="J12">
-        <v>1.002849659853067</v>
+        <v>1.016033121449926</v>
       </c>
       <c r="K12">
-        <v>1.012273735293556</v>
+        <v>1.024923728933986</v>
       </c>
       <c r="L12">
-        <v>1.003359409404371</v>
+        <v>1.021534000366494</v>
       </c>
       <c r="M12">
-        <v>1.002350480653992</v>
+        <v>1.029980451161968</v>
       </c>
       <c r="N12">
-        <v>1.004273821398522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008073835426728</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033119090540523</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028763465159119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9721775817234563</v>
+        <v>0.9868386946383366</v>
       </c>
       <c r="D13">
-        <v>0.9973745694462075</v>
+        <v>1.010892618474141</v>
       </c>
       <c r="E13">
-        <v>0.9883592256527435</v>
+        <v>1.00782686351254</v>
       </c>
       <c r="F13">
-        <v>0.9873665087678052</v>
+        <v>1.016511568225885</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037192887754373</v>
+        <v>1.040759931437017</v>
       </c>
       <c r="J13">
-        <v>1.003110839948111</v>
+        <v>1.017116000116371</v>
       </c>
       <c r="K13">
-        <v>1.012508038381851</v>
+        <v>1.025770723300001</v>
       </c>
       <c r="L13">
-        <v>1.003668098633195</v>
+        <v>1.022762098259939</v>
       </c>
       <c r="M13">
-        <v>1.002694953360309</v>
+        <v>1.031286129466075</v>
       </c>
       <c r="N13">
-        <v>1.004535372399259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008583299461536</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034429409641998</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02935981475116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9734030721106122</v>
+        <v>0.988397584238031</v>
       </c>
       <c r="D14">
-        <v>0.9983014055419674</v>
+        <v>1.011977204541147</v>
       </c>
       <c r="E14">
-        <v>0.989536250664375</v>
+        <v>1.009300223189211</v>
       </c>
       <c r="F14">
-        <v>0.9886629799199323</v>
+        <v>1.017954749503938</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037587733479908</v>
+        <v>1.041174410800132</v>
       </c>
       <c r="J14">
-        <v>1.003963060399035</v>
+        <v>1.018297488379496</v>
       </c>
       <c r="K14">
-        <v>1.01327243713442</v>
+        <v>1.0266934060797</v>
       </c>
       <c r="L14">
-        <v>1.004675465048951</v>
+        <v>1.024065598291905</v>
       </c>
       <c r="M14">
-        <v>1.003819164528154</v>
+        <v>1.032562362726682</v>
       </c>
       <c r="N14">
-        <v>1.005388803100974</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009089743387209</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035612165836829</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030013626383821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9741543495750857</v>
+        <v>0.9891262761788105</v>
       </c>
       <c r="D15">
-        <v>0.998869679397492</v>
+        <v>1.012468961649483</v>
       </c>
       <c r="E15">
-        <v>0.9902580080390647</v>
+        <v>1.009951571457684</v>
       </c>
       <c r="F15">
-        <v>0.9894579865621853</v>
+        <v>1.01856411649505</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037829432807012</v>
+        <v>1.041345587097902</v>
       </c>
       <c r="J15">
-        <v>1.00448544751767</v>
+        <v>1.018804643052436</v>
       </c>
       <c r="K15">
-        <v>1.013740897087903</v>
+        <v>1.027088858032397</v>
       </c>
       <c r="L15">
-        <v>1.005293048608222</v>
+        <v>1.024617325852724</v>
       </c>
       <c r="M15">
-        <v>1.004508435853742</v>
+        <v>1.033074199716994</v>
       </c>
       <c r="N15">
-        <v>1.005911932069237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009291853066521</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036054363762779</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030299138772399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9784709185270469</v>
+        <v>0.9924583539047838</v>
       </c>
       <c r="D16">
-        <v>1.00213592814683</v>
+        <v>1.014621151537962</v>
       </c>
       <c r="E16">
-        <v>0.994407803005916</v>
+        <v>1.012765096591645</v>
       </c>
       <c r="F16">
-        <v>0.9940290340470376</v>
+        <v>1.021071002233114</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039212659893697</v>
+        <v>1.041999966270244</v>
       </c>
       <c r="J16">
-        <v>1.007485926807285</v>
+        <v>1.020896664290098</v>
       </c>
       <c r="K16">
-        <v>1.016430159848202</v>
+        <v>1.028695423448081</v>
       </c>
       <c r="L16">
-        <v>1.008841788675521</v>
+        <v>1.026871623416355</v>
       </c>
       <c r="M16">
-        <v>1.008469942034819</v>
+        <v>1.035034364944578</v>
       </c>
       <c r="N16">
-        <v>1.008916672383602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010033016433008</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037564859255093</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031438232482134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9811308098161414</v>
+        <v>0.9942019451586692</v>
       </c>
       <c r="D17">
-        <v>1.004149491910739</v>
+        <v>1.015708038783227</v>
       </c>
       <c r="E17">
-        <v>0.9969673579361124</v>
+        <v>1.014155425965493</v>
       </c>
       <c r="F17">
-        <v>0.996848538661951</v>
+        <v>1.022236029126898</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04006011685284</v>
+        <v>1.042283612368832</v>
       </c>
       <c r="J17">
-        <v>1.009333925732992</v>
+        <v>1.02188477201042</v>
       </c>
       <c r="K17">
-        <v>1.018085154584066</v>
+        <v>1.029446142896472</v>
       </c>
       <c r="L17">
-        <v>1.011028770116815</v>
+        <v>1.027919729481402</v>
       </c>
       <c r="M17">
-        <v>1.010912050969136</v>
+        <v>1.035865098309276</v>
       </c>
       <c r="N17">
-        <v>1.010767295679752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010337153710317</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038092163204814</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031971625371279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9826657102455096</v>
+        <v>0.9947082504191134</v>
       </c>
       <c r="D18">
-        <v>1.005311697236835</v>
+        <v>1.015948130537065</v>
       </c>
       <c r="E18">
-        <v>0.9984452118500801</v>
+        <v>1.014395827889546</v>
       </c>
       <c r="F18">
-        <v>0.9984765431538809</v>
+        <v>1.022279936502569</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040547352386086</v>
+        <v>1.042260715605376</v>
       </c>
       <c r="J18">
-        <v>1.010399968761549</v>
+        <v>1.021972675163083</v>
       </c>
       <c r="K18">
-        <v>1.019039369459718</v>
+        <v>1.02949714189853</v>
       </c>
       <c r="L18">
-        <v>1.012290837040072</v>
+        <v>1.027970612647375</v>
       </c>
       <c r="M18">
-        <v>1.012321625365122</v>
+        <v>1.035724860664749</v>
       </c>
       <c r="N18">
-        <v>1.011834852611686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01027382854489</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037742983169242</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031995980829932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9831863202152178</v>
+        <v>0.9941412387413712</v>
       </c>
       <c r="D19">
-        <v>1.005705937422725</v>
+        <v>1.015472152068897</v>
       </c>
       <c r="E19">
-        <v>0.9989466154080195</v>
+        <v>1.013629877012005</v>
       </c>
       <c r="F19">
-        <v>0.9990289008083504</v>
+        <v>1.021328452587445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040712306689976</v>
+        <v>1.041988524144313</v>
       </c>
       <c r="J19">
-        <v>1.010761489063363</v>
+        <v>1.021291491433213</v>
       </c>
       <c r="K19">
-        <v>1.019362881588347</v>
+        <v>1.028965914739126</v>
       </c>
       <c r="L19">
-        <v>1.012718915239883</v>
+        <v>1.027154112042641</v>
       </c>
       <c r="M19">
-        <v>1.012799784209325</v>
+        <v>1.034726286409902</v>
       </c>
       <c r="N19">
-        <v>1.012196886313797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009908788936972</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036626763249423</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031626817471952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9808471566597781</v>
+        <v>0.9905372478208206</v>
       </c>
       <c r="D20">
-        <v>1.003934734526017</v>
+        <v>1.012950451148708</v>
       </c>
       <c r="E20">
-        <v>0.9966943156712719</v>
+        <v>1.010042069830118</v>
       </c>
       <c r="F20">
-        <v>0.9965477602698131</v>
+        <v>1.017632259135584</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039969928791315</v>
+        <v>1.041000642304601</v>
       </c>
       <c r="J20">
-        <v>1.009136889507634</v>
+        <v>1.018437879967054</v>
       </c>
       <c r="K20">
-        <v>1.017908747432768</v>
+        <v>1.02676934171397</v>
       </c>
       <c r="L20">
-        <v>1.010795541673671</v>
+        <v>1.0239106103131</v>
       </c>
       <c r="M20">
-        <v>1.010651585993867</v>
+        <v>1.031371993729423</v>
       </c>
       <c r="N20">
-        <v>1.010569979640354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008685311380434</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033442323294259</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030077701301136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9730429888147404</v>
+        <v>0.9838792779665507</v>
       </c>
       <c r="D21">
-        <v>0.9980290573535805</v>
+        <v>1.008582382015673</v>
       </c>
       <c r="E21">
-        <v>0.9891903677722177</v>
+        <v>1.004271634316847</v>
       </c>
       <c r="F21">
-        <v>0.9882819955339563</v>
+        <v>1.012399844824021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037471791320431</v>
+        <v>1.039595436032771</v>
       </c>
       <c r="J21">
-        <v>1.003712666634335</v>
+        <v>1.014066811828826</v>
       </c>
       <c r="K21">
-        <v>1.013047866303421</v>
+        <v>1.023402962568591</v>
       </c>
       <c r="L21">
-        <v>1.004379467242658</v>
+        <v>1.019172528683287</v>
       </c>
       <c r="M21">
-        <v>1.003488822598197</v>
+        <v>1.027150045706582</v>
       </c>
       <c r="N21">
-        <v>1.005138053748408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007057638237882</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030059753560574</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027700784958687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9679724867231845</v>
+        <v>0.9796429909193272</v>
       </c>
       <c r="D22">
-        <v>0.9941956433471169</v>
+        <v>1.00580870156083</v>
       </c>
       <c r="E22">
-        <v>0.9843233536714383</v>
+        <v>1.000633711785002</v>
       </c>
       <c r="F22">
-        <v>0.9829211005496906</v>
+        <v>1.009131844347887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035832744363512</v>
+        <v>1.038695520966491</v>
       </c>
       <c r="J22">
-        <v>1.000185725858423</v>
+        <v>1.01130342559675</v>
       </c>
       <c r="K22">
-        <v>1.009882969337021</v>
+        <v>1.021265958571047</v>
       </c>
       <c r="L22">
-        <v>1.000211898901174</v>
+        <v>1.016192625165787</v>
       </c>
       <c r="M22">
-        <v>0.998838659846549</v>
+        <v>1.024524542582916</v>
       </c>
       <c r="N22">
-        <v>1.001606104312048</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00603185415314</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.027981810073303</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026176173046312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9706767200175143</v>
+        <v>0.9818807268145655</v>
       </c>
       <c r="D23">
-        <v>0.9962397110225852</v>
+        <v>1.007265445661881</v>
       </c>
       <c r="E23">
-        <v>0.9869182445264632</v>
+        <v>1.002553643215151</v>
       </c>
       <c r="F23">
-        <v>0.9857793030378847</v>
+        <v>1.010858049613224</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036708355092193</v>
+        <v>1.039165471694813</v>
       </c>
       <c r="J23">
-        <v>1.00206696588133</v>
+        <v>1.01275748935632</v>
       </c>
       <c r="K23">
-        <v>1.011571481612393</v>
+        <v>1.022384824323074</v>
       </c>
       <c r="L23">
-        <v>1.002434448305072</v>
+        <v>1.017763038199921</v>
       </c>
       <c r="M23">
-        <v>1.001318356471225</v>
+        <v>1.025909530081883</v>
       </c>
       <c r="N23">
-        <v>1.003490015911569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006567870447393</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029077953426441</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026957537077696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980975378362746</v>
+        <v>0.9904840512781564</v>
       </c>
       <c r="D24">
-        <v>1.004031811966912</v>
+        <v>1.012890723768387</v>
       </c>
       <c r="E24">
-        <v>0.9968177382167355</v>
+        <v>1.009956057376622</v>
       </c>
       <c r="F24">
-        <v>0.9966837201143203</v>
+        <v>1.017520477479658</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040010702698849</v>
+        <v>1.040960127647158</v>
       </c>
       <c r="J24">
-        <v>1.009225958256585</v>
+        <v>1.018353395446995</v>
       </c>
       <c r="K24">
-        <v>1.017988492491504</v>
+        <v>1.026695183420666</v>
       </c>
       <c r="L24">
-        <v>1.010900969360028</v>
+        <v>1.023810560601173</v>
       </c>
       <c r="M24">
-        <v>1.010769324712236</v>
+        <v>1.031246744705549</v>
       </c>
       <c r="N24">
-        <v>1.010659174877145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008635244304439</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033302056466683</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029997647254635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9922820098199061</v>
+        <v>1.000014991516818</v>
       </c>
       <c r="D25">
-        <v>1.012596488413418</v>
+        <v>1.019142049303931</v>
       </c>
       <c r="E25">
-        <v>1.007718615164431</v>
+        <v>1.01819356055349</v>
       </c>
       <c r="F25">
-        <v>1.008693560928775</v>
+        <v>1.024954588426529</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043567297348391</v>
+        <v>1.042899258500595</v>
       </c>
       <c r="J25">
-        <v>1.017071936374438</v>
+        <v>1.024541851148053</v>
       </c>
       <c r="K25">
-        <v>1.025002357275864</v>
+        <v>1.031450303172694</v>
       </c>
       <c r="L25">
-        <v>1.020198279682778</v>
+        <v>1.030515860556907</v>
       </c>
       <c r="M25">
-        <v>1.021158403096688</v>
+        <v>1.037177484963849</v>
       </c>
       <c r="N25">
-        <v>1.018516295183872</v>
+        <v>1.010916971719535</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037995871629917</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03335691602517</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007239896687039</v>
+        <v>1.007311315046759</v>
       </c>
       <c r="D2">
-        <v>1.023870675035339</v>
+        <v>1.023527747558999</v>
       </c>
       <c r="E2">
-        <v>1.024462881118298</v>
+        <v>1.024527548938624</v>
       </c>
       <c r="F2">
-        <v>1.030633278817924</v>
+        <v>1.03068380847126</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044310074713927</v>
+        <v>1.044242209899194</v>
       </c>
       <c r="J2">
-        <v>1.029206199177363</v>
+        <v>1.029275523557691</v>
       </c>
       <c r="K2">
-        <v>1.035007176178429</v>
+        <v>1.034668752877483</v>
       </c>
       <c r="L2">
-        <v>1.03559161283824</v>
+        <v>1.035655432933481</v>
       </c>
       <c r="M2">
-        <v>1.041681722893696</v>
+        <v>1.041731600033027</v>
       </c>
       <c r="N2">
-        <v>1.012623208781362</v>
+        <v>1.014269072644093</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041560677534673</v>
+        <v>1.04160015188724</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035823350560885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035592860027203</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021097146967861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012342965694411</v>
+        <v>1.012058085127674</v>
       </c>
       <c r="D3">
-        <v>1.027228231152882</v>
+        <v>1.02651983974096</v>
       </c>
       <c r="E3">
-        <v>1.028906494651034</v>
+        <v>1.028648301890323</v>
       </c>
       <c r="F3">
-        <v>1.034663590127608</v>
+        <v>1.034461966794518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04529187298631</v>
+        <v>1.045062408151673</v>
       </c>
       <c r="J3">
-        <v>1.032502712466493</v>
+        <v>1.032225346178456</v>
       </c>
       <c r="K3">
-        <v>1.037524183212794</v>
+        <v>1.036824276578472</v>
       </c>
       <c r="L3">
-        <v>1.03918240307298</v>
+        <v>1.038927288651438</v>
       </c>
       <c r="M3">
-        <v>1.044871352809747</v>
+        <v>1.044672100190131</v>
       </c>
       <c r="N3">
-        <v>1.013832000457368</v>
+        <v>1.015122414638887</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044085047657286</v>
+        <v>1.043927353330563</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037600435864408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037114059888892</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021590593305064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015571020087354</v>
+        <v>1.015064859602697</v>
       </c>
       <c r="D4">
-        <v>1.029354406244431</v>
+        <v>1.028417627783883</v>
       </c>
       <c r="E4">
-        <v>1.031723770920016</v>
+        <v>1.03126477147079</v>
       </c>
       <c r="F4">
-        <v>1.037222600767378</v>
+        <v>1.036864302657614</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045901307306574</v>
+        <v>1.045570821627262</v>
       </c>
       <c r="J4">
-        <v>1.034584633568028</v>
+        <v>1.034090900352042</v>
       </c>
       <c r="K4">
-        <v>1.039111002057443</v>
+        <v>1.038184760824941</v>
       </c>
       <c r="L4">
-        <v>1.041453820370274</v>
+        <v>1.040999951824565</v>
       </c>
       <c r="M4">
-        <v>1.046891615799737</v>
+        <v>1.046537270394845</v>
       </c>
       <c r="N4">
-        <v>1.014594225849318</v>
+        <v>1.015661482924662</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045683940711368</v>
+        <v>1.045403502026016</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038723358669247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038077021827783</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021899291147868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016916583757431</v>
+        <v>1.016318879422395</v>
       </c>
       <c r="D5">
-        <v>1.030243664113904</v>
+        <v>1.029212188258807</v>
       </c>
       <c r="E5">
-        <v>1.03289977959074</v>
+        <v>1.032357643478081</v>
       </c>
       <c r="F5">
-        <v>1.038291055647961</v>
+        <v>1.03786792676815</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046154544073375</v>
+        <v>1.045782103697888</v>
       </c>
       <c r="J5">
-        <v>1.035453425673694</v>
+        <v>1.03486994827469</v>
       </c>
       <c r="K5">
-        <v>1.039774475234017</v>
+        <v>1.038754290079346</v>
       </c>
       <c r="L5">
-        <v>1.042401643809159</v>
+        <v>1.041865401162746</v>
       </c>
       <c r="M5">
-        <v>1.047734722657833</v>
+        <v>1.04731613453499</v>
       </c>
       <c r="N5">
-        <v>1.014912977923814</v>
+        <v>1.015887150109413</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046351198204111</v>
+        <v>1.046019916356673</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039199671169164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038487617464546</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02202852219154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017148243083116</v>
+        <v>1.016534540603011</v>
       </c>
       <c r="D6">
-        <v>1.030399847475664</v>
+        <v>1.029351930925818</v>
       </c>
       <c r="E6">
-        <v>1.033102555661028</v>
+        <v>1.032545887873682</v>
       </c>
       <c r="F6">
-        <v>1.03847455825031</v>
+        <v>1.038040099004635</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046200471397792</v>
+        <v>1.04582066955597</v>
       </c>
       <c r="J6">
-        <v>1.035605171936378</v>
+        <v>1.035006000364869</v>
       </c>
       <c r="K6">
-        <v>1.039892725829778</v>
+        <v>1.038856226846102</v>
       </c>
       <c r="L6">
-        <v>1.042566117789565</v>
+        <v>1.042015472775467</v>
       </c>
       <c r="M6">
-        <v>1.047880405293179</v>
+        <v>1.047450586546848</v>
       </c>
       <c r="N6">
-        <v>1.014969818939533</v>
+        <v>1.01592741442572</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046466495307166</v>
+        <v>1.046126325294853</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039292037637712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038569317663745</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022052431064793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,105 +749,123 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015607233391507</v>
+        <v>1.015110572085361</v>
       </c>
       <c r="D7">
-        <v>1.029386555439153</v>
+        <v>1.028456404003793</v>
       </c>
       <c r="E7">
-        <v>1.031756011859795</v>
+        <v>1.031305624902536</v>
       </c>
       <c r="F7">
-        <v>1.037249781756868</v>
+        <v>1.036898207418156</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04591488326805</v>
+        <v>1.04558755488008</v>
       </c>
       <c r="J7">
-        <v>1.034614010548403</v>
+        <v>1.034129537517996</v>
       </c>
       <c r="K7">
-        <v>1.039139903159745</v>
+        <v>1.038220210031562</v>
       </c>
       <c r="L7">
-        <v>1.041482823081508</v>
+        <v>1.041037468636447</v>
       </c>
       <c r="M7">
-        <v>1.046915639338971</v>
+        <v>1.046567941957761</v>
       </c>
       <c r="N7">
-        <v>1.014608248377927</v>
+        <v>1.015702041395633</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045702953596235</v>
+        <v>1.045427776347522</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038763933405788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038124225688986</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021910638646709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009003478442915</v>
+        <v>1.008989667147691</v>
       </c>
       <c r="D8">
-        <v>1.025040826011823</v>
+        <v>1.024600829076056</v>
       </c>
       <c r="E8">
-        <v>1.0259980050637</v>
+        <v>1.025985495179385</v>
       </c>
       <c r="F8">
-        <v>1.032022175278913</v>
+        <v>1.032012402413804</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044660283200118</v>
+        <v>1.044550683033133</v>
       </c>
       <c r="J8">
-        <v>1.030353694005349</v>
+        <v>1.030340273640524</v>
       </c>
       <c r="K8">
-        <v>1.035891958807385</v>
+        <v>1.035457566602439</v>
       </c>
       <c r="L8">
-        <v>1.036836965937738</v>
+        <v>1.036824614951863</v>
       </c>
       <c r="M8">
-        <v>1.04278517621228</v>
+        <v>1.042775525679795</v>
       </c>
       <c r="N8">
-        <v>1.013048536025466</v>
+        <v>1.014662874771114</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042433985042845</v>
+        <v>1.042426347313813</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036471950274802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036175861631789</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021284567519921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9967371309191024</v>
+        <v>0.9976142222535</v>
       </c>
       <c r="D9">
-        <v>1.016977137678432</v>
+        <v>1.01743965663494</v>
       </c>
       <c r="E9">
-        <v>1.015354922591978</v>
+        <v>1.016147461902151</v>
       </c>
       <c r="F9">
-        <v>1.022393588099093</v>
+        <v>1.023013631348272</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042228235223453</v>
+        <v>1.042517993478194</v>
       </c>
       <c r="J9">
-        <v>1.022405637986495</v>
+        <v>1.023251510691514</v>
       </c>
       <c r="K9">
-        <v>1.029800649376352</v>
+        <v>1.030255985238305</v>
       </c>
       <c r="L9">
-        <v>1.02820369403493</v>
+        <v>1.028983879722307</v>
       </c>
       <c r="M9">
-        <v>1.03513350033711</v>
+        <v>1.035744045651423</v>
       </c>
       <c r="N9">
-        <v>1.010124139678425</v>
+        <v>1.01261716059903</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036378187361759</v>
+        <v>1.036861395661895</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032161746238457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032494509982723</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020076631991169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9882817001183236</v>
+        <v>0.989852132450489</v>
       </c>
       <c r="D10">
-        <v>1.011457546804391</v>
+        <v>1.012599513925585</v>
       </c>
       <c r="E10">
-        <v>1.008107132335494</v>
+        <v>1.00952339696167</v>
       </c>
       <c r="F10">
-        <v>1.015903960687958</v>
+        <v>1.017012975903328</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040522747244963</v>
+        <v>1.041113731313029</v>
       </c>
       <c r="J10">
-        <v>1.016968087450402</v>
+        <v>1.018474238771988</v>
       </c>
       <c r="K10">
-        <v>1.025622967951066</v>
+        <v>1.026744946543655</v>
       </c>
       <c r="L10">
-        <v>1.022331536712347</v>
+        <v>1.023722806416481</v>
       </c>
       <c r="M10">
-        <v>1.029991881190242</v>
+        <v>1.031081702946282</v>
       </c>
       <c r="N10">
-        <v>1.008136906198477</v>
+        <v>1.011366649184539</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032360728452839</v>
+        <v>1.03322320413757</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02922474520796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030030566493965</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019262402605877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9859315529478301</v>
+        <v>0.9877210565004095</v>
       </c>
       <c r="D11">
-        <v>1.010079754381653</v>
+        <v>1.011423102780463</v>
       </c>
       <c r="E11">
-        <v>1.006506208550394</v>
+        <v>1.008117453130439</v>
       </c>
       <c r="F11">
-        <v>1.014846424906009</v>
+        <v>1.016107323224855</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040259865490676</v>
+        <v>1.04093224765278</v>
       </c>
       <c r="J11">
-        <v>1.01590153783213</v>
+        <v>1.017613728415966</v>
       </c>
       <c r="K11">
-        <v>1.024814052280697</v>
+        <v>1.026132764128804</v>
       </c>
       <c r="L11">
-        <v>1.021306461565537</v>
+        <v>1.022887892776241</v>
       </c>
       <c r="M11">
-        <v>1.029493687290891</v>
+        <v>1.030731740227134</v>
       </c>
       <c r="N11">
-        <v>1.007901199815782</v>
+        <v>1.011466748151732</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032405748815962</v>
+        <v>1.033385034252513</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028685918994494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02963403338048</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019203351643666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9856068757057053</v>
+        <v>0.9874073723381578</v>
       </c>
       <c r="D12">
-        <v>1.009985364559273</v>
+        <v>1.011335489704575</v>
       </c>
       <c r="E12">
-        <v>1.006530860793264</v>
+        <v>1.008150621290475</v>
       </c>
       <c r="F12">
-        <v>1.015137629286508</v>
+        <v>1.016404458147316</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040359551256355</v>
+        <v>1.041026950874418</v>
       </c>
       <c r="J12">
-        <v>1.016033121449926</v>
+        <v>1.01775440456806</v>
       </c>
       <c r="K12">
-        <v>1.024923728933986</v>
+        <v>1.026248694856843</v>
       </c>
       <c r="L12">
-        <v>1.021534000366494</v>
+        <v>1.023123316654086</v>
       </c>
       <c r="M12">
-        <v>1.029980451161968</v>
+        <v>1.031223981470259</v>
       </c>
       <c r="N12">
-        <v>1.008073835426728</v>
+        <v>1.011698430422382</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033119090540523</v>
+        <v>1.034102371885122</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028763465159119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029715999509746</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019291340399828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9868386946383366</v>
+        <v>0.9884688852615533</v>
       </c>
       <c r="D13">
-        <v>1.010892618474141</v>
+        <v>1.012082850401824</v>
       </c>
       <c r="E13">
-        <v>1.00782686351254</v>
+        <v>1.009292940368768</v>
       </c>
       <c r="F13">
-        <v>1.016511568225885</v>
+        <v>1.017657518110682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040759931437017</v>
+        <v>1.041347283218154</v>
       </c>
       <c r="J13">
-        <v>1.017116000116371</v>
+        <v>1.018674970139998</v>
       </c>
       <c r="K13">
-        <v>1.025770723300001</v>
+        <v>1.026938897018303</v>
       </c>
       <c r="L13">
-        <v>1.022762098259939</v>
+        <v>1.02420079847594</v>
       </c>
       <c r="M13">
-        <v>1.031286129466075</v>
+        <v>1.032411144992436</v>
       </c>
       <c r="N13">
-        <v>1.008583299461536</v>
+        <v>1.012014014003935</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034429409641998</v>
+        <v>1.035318754163497</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02935981475116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030201238232285</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019501976703901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.988397584238031</v>
+        <v>0.9898298880500079</v>
       </c>
       <c r="D14">
-        <v>1.011977204541147</v>
+        <v>1.012983242451171</v>
       </c>
       <c r="E14">
-        <v>1.009300223189211</v>
+        <v>1.010588359329185</v>
       </c>
       <c r="F14">
-        <v>1.017954749503938</v>
+        <v>1.018961195680642</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041174410800132</v>
+        <v>1.041673559744578</v>
       </c>
       <c r="J14">
-        <v>1.018297488379496</v>
+        <v>1.019668231017105</v>
       </c>
       <c r="K14">
-        <v>1.0266934060797</v>
+        <v>1.027681051507394</v>
       </c>
       <c r="L14">
-        <v>1.024065598291905</v>
+        <v>1.025330030253633</v>
       </c>
       <c r="M14">
-        <v>1.032562362726682</v>
+        <v>1.033550688601613</v>
       </c>
       <c r="N14">
-        <v>1.009089743387209</v>
+        <v>1.012273608958687</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035612165836829</v>
+        <v>1.03639334915691</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030013626383821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030727534079038</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019705107035762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9891262761788105</v>
+        <v>0.9904721771631646</v>
       </c>
       <c r="D15">
-        <v>1.012468961649483</v>
+        <v>1.013394912748697</v>
       </c>
       <c r="E15">
-        <v>1.009951571457684</v>
+        <v>1.011162129421661</v>
       </c>
       <c r="F15">
-        <v>1.01856411649505</v>
+        <v>1.019509830066469</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041345587097902</v>
+        <v>1.041807536165512</v>
       </c>
       <c r="J15">
-        <v>1.018804643052436</v>
+        <v>1.020093243312528</v>
       </c>
       <c r="K15">
-        <v>1.027088858032397</v>
+        <v>1.027998016092128</v>
       </c>
       <c r="L15">
-        <v>1.024617325852724</v>
+        <v>1.025805794609378</v>
       </c>
       <c r="M15">
-        <v>1.033074199716994</v>
+        <v>1.03400302763241</v>
       </c>
       <c r="N15">
-        <v>1.009291853066521</v>
+        <v>1.012362966402325</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036054363762779</v>
+        <v>1.036788500031826</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030299138772399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030958114963061</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019785163215889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9924583539047838</v>
+        <v>0.9934565578377214</v>
       </c>
       <c r="D16">
-        <v>1.014621151537962</v>
+        <v>1.01522378820412</v>
       </c>
       <c r="E16">
-        <v>1.012765096591645</v>
+        <v>1.013663741686894</v>
       </c>
       <c r="F16">
-        <v>1.021071002233114</v>
+        <v>1.021772822315762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041999966270244</v>
+        <v>1.042318503834644</v>
       </c>
       <c r="J16">
-        <v>1.020896664290098</v>
+        <v>1.021854592181314</v>
       </c>
       <c r="K16">
-        <v>1.028695423448081</v>
+        <v>1.029287620182111</v>
       </c>
       <c r="L16">
-        <v>1.026871623416355</v>
+        <v>1.0277546325749</v>
       </c>
       <c r="M16">
-        <v>1.035034364944578</v>
+        <v>1.035724225873084</v>
       </c>
       <c r="N16">
-        <v>1.010033016433008</v>
+        <v>1.01263672312416</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037564859255093</v>
+        <v>1.038110134450197</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031438232482134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031873392388835</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020070870749523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9942019451586692</v>
+        <v>0.9950514858095458</v>
       </c>
       <c r="D17">
-        <v>1.015708038783227</v>
+        <v>1.01616984176788</v>
       </c>
       <c r="E17">
-        <v>1.014155425965493</v>
+        <v>1.014920758179873</v>
       </c>
       <c r="F17">
-        <v>1.022236029126898</v>
+        <v>1.0228337240915</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042283612368832</v>
+        <v>1.042543095520751</v>
       </c>
       <c r="J17">
-        <v>1.02188477201042</v>
+        <v>1.022701165361919</v>
       </c>
       <c r="K17">
-        <v>1.029446142896472</v>
+        <v>1.029900173155848</v>
       </c>
       <c r="L17">
-        <v>1.027919729481402</v>
+        <v>1.028672134254063</v>
       </c>
       <c r="M17">
-        <v>1.035865098309276</v>
+        <v>1.036452899681205</v>
       </c>
       <c r="N17">
-        <v>1.010337153710317</v>
+        <v>1.012743246503551</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038092163204814</v>
+        <v>1.038556815757057</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031971625371279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03230933890312</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020186736371976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9947082504191134</v>
+        <v>0.9955489203410601</v>
       </c>
       <c r="D18">
-        <v>1.015948130537065</v>
+        <v>1.0163998503219</v>
       </c>
       <c r="E18">
-        <v>1.014395827889546</v>
+        <v>1.01515363235196</v>
       </c>
       <c r="F18">
-        <v>1.022279936502569</v>
+        <v>1.022871933067238</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042260715605376</v>
+        <v>1.042522053999352</v>
       </c>
       <c r="J18">
-        <v>1.021972675163083</v>
+        <v>1.02278114519105</v>
       </c>
       <c r="K18">
-        <v>1.02949714189853</v>
+        <v>1.029941380664102</v>
       </c>
       <c r="L18">
-        <v>1.027970612647375</v>
+        <v>1.028715822351097</v>
       </c>
       <c r="M18">
-        <v>1.035724860664749</v>
+        <v>1.03630721015812</v>
       </c>
       <c r="N18">
-        <v>1.01027382854489</v>
+        <v>1.012658372493306</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037742983169242</v>
+        <v>1.038203422420177</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031995980829932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032325642446008</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020152035860907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9941412387413712</v>
+        <v>0.9950806784138474</v>
       </c>
       <c r="D19">
-        <v>1.015472152068897</v>
+        <v>1.016016592409899</v>
       </c>
       <c r="E19">
-        <v>1.013629877012005</v>
+        <v>1.014477196816079</v>
       </c>
       <c r="F19">
-        <v>1.021328452587445</v>
+        <v>1.021990800623939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041988524144313</v>
+        <v>1.042298870975299</v>
       </c>
       <c r="J19">
-        <v>1.021291491433213</v>
+        <v>1.022195106255095</v>
       </c>
       <c r="K19">
-        <v>1.028965914739126</v>
+        <v>1.02950137691832</v>
       </c>
       <c r="L19">
-        <v>1.027154112042641</v>
+        <v>1.027987398965345</v>
       </c>
       <c r="M19">
-        <v>1.034726286409902</v>
+        <v>1.035377873764413</v>
       </c>
       <c r="N19">
-        <v>1.009908788936972</v>
+        <v>1.012398495358901</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036626763249423</v>
+        <v>1.037142115314778</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031626817471952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03202160461811</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019994765775558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9905372478208206</v>
+        <v>0.9918796938405702</v>
       </c>
       <c r="D20">
-        <v>1.012950451148708</v>
+        <v>1.013877951772092</v>
       </c>
       <c r="E20">
-        <v>1.010042069830118</v>
+        <v>1.011253360509774</v>
       </c>
       <c r="F20">
-        <v>1.017632259135584</v>
+        <v>1.018580538799053</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041000642304601</v>
+        <v>1.04149418987512</v>
       </c>
       <c r="J20">
-        <v>1.018437879967054</v>
+        <v>1.019727268702629</v>
       </c>
       <c r="K20">
-        <v>1.02676934171397</v>
+        <v>1.027681086002287</v>
       </c>
       <c r="L20">
-        <v>1.0239106103131</v>
+        <v>1.025101177828267</v>
       </c>
       <c r="M20">
-        <v>1.031371993729423</v>
+        <v>1.032304354935687</v>
       </c>
       <c r="N20">
-        <v>1.008685311380434</v>
+        <v>1.011630335722824</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033442323294259</v>
+        <v>1.034180194588746</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030077701301136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03073894008695</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019483591342142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9838792779665507</v>
+        <v>0.9859809282372473</v>
       </c>
       <c r="D21">
-        <v>1.008582382015673</v>
+        <v>1.010213818864156</v>
       </c>
       <c r="E21">
-        <v>1.004271634316847</v>
+        <v>1.006165276931132</v>
       </c>
       <c r="F21">
-        <v>1.012399844824021</v>
+        <v>1.01388363496464</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039595436032771</v>
+        <v>1.040411216981665</v>
       </c>
       <c r="J21">
-        <v>1.014066811828826</v>
+        <v>1.016076703816084</v>
       </c>
       <c r="K21">
-        <v>1.023402962568591</v>
+        <v>1.025004237025748</v>
       </c>
       <c r="L21">
-        <v>1.019172528683287</v>
+        <v>1.021030780129359</v>
       </c>
       <c r="M21">
-        <v>1.027150045706582</v>
+        <v>1.028606666542898</v>
       </c>
       <c r="N21">
-        <v>1.007057638237882</v>
+        <v>1.011007181174613</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030059753560574</v>
+        <v>1.031212587353368</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027700784958687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.02884989891557</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018861013608106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9796429909193272</v>
+        <v>0.9822358259291719</v>
       </c>
       <c r="D22">
-        <v>1.00580870156083</v>
+        <v>1.007895538751154</v>
       </c>
       <c r="E22">
-        <v>1.000633711785002</v>
+        <v>1.002967581033659</v>
       </c>
       <c r="F22">
-        <v>1.009131844347887</v>
+        <v>1.010961511434419</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038695520966491</v>
+        <v>1.039720279229671</v>
       </c>
       <c r="J22">
-        <v>1.01130342559675</v>
+        <v>1.013776003421184</v>
       </c>
       <c r="K22">
-        <v>1.021265958571047</v>
+        <v>1.023312189538446</v>
       </c>
       <c r="L22">
-        <v>1.016192625165787</v>
+        <v>1.018480477906946</v>
       </c>
       <c r="M22">
-        <v>1.024524542582916</v>
+        <v>1.026318901948782</v>
       </c>
       <c r="N22">
-        <v>1.00603185415314</v>
+        <v>1.010614988369589</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027981810073303</v>
+        <v>1.029401948978591</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026176173046312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027638622922045</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018467943455151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9818807268145655</v>
+        <v>0.9841906211889119</v>
       </c>
       <c r="D23">
-        <v>1.007265445661881</v>
+        <v>1.009092541099975</v>
       </c>
       <c r="E23">
-        <v>1.002553643215151</v>
+        <v>1.004633949409157</v>
       </c>
       <c r="F23">
-        <v>1.010858049613224</v>
+        <v>1.01248849067172</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039165471694813</v>
+        <v>1.040070467622227</v>
       </c>
       <c r="J23">
-        <v>1.01275748935632</v>
+        <v>1.014963600676316</v>
       </c>
       <c r="K23">
-        <v>1.022384824323074</v>
+        <v>1.02417730972959</v>
       </c>
       <c r="L23">
-        <v>1.017763038199921</v>
+        <v>1.019803465090402</v>
       </c>
       <c r="M23">
-        <v>1.025909530081883</v>
+        <v>1.027509364252545</v>
       </c>
       <c r="N23">
-        <v>1.006567870447393</v>
+        <v>1.01076786309487</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029077953426441</v>
+        <v>1.030344134238555</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026957537077696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028239635074283</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018664469367766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9904840512781564</v>
+        <v>0.9918378092736242</v>
       </c>
       <c r="D24">
-        <v>1.012890723768387</v>
+        <v>1.013828492317402</v>
       </c>
       <c r="E24">
-        <v>1.009956057376622</v>
+        <v>1.011177665135867</v>
       </c>
       <c r="F24">
-        <v>1.017520477479658</v>
+        <v>1.018476922176645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040960127647158</v>
+        <v>1.041459604830095</v>
       </c>
       <c r="J24">
-        <v>1.018353395446995</v>
+        <v>1.019653717155812</v>
       </c>
       <c r="K24">
-        <v>1.026695183420666</v>
+        <v>1.027617039451645</v>
       </c>
       <c r="L24">
-        <v>1.023810560601173</v>
+        <v>1.025011291237364</v>
       </c>
       <c r="M24">
-        <v>1.031246744705549</v>
+        <v>1.032187150100695</v>
       </c>
       <c r="N24">
-        <v>1.008635244304439</v>
+        <v>1.011591728578665</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033302056466683</v>
+        <v>1.034046331421407</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029997647254635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030663381533062</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019458286526348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000014991516818</v>
+        <v>1.000631605637456</v>
       </c>
       <c r="D25">
-        <v>1.019142049303931</v>
+        <v>1.01934678695261</v>
       </c>
       <c r="E25">
-        <v>1.01819356055349</v>
+        <v>1.018751104239234</v>
       </c>
       <c r="F25">
-        <v>1.024954588426529</v>
+        <v>1.025390613717318</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042899258500595</v>
+        <v>1.043073947091427</v>
       </c>
       <c r="J25">
-        <v>1.024541851148053</v>
+        <v>1.025137732413594</v>
       </c>
       <c r="K25">
-        <v>1.031450303172694</v>
+        <v>1.03165201322743</v>
       </c>
       <c r="L25">
-        <v>1.030515860556907</v>
+        <v>1.031065143572479</v>
       </c>
       <c r="M25">
-        <v>1.037177484963849</v>
+        <v>1.037607156702078</v>
       </c>
       <c r="N25">
-        <v>1.010916971719535</v>
+        <v>1.013134065785346</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037995871629917</v>
+        <v>1.038335929107955</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03335691602517</v>
+        <v>1.03351313209568</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020405568199442</v>
       </c>
     </row>
   </sheetData>
